--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3CF1C16-E525-4F6B-8B62-4031DA8F24E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562AFA17-9888-40F7-AA43-7340B2284550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="32220" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="93">
   <si>
     <t>TagName</t>
   </si>
@@ -181,9 +181,6 @@
   </si>
   <si>
     <t>Heartbeat, AlarmReport</t>
-  </si>
-  <si>
-    <t>标签</t>
   </si>
   <si>
     <t>MDJ1_SDJ02</t>
@@ -290,6 +287,54 @@
   <si>
     <t>StackRemoval</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packing.Bagging.Status</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.Request</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.Code</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Status</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Request</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Code</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Sn</t>
+  </si>
+  <si>
+    <t>StackRemoval.Grouping.Request</t>
+  </si>
+  <si>
+    <t>StackRemoval</t>
+  </si>
+  <si>
+    <t>StackRemoval.Grouping.Code</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.Done</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Done</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Position</t>
+  </si>
+  <si>
+    <t>StackRemoval.Grouping.Done</t>
   </si>
 </sst>
 </file>
@@ -346,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,9 +402,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -752,22 +794,22 @@
         <f t="shared" ref="A2:A14" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),E2)</f>
         <v>Packing.Bagging.Status</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>75</v>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>65</v>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="5" t="s">
-        <v>60</v>
+      <c r="H2" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
@@ -805,8 +847,8 @@
         <f t="shared" si="0"/>
         <v>Packing.Bagging.Request</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -816,11 +858,11 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -858,8 +900,8 @@
         <f t="shared" si="0"/>
         <v>Packing.Bagging.Code</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>75</v>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -869,11 +911,11 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1"/>
-      <c r="H4" s="5" t="s">
-        <v>61</v>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -911,22 +953,22 @@
         <f t="shared" si="0"/>
         <v>Palletizer.Palletizing.Status</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>76</v>
+      <c r="B5" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>65</v>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="5" t="s">
-        <v>60</v>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -964,22 +1006,22 @@
         <f t="shared" si="0"/>
         <v>Palletizer.Palletizing.Request</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>76</v>
+      <c r="B6" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="5" t="s">
-        <v>67</v>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="5" t="s">
-        <v>60</v>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1017,22 +1059,22 @@
         <f t="shared" si="0"/>
         <v>Palletizer.Palletizing.Code</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>76</v>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G7" s="1"/>
-      <c r="H7" s="5" t="s">
-        <v>61</v>
+      <c r="H7" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1070,22 +1112,22 @@
         <f t="shared" si="0"/>
         <v>Palletizer.Palletizing.Sn</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>76</v>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="F8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1123,22 +1165,22 @@
         <f t="shared" si="0"/>
         <v>StackRemoval.Grouping.Request</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>68</v>
+      <c r="B9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>62</v>
+      <c r="F9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="5" t="s">
-        <v>60</v>
+      <c r="H9" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1176,22 +1218,22 @@
         <f t="shared" si="0"/>
         <v>StackRemoval.Grouping.Code</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>63</v>
+      <c r="F10" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="5" t="s">
-        <v>61</v>
+      <c r="H10" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1229,18 +1271,18 @@
         <f t="shared" si="0"/>
         <v>Packing.Bagging.Done</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>75</v>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>64</v>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -1282,18 +1324,18 @@
         <f t="shared" si="0"/>
         <v>Palletizer.Palletizing.Done</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>76</v>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>69</v>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
@@ -1335,18 +1377,18 @@
         <f t="shared" si="0"/>
         <v>Palletizer.Palletizing.Position</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>76</v>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
@@ -1388,18 +1430,18 @@
         <f t="shared" si="0"/>
         <v>StackRemoval.Grouping.Done</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>77</v>
+      <c r="B14" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>70</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
@@ -1447,10 +1489,10 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
@@ -1459,7 +1501,7 @@
     <col min="5" max="5" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="16384" width="9.08203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1486,23 +1528,19 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B2" s="5"/>
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="G2" s="5" t="s">
-        <v>75</v>
+      <c r="G2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A3" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>33</v>
@@ -1510,42 +1548,38 @@
       <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>75</v>
+      <c r="E3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A4" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="G4" s="5" t="s">
-        <v>75</v>
+      <c r="G4" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A5" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>76</v>
+      <c r="G5" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A6" s="1" t="s">
+        <v>83</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>33</v>
@@ -1553,41 +1587,38 @@
       <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>76</v>
+      <c r="E6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A7" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>76</v>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A8" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>76</v>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A9" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>33</v>
@@ -1595,71 +1626,66 @@
       <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>77</v>
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A10" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>77</v>
+      <c r="G10" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A11" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>75</v>
+      <c r="G11" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A12" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>76</v>
+      <c r="G12" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A13" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>76</v>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1" t="e">
-        <f>_xlfn.CONCAT(IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),IF(ISBLANK(#REF!),"",_xlfn.CONCAT(#REF!,".")),#REF!)</f>
-        <v>#REF!</v>
+      <c r="A14" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>77</v>
+      <c r="G14" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1709,8 +1735,8 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>53</v>
+      <c r="A2" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>42</v>
@@ -1730,10 +1756,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
@@ -1770,10 +1796,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>
@@ -1797,11 +1823,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1835,111 +1861,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25">
-      <c r="A1" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A14" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),E2)</f>
+        <v>Packing.Bagging.Status</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
+        <v>DB1002.2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1002</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="str">
+        <f t="shared" ref="P2:P14" si="2">IF(H2="STRING",64,"")</f>
+        <v/>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="T2" s="4"/>
       <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="W2" s="3"/>
+      <c r="Y2" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A15" si="0">_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,".")),IF(ISBLANK(C3),"",_xlfn.CONCAT(C3,".")),IF(ISBLANK(D3),"",_xlfn.CONCAT(D3,".")),E3)</f>
-        <v>Packing.Bagging.Status</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>75</v>
+        <f t="shared" si="0"/>
+        <v>Packing.Bagging.Request</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>65</v>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
+      <c r="H3" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I3" s="1" t="str">
-        <f t="shared" ref="I3:I15" si="1">_xlfn.CONCAT(J3,K3,".",L3,IF(ISBLANK(M3),"",_xlfn.CONCAT(".",M3)))</f>
-        <v>DB1002.2</v>
+        <f t="shared" si="1"/>
+        <v>DB1002.4</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -1948,7 +2023,7 @@
         <v>1002</v>
       </c>
       <c r="L3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -1957,7 +2032,7 @@
         <v>19</v>
       </c>
       <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P15" si="2">IF(H3="STRING",64,"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="Q3" s="1" t="s">
@@ -1966,38 +2041,42 @@
       <c r="R3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="5"/>
+      <c r="T3" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="V3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W3" s="3"/>
-      <c r="Y3" s="5" t="s">
-        <v>75</v>
+      <c r="W3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.Request</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>Packing.Bagging.Code</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.4</v>
+        <v>DB1002.6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -2006,7 +2085,7 @@
         <v>1002</v>
       </c>
       <c r="L4" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -2014,9 +2093,9 @@
       <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="1" t="str">
+      <c r="P4" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>64</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>20</v>
@@ -2024,42 +2103,37 @@
       <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="V4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="3"/>
+      <c r="Y4" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="Y4" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.Code</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>Palletizer.Palletizing.Status</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
+      <c r="D5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>61</v>
+      <c r="H5" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.6</v>
+        <v>DB1002.40</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -2068,7 +2142,7 @@
         <v>1002</v>
       </c>
       <c r="L5" s="1">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -2076,9 +2150,9 @@
       <c r="O5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v/>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
@@ -2089,34 +2163,33 @@
       <c r="V5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W5" s="3"/>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Status</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>65</v>
+        <v>Palletizer.Palletizing.Request</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.40</v>
+        <v>DB1002.42</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -2125,7 +2198,7 @@
         <v>1002</v>
       </c>
       <c r="L6" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -2143,36 +2216,42 @@
       <c r="R6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T6" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="V6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>76</v>
+      <c r="W6" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Request</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>67</v>
+        <v>Palletizer.Palletizing.Code</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.42</v>
+        <v>DB1002.44</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -2181,7 +2260,7 @@
         <v>1002</v>
       </c>
       <c r="L7" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -2189,9 +2268,9 @@
       <c r="O7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="1" t="str">
+      <c r="P7" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>64</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>20</v>
@@ -2199,42 +2278,36 @@
       <c r="R7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="V7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W7" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>76</v>
+      <c r="Y7" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Code</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>Palletizer.Palletizing.Sn</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>61</v>
+      <c r="H8" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.44</v>
+        <v>DB1002.78</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -2243,7 +2316,7 @@
         <v>1002</v>
       </c>
       <c r="L8" s="1">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -2251,9 +2324,9 @@
       <c r="O8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v/>
       </c>
       <c r="Q8" s="1" t="s">
         <v>20</v>
@@ -2264,33 +2337,34 @@
       <c r="V8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y8" s="5" t="s">
-        <v>76</v>
+      <c r="Y8" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Sn</v>
-      </c>
-      <c r="B9" s="5" t="s">
+        <v>StackRemoval.Grouping.Request</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>60</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.78</v>
+        <v>DB1002.80</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -2299,7 +2373,7 @@
         <v>1002</v>
       </c>
       <c r="L9" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -2317,37 +2391,43 @@
       <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="V9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="W9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Request</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>StackRemoval.Grouping.Code</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>60</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.80</v>
+        <v>DB1002.82</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -2356,7 +2436,7 @@
         <v>1002</v>
       </c>
       <c r="L10" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -2364,9 +2444,9 @@
       <c r="O10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="1" t="str">
+      <c r="P10" s="1">
         <f t="shared" si="2"/>
-        <v/>
+        <v>64</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
@@ -2374,62 +2454,55 @@
       <c r="R10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="V10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="W10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>77</v>
+      <c r="Y10" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Code</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="5" t="s">
+        <v>Packing.Bagging.Done</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>61</v>
+      <c r="H11" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.82</v>
+        <v>DB1001.2</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="1">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="L11" s="1">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="N11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="1">
+        <v>26</v>
+      </c>
+      <c r="P11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>64</v>
+        <v/>
       </c>
       <c r="Q11" s="1" t="s">
         <v>20</v>
@@ -2438,35 +2511,35 @@
         <v>21</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="5" t="s">
-        <v>77</v>
+        <v>36</v>
+      </c>
+      <c r="Y11" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.Done</v>
-      </c>
-      <c r="B12" s="5" t="s">
+        <v>Palletizer.Palletizing.Done</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>64</v>
+      <c r="D12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1001.2</v>
+        <v>DB1001.4</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -2475,7 +2548,7 @@
         <v>1001</v>
       </c>
       <c r="L12" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" s="1">
         <v>2</v>
@@ -2496,33 +2569,33 @@
       <c r="V12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y12" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Done</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="5" t="s">
+        <v>Palletizer.Palletizing.Position</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1001.4</v>
+        <v>DB1001.6</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -2531,7 +2604,7 @@
         <v>1001</v>
       </c>
       <c r="L13" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N13" s="1">
         <v>2</v>
@@ -2552,33 +2625,33 @@
       <c r="V13" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y13" s="5" t="s">
-        <v>76</v>
+      <c r="Y13" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Position</v>
-      </c>
-      <c r="B14" s="5" t="s">
+        <v>StackRemoval.Grouping.Done</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>72</v>
+      <c r="E14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1001.6</v>
+        <v>DB1001.8</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
@@ -2587,7 +2660,7 @@
         <v>1001</v>
       </c>
       <c r="L14" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N14" s="1">
         <v>2</v>
@@ -2608,71 +2681,11 @@
       <c r="V14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Y14" s="4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Done</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.8</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1001</v>
-      </c>
-      <c r="L15" s="1">
-        <v>8</v>
-      </c>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="P15" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
@@ -2741,10 +2754,10 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>43</v>
@@ -2781,10 +2794,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>46</v>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562AFA17-9888-40F7-AA43-7340B2284550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B51FFB-A062-4F15-A4FB-6D66DB0E9E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="104">
   <si>
     <t>TagName</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Bagging</t>
   </si>
   <si>
-    <t>INT</t>
-  </si>
-  <si>
     <t>WRITEONLY</t>
   </si>
   <si>
@@ -183,22 +180,6 @@
     <t>Heartbeat, AlarmReport</t>
   </si>
   <si>
-    <t>MDJ1_SDJ02</t>
-  </si>
-  <si>
-    <t>MDJ1_MDJ02</t>
-  </si>
-  <si>
-    <t>1#线-2号上袋机</t>
-  </si>
-  <si>
-    <t>1#线-2号码垛机</t>
-  </si>
-  <si>
-    <t>MDJ1_SDJ01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>包装机状态</t>
   </si>
   <si>
@@ -215,10 +196,6 @@
   </si>
   <si>
     <t>码垛包数</t>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>STRING</t>
@@ -335,6 +312,69 @@
   </si>
   <si>
     <t>StackRemoval.Grouping.Done</t>
+  </si>
+  <si>
+    <t>MDJ1</t>
+  </si>
+  <si>
+    <t>MDJ1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDJ01</t>
+  </si>
+  <si>
+    <t>SDJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ01</t>
+  </si>
+  <si>
+    <t>MDJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDJ01</t>
+  </si>
+  <si>
+    <t>CDJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#线-1号码垛机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1#线-1号出垛机</t>
+  </si>
+  <si>
+    <t>1#线-1号出垛机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_CDJ01</t>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigJson</t>
   </si>
 </sst>
 </file>
@@ -708,7 +748,7 @@
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -795,21 +835,21 @@
         <v>Packing.Bagging.Status</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
@@ -848,7 +888,7 @@
         <v>Packing.Bagging.Request</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -858,11 +898,11 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -901,7 +941,7 @@
         <v>Packing.Bagging.Code</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -911,11 +951,11 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -938,8 +978,7 @@
         <v>19</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>20</v>
@@ -954,21 +993,21 @@
         <v>Palletizer.Palletizing.Status</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1007,21 +1046,21 @@
         <v>Palletizer.Palletizing.Request</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1060,21 +1099,21 @@
         <v>Palletizer.Palletizing.Code</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1097,8 +1136,7 @@
         <v>19</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>20</v>
@@ -1113,21 +1151,21 @@
         <v>Palletizer.Palletizing.Sn</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1166,21 +1204,21 @@
         <v>StackRemoval.Grouping.Request</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1219,21 +1257,21 @@
         <v>StackRemoval.Grouping.Code</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1256,8 +1294,7 @@
         <v>19</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
@@ -1272,21 +1309,21 @@
         <v>Packing.Bagging.Done</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
+      <c r="H11" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1306,7 +1343,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1325,21 +1362,21 @@
         <v>Palletizer.Palletizing.Done</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
+      <c r="H12" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1359,7 +1396,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1378,21 +1415,21 @@
         <v>Palletizer.Palletizing.Position</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
+      <c r="H13" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1412,7 +1449,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1431,21 +1468,21 @@
         <v>StackRemoval.Grouping.Done</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
+      <c r="H14" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1465,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1488,7 +1525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1509,19 +1546,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -1529,163 +1566,163 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1696,11 +1733,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1714,103 +1751,110 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="b">
+      <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1">
-        <v>2</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="b">
+      <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1827,7 +1871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1"/>
+      <selection pane="topRight" activeCell="H2" sqref="H2:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1916,19 +1960,19 @@
         <v>17</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>2</v>
@@ -1940,19 +1984,19 @@
         <v>Packing.Bagging.Status</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
@@ -1985,11 +2029,11 @@
       </c>
       <c r="T2" s="4"/>
       <c r="V2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W2" s="3"/>
       <c r="Y2" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -1998,7 +2042,7 @@
         <v>Packing.Bagging.Request</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
@@ -2007,10 +2051,10 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2042,16 +2086,16 @@
         <v>21</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2060,7 +2104,7 @@
         <v>Packing.Bagging.Code</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
@@ -2069,10 +2113,10 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2094,8 +2138,7 @@
         <v>19</v>
       </c>
       <c r="P4" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>20</v>
@@ -2104,11 +2147,11 @@
         <v>21</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W4" s="3"/>
       <c r="Y4" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2117,19 +2160,19 @@
         <v>Palletizer.Palletizing.Status</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2161,10 +2204,10 @@
         <v>21</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2173,19 +2216,19 @@
         <v>Palletizer.Palletizing.Request</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2217,16 +2260,16 @@
         <v>21</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2235,19 +2278,19 @@
         <v>Palletizer.Palletizing.Code</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2269,8 +2312,7 @@
         <v>19</v>
       </c>
       <c r="P7" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>20</v>
@@ -2279,10 +2321,10 @@
         <v>21</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2291,19 +2333,19 @@
         <v>Palletizer.Palletizing.Sn</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2335,10 +2377,10 @@
         <v>21</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2347,20 +2389,20 @@
         <v>StackRemoval.Grouping.Request</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2392,16 +2434,16 @@
         <v>21</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2410,20 +2452,20 @@
         <v>StackRemoval.Grouping.Code</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2445,8 +2487,7 @@
         <v>19</v>
       </c>
       <c r="P10" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
@@ -2455,10 +2496,10 @@
         <v>21</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y10" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2467,19 +2508,19 @@
         <v>Packing.Bagging.Done</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2498,7 +2539,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2511,10 +2552,10 @@
         <v>21</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2523,19 +2564,19 @@
         <v>Palletizer.Palletizing.Done</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2554,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2567,10 +2608,10 @@
         <v>21</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2579,19 +2620,19 @@
         <v>Palletizer.Palletizing.Position</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2610,7 +2651,7 @@
         <v>2</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2623,10 +2664,10 @@
         <v>21</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2635,19 +2676,19 @@
         <v>StackRemoval.Grouping.Done</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2666,7 +2707,7 @@
         <v>2</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2679,10 +2720,10 @@
         <v>21</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2694,121 +2735,133 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="11.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="str">
+        <f>_xlfn.CONCAT(B2,"_",C2)</f>
+        <v>MDJ1_SDJ01</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="G2" s="1">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="b">
+      <c r="H2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A4" si="0">_xlfn.CONCAT(B3,"_",C3)</f>
+        <v>MDJ1_MDJ01</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="b">
+      <c r="H3" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_CDJ01</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="G4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1" t="b">
+      <c r="H4" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B51FFB-A062-4F15-A4FB-6D66DB0E9E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD7407-BA7B-432D-BEBA-4A89F3EE7753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="106">
   <si>
     <t>TagName</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Packing.Bagging.Status</t>
   </si>
   <si>
-    <t>Packing</t>
-  </si>
-  <si>
     <t>Packing.Bagging.Request</t>
   </si>
   <si>
@@ -375,6 +372,17 @@
   </si>
   <si>
     <t>ConfigJson</t>
+  </si>
+  <si>
+    <t>QrCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTrigger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessResult</t>
   </si>
 </sst>
 </file>
@@ -849,7 +857,7 @@
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
@@ -902,7 +910,7 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1007,7 +1015,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1060,7 +1068,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1165,7 +1173,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1218,7 +1226,7 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1323,7 +1331,7 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1376,7 +1384,7 @@
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1429,7 +1437,7 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1482,7 +1490,7 @@
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1526,7 +1534,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G2" sqref="G2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
@@ -1572,12 +1580,12 @@
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -1586,37 +1594,37 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -1625,37 +1633,37 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>32</v>
@@ -1664,65 +1672,65 @@
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1737,7 +1745,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1756,10 +1764,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -1777,7 +1785,7 @@
         <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1785,10 +1793,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -1811,10 +1819,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>44</v>
@@ -1834,19 +1842,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>
@@ -1869,9 +1877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Y14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1996,7 +2004,7 @@
         <v>47</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I2" s="1" t="str">
         <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
@@ -2027,13 +2035,12 @@
       <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T2" s="4"/>
       <c r="V2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="W2" s="3"/>
-      <c r="Y2" s="4" t="s">
-        <v>67</v>
+      <c r="Y2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -2054,7 +2061,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2094,8 +2101,8 @@
       <c r="W3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Y3" s="4" t="s">
-        <v>67</v>
+      <c r="Y3" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -2146,12 +2153,15 @@
       <c r="R4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T4" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="V4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="W4" s="3"/>
-      <c r="Y4" s="4" t="s">
-        <v>67</v>
+      <c r="Y4" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -2172,7 +2182,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2206,8 +2216,8 @@
       <c r="V5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="4" t="s">
-        <v>68</v>
+      <c r="Y5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -2228,7 +2238,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2268,8 +2278,8 @@
       <c r="W6" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Y6" s="4" t="s">
-        <v>68</v>
+      <c r="Y6" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -2320,11 +2330,14 @@
       <c r="R7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T7" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="V7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="4" t="s">
-        <v>68</v>
+      <c r="Y7" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -2345,7 +2358,7 @@
         <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2379,8 +2392,8 @@
       <c r="V8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="4" t="s">
-        <v>68</v>
+      <c r="Y8" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -2402,7 +2415,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2433,8 +2446,8 @@
       <c r="R9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>32</v>
+      <c r="T9" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>31</v>
@@ -2442,8 +2455,8 @@
       <c r="W9" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="Y9" s="4" t="s">
-        <v>69</v>
+      <c r="Y9" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -2495,11 +2508,14 @@
       <c r="R10" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T10" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="V10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="4" t="s">
-        <v>69</v>
+      <c r="Y10" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -2520,7 +2536,7 @@
         <v>56</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2554,8 +2570,8 @@
       <c r="V11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y11" s="4" t="s">
-        <v>67</v>
+      <c r="Y11" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -2576,7 +2592,7 @@
         <v>61</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2607,11 +2623,14 @@
       <c r="R12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T12" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="V12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y12" s="4" t="s">
-        <v>68</v>
+      <c r="Y12" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -2632,7 +2651,7 @@
         <v>64</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2663,11 +2682,14 @@
       <c r="R13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T13" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="V13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y13" s="4" t="s">
-        <v>68</v>
+      <c r="Y13" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -2688,7 +2710,7 @@
         <v>62</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2719,11 +2741,14 @@
       <c r="R14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T14" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="V14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y14" s="4" t="s">
-        <v>69</v>
+      <c r="Y14" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2737,12 +2762,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="11.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
@@ -2750,9 +2775,10 @@
     <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1"/>
+    <col min="7" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="9" max="9" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.4140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2760,10 +2786,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -2781,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2790,10 +2816,10 @@
         <v>MDJ1_SDJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -2817,13 +2843,13 @@
         <v>MDJ1_MDJ01</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>45</v>
@@ -2844,13 +2870,13 @@
         <v>MDJ1_CDJ01</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>69</v>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EAD7407-BA7B-432D-BEBA-4A89F3EE7753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454969C-BCA2-49BB-AE2D-A7271EC36B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="50620" yWindow="2620" windowWidth="24000" windowHeight="12670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
     <sheet name="DomainTags" sheetId="7" r:id="rId2"/>
-    <sheet name="Device" sheetId="6" r:id="rId3"/>
-    <sheet name="TagRaw" sheetId="2" r:id="rId4"/>
+    <sheet name="TagRaw" sheetId="2" r:id="rId3"/>
+    <sheet name="Device" sheetId="6" r:id="rId4"/>
     <sheet name="DeviceRaw" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="107">
   <si>
     <t>TagName</t>
   </si>
@@ -383,6 +383,10 @@
   </si>
   <si>
     <t>ProcessResult</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -400,12 +404,14 @@
     <font>
       <sz val="11"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1533,8 +1539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
@@ -1604,6 +1610,9 @@
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1643,6 +1652,9 @@
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="B7" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
@@ -1665,8 +1677,8 @@
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>32</v>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -1682,6 +1694,9 @@
       <c r="A10" s="1" t="s">
         <v>80</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
@@ -1693,6 +1708,9 @@
       <c r="A11" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
@@ -1704,6 +1722,9 @@
       <c r="A12" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B12" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1725,6 +1746,9 @@
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
@@ -1740,155 +1764,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T11" sqref="T11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <cols>
-    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
@@ -2521,7 +2411,7 @@
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.Done</v>
+        <v>Packing.Bagging.ProcessResult</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>67</v>
@@ -2530,7 +2420,7 @@
         <v>24</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>56</v>
@@ -2567,6 +2457,9 @@
       <c r="R11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T11" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="V11" s="1" t="s">
         <v>35</v>
       </c>
@@ -2577,7 +2470,7 @@
     <row r="12" spans="1:25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Done</v>
+        <v>Palletizer.Palletizing.ProcessResult</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>68</v>
@@ -2586,7 +2479,7 @@
         <v>59</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>61</v>
@@ -2682,9 +2575,6 @@
       <c r="R13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="V13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2695,7 +2585,7 @@
     <row r="14" spans="1:25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Done</v>
+        <v>StackRemoval.Grouping.ProcessResult</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>69</v>
@@ -2704,7 +2594,7 @@
         <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>62</v>
@@ -2749,6 +2639,140 @@
       </c>
       <c r="Y14" s="1" t="s">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="1">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2764,7 +2788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="14"/>
@@ -2782,8 +2806,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
+      <c r="A1" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>96</v>
@@ -2851,8 +2875,8 @@
       <c r="D3" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
+      <c r="E3" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A454969C-BCA2-49BB-AE2D-A7271EC36B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5100A1-C4BF-4898-AFE6-75D44077C586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="50620" yWindow="2620" windowWidth="24000" windowHeight="12670" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="141">
   <si>
     <t>TagName</t>
   </si>
@@ -238,10 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>垛位号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,25 +286,10 @@
     <t>Palletizer.Palletizing.Sn</t>
   </si>
   <si>
-    <t>StackRemoval.Grouping.Request</t>
-  </si>
-  <si>
     <t>StackRemoval</t>
   </si>
   <si>
-    <t>StackRemoval.Grouping.Code</t>
-  </si>
-  <si>
-    <t>Packing.Bagging.Done</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Done</t>
-  </si>
-  <si>
     <t>Palletizer.Palletizing.Position</t>
-  </si>
-  <si>
-    <t>StackRemoval.Grouping.Done</t>
   </si>
   <si>
     <t>MDJ1</t>
@@ -387,6 +368,128 @@
   <si>
     <t>Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletCode</t>
+  </si>
+  <si>
+    <t>PalletCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletOut</t>
+  </si>
+  <si>
+    <t>PalletOut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垛盘码数据</t>
+  </si>
+  <si>
+    <t>Packing</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>DB1002.2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DB1002.4</t>
+  </si>
+  <si>
+    <t>STRING</t>
+  </si>
+  <si>
+    <t>DB1002.6</t>
+  </si>
+  <si>
+    <t>Palletizing</t>
+  </si>
+  <si>
+    <t>DB1002.40</t>
+  </si>
+  <si>
+    <t>DB1002.42</t>
+  </si>
+  <si>
+    <t>DB1002.44</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>DB1002.78</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.Request</t>
+  </si>
+  <si>
+    <t>Grouping</t>
+  </si>
+  <si>
+    <t>组托申请读码</t>
+  </si>
+  <si>
+    <t>DB1002.80</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.Code</t>
+  </si>
+  <si>
+    <t>组托袋码数据</t>
+  </si>
+  <si>
+    <t>DB1002.82</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.PalletCode</t>
+  </si>
+  <si>
+    <t>DB1002.116</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.ProcessResult</t>
+  </si>
+  <si>
+    <t>包装机读码完成</t>
+  </si>
+  <si>
+    <t>DB1001.2</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.ProcessResult</t>
+  </si>
+  <si>
+    <t>码垛机读码完成</t>
+  </si>
+  <si>
+    <t>DB1001.4</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>垛位号</t>
+  </si>
+  <si>
+    <t>DB1001.6</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.ProcessResult</t>
+  </si>
+  <si>
+    <t>组托读码完成</t>
+  </si>
+  <si>
+    <t>DB1001.8</t>
   </si>
 </sst>
 </file>
@@ -445,7 +548,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,6 +565,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,16 +865,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.4140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
@@ -844,30 +950,28 @@
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A14" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),E2)</f>
-        <v>Packing.Bagging.Status</v>
+      <c r="A2" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
-        <v>DB1002.2</v>
+        <v>108</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -885,9 +989,8 @@
       <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P14" si="2">IF(H2="STRING",64,"")</f>
-        <v/>
+      <c r="P2" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
@@ -897,12 +1000,11 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Packing.Bagging.Request</v>
+      <c r="A3" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -916,11 +1018,10 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.4</v>
+        <v>108</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -938,9 +1039,8 @@
       <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P3" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
@@ -950,12 +1050,11 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Packing.Bagging.Code</v>
+      <c r="A4" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -969,11 +1068,10 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.6</v>
+        <v>112</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -1002,30 +1100,28 @@
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Status</v>
+      <c r="A5" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.40</v>
+        <v>108</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -1043,9 +1139,8 @@
       <c r="O5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P5" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
@@ -1055,16 +1150,15 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Request</v>
+      <c r="A6" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
@@ -1074,11 +1168,10 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.42</v>
+        <v>108</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -1096,9 +1189,8 @@
       <c r="O6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P6" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>20</v>
@@ -1108,16 +1200,15 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Code</v>
+      <c r="A7" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1127,11 +1218,10 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.44</v>
+        <v>112</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -1160,30 +1250,28 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Sn</v>
+      <c r="A8" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.78</v>
+        <v>108</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -1201,9 +1289,8 @@
       <c r="O8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P8" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>20</v>
@@ -1213,30 +1300,28 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Request</v>
+      <c r="A9" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.80</v>
+        <v>108</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>123</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -1254,9 +1339,8 @@
       <c r="O9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P9" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>20</v>
@@ -1266,30 +1350,28 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Code</v>
+      <c r="A10" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.82</v>
+        <v>112</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -1318,50 +1400,47 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Packing.Bagging.Done</v>
+      <c r="A11" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.2</v>
+        <v>112</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="1">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L11" s="1">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>19</v>
+      </c>
+      <c r="P11" s="1">
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>20</v>
@@ -1371,30 +1450,28 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Done</v>
+      <c r="A12" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>130</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.4</v>
+        <v>108</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>131</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -1403,7 +1480,7 @@
         <v>1001</v>
       </c>
       <c r="L12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1">
@@ -1412,9 +1489,8 @@
       <c r="O12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P12" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>20</v>
@@ -1424,30 +1500,28 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Position</v>
+      <c r="A13" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.6</v>
+        <v>108</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>134</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -1456,7 +1530,7 @@
         <v>1001</v>
       </c>
       <c r="L13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1">
@@ -1465,9 +1539,8 @@
       <c r="O13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P13" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
@@ -1477,30 +1550,28 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Done</v>
+      <c r="A14" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.8</v>
+        <v>108</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
@@ -1509,7 +1580,7 @@
         <v>1001</v>
       </c>
       <c r="L14" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1">
@@ -1518,14 +1589,63 @@
       <c r="O14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+      <c r="P14" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1001</v>
+      </c>
+      <c r="L15" s="6">
+        <v>8</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6">
+        <v>2</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1537,22 +1657,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="28.08203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.08203125" style="1"/>
+    <col min="8" max="16384" width="28.08203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1580,7 +1700,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -1591,7 +1714,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -1600,7 +1723,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
@@ -1608,10 +1731,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -1622,7 +1745,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -1633,7 +1759,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -1642,7 +1768,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
@@ -1650,10 +1776,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -1664,7 +1790,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1675,66 +1804,69 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -1745,16 +1877,30 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>100</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1765,11 +1911,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y14"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T2" sqref="T2:T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1878,11 +2024,11 @@
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A14" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),E2)</f>
+        <f t="shared" ref="A2:A15" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),E2)</f>
         <v>Packing.Bagging.Status</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>24</v>
@@ -1894,10 +2040,10 @@
         <v>47</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I14" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
+        <f t="shared" ref="I2:I15" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
         <v>DB1002.2</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -1916,7 +2062,7 @@
         <v>19</v>
       </c>
       <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P14" si="2">IF(H2="STRING",64,"")</f>
+        <f t="shared" ref="P2:P15" si="2">IF(H2="STRING",64,"")</f>
         <v/>
       </c>
       <c r="Q2" s="1" t="s">
@@ -1924,6 +2070,9 @@
       </c>
       <c r="R2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>31</v>
@@ -1939,7 +2088,7 @@
         <v>Packing.Bagging.Request</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
@@ -1951,7 +2100,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1989,7 +2138,7 @@
         <v>31</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y3" s="1" t="s">
         <v>33</v>
@@ -2001,7 +2150,7 @@
         <v>Packing.Bagging.Code</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>24</v>
@@ -2044,7 +2193,7 @@
         <v>21</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>31</v>
@@ -2060,7 +2209,7 @@
         <v>Palletizer.Palletizing.Status</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>59</v>
@@ -2072,7 +2221,7 @@
         <v>50</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2102,6 +2251,9 @@
       </c>
       <c r="R5" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>31</v>
@@ -2116,7 +2268,7 @@
         <v>Palletizer.Palletizing.Request</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>59</v>
@@ -2128,7 +2280,7 @@
         <v>48</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2166,7 +2318,7 @@
         <v>31</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>34</v>
@@ -2178,7 +2330,7 @@
         <v>Palletizer.Palletizing.Code</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>59</v>
@@ -2221,7 +2373,7 @@
         <v>21</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="V7" s="1" t="s">
         <v>31</v>
@@ -2236,7 +2388,7 @@
         <v>Palletizer.Palletizing.Sn</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>59</v>
@@ -2248,7 +2400,7 @@
         <v>52</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I8" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2279,6 +2431,9 @@
       <c r="R8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T8" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="V8" s="1" t="s">
         <v>31</v>
       </c>
@@ -2289,10 +2444,10 @@
     <row r="9" spans="1:25">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Request</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>69</v>
+        <v>PalletOut.Grouping.Request</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
@@ -2305,7 +2460,7 @@
         <v>54</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I9" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2337,25 +2492,25 @@
         <v>21</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="V9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.Code</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>69</v>
+        <v>PalletOut.Grouping.Code</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
@@ -2399,57 +2554,57 @@
         <v>21</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="V10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.ProcessResult</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>PalletOut.Grouping.PalletCode</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>56</v>
-      </c>
       <c r="H11" s="4" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.2</v>
+        <f t="shared" ref="I11" si="3">_xlfn.CONCAT(J11,K11,".",L11,IF(ISBLANK(M11),"",_xlfn.CONCAT(".",M11)))</f>
+        <v>DB1002.116</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K11" s="1">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="L11" s="1">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="N11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>19</v>
+      </c>
+      <c r="P11" s="1">
+        <v>32</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>20</v>
@@ -2458,38 +2613,38 @@
         <v>21</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="V11" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.ProcessResult</v>
+        <v>Packing.Bagging.ProcessResult</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1001.4</v>
+        <v>DB1001.2</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -2498,7 +2653,7 @@
         <v>1001</v>
       </c>
       <c r="L12" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" s="1">
         <v>2</v>
@@ -2517,38 +2672,38 @@
         <v>21</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="V12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Position</v>
+        <v>Palletizer.Palletizing.ProcessResult</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I13" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1001.6</v>
+        <v>DB1001.4</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -2557,7 +2712,7 @@
         <v>1001</v>
       </c>
       <c r="L13" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N13" s="1">
         <v>2</v>
@@ -2575,6 +2730,9 @@
       <c r="R13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="T13" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="V13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2585,26 +2743,26 @@
     <row r="14" spans="1:25">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>StackRemoval.Grouping.ProcessResult</v>
+        <v>Palletizer.Palletizing.Position</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1001.8</v>
+        <v>DB1001.6</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
@@ -2613,7 +2771,7 @@
         <v>1001</v>
       </c>
       <c r="L14" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N14" s="1">
         <v>2</v>
@@ -2632,13 +2790,72 @@
         <v>21</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="V14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>100</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PalletOut.Grouping.ProcessResult</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2673,10 +2890,10 @@
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -2694,7 +2911,7 @@
         <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2702,10 +2919,10 @@
         <v>33</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -2728,10 +2945,10 @@
         <v>34</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>44</v>
@@ -2751,19 +2968,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>
@@ -2807,13 +3024,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -2831,7 +3048,7 @@
         <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2840,10 +3057,10 @@
         <v>MDJ1_SDJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>41</v>
@@ -2867,16 +3084,16 @@
         <v>MDJ1_MDJ01</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>92</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>43</v>
@@ -2894,16 +3111,16 @@
         <v>MDJ1_CDJ01</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>46</v>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5100A1-C4BF-4898-AFE6-75D44077C586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4F2FA5-C6AB-4314-ABE5-F58F37D22415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="219">
   <si>
     <t>TagName</t>
   </si>
@@ -162,24 +162,12 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>1#线-1号上袋机</t>
-  </si>
-  <si>
-    <t>BagPicker</t>
-  </si>
-  <si>
     <t>Heartbeat, AlarmReport, OutputCount</t>
   </si>
   <si>
-    <t>1#线-1号码垛机</t>
-  </si>
-  <si>
     <t>Palletizer</t>
   </si>
   <si>
-    <t>Heartbeat, AlarmReport</t>
-  </si>
-  <si>
     <t>包装机状态</t>
   </si>
   <si>
@@ -250,150 +238,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Palletizer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packing.Bagging.Status</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.Request</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.Code</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Status</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Request</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Code</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Sn</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Position</t>
+  </si>
+  <si>
+    <t>MDJ1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_CDJ01</t>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigJson</t>
+  </si>
+  <si>
+    <t>QrCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTrigger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessResult</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletCode</t>
+  </si>
+  <si>
+    <t>PalletCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletOut</t>
+  </si>
+  <si>
+    <t>PalletOut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垛盘码数据</t>
+  </si>
+  <si>
     <t>Packing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palletizer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StackRemoval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Packing.Bagging.Status</t>
-  </si>
-  <si>
-    <t>Packing.Bagging.Request</t>
-  </si>
-  <si>
-    <t>=1</t>
-  </si>
-  <si>
-    <t>Packing.Bagging.Code</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Status</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Request</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Code</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Sn</t>
-  </si>
-  <si>
-    <t>StackRemoval</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Position</t>
-  </si>
-  <si>
-    <t>MDJ1</t>
-  </si>
-  <si>
-    <t>MDJ1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device</t>
-  </si>
-  <si>
-    <t>Device</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SDJ01</t>
-  </si>
-  <si>
-    <t>SDJ01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDJ01</t>
-  </si>
-  <si>
-    <t>MDJ01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDJ01</t>
-  </si>
-  <si>
-    <t>CDJ01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line</t>
-  </si>
-  <si>
-    <t>Line</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#线-1号码垛机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1#线-1号出垛机</t>
-  </si>
-  <si>
-    <t>1#线-1号出垛机</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDJ1_CDJ01</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
   <si>
     <t>Short</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigJson</t>
-  </si>
-  <si>
-    <t>QrCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessResult</t>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalletCode</t>
-  </si>
-  <si>
-    <t>PalletCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalletOut</t>
-  </si>
-  <si>
-    <t>PalletOut</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垛盘码数据</t>
-  </si>
-  <si>
-    <t>Packing</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Short</t>
   </si>
   <si>
     <t>DB1002.2</t>
@@ -490,13 +434,325 @@
   </si>
   <si>
     <t>DB1001.8</t>
+  </si>
+  <si>
+    <t>MDJ2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packaging</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Station</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZJ02</t>
+  </si>
+  <si>
+    <t>BZJ03</t>
+  </si>
+  <si>
+    <t>BZJ04</t>
+  </si>
+  <si>
+    <t>包装机01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装机02</t>
+  </si>
+  <si>
+    <t>包装机03</t>
+  </si>
+  <si>
+    <t>包装机04</t>
+  </si>
+  <si>
+    <t>包装机05</t>
+  </si>
+  <si>
+    <t>包装机06</t>
+  </si>
+  <si>
+    <t>包装机07</t>
+  </si>
+  <si>
+    <t>包装机08</t>
+  </si>
+  <si>
+    <t>BZJ05</t>
+  </si>
+  <si>
+    <t>BZJ06</t>
+  </si>
+  <si>
+    <t>BZJ07</t>
+  </si>
+  <si>
+    <t>BZJ08</t>
+  </si>
+  <si>
+    <t>BZJ09</t>
+  </si>
+  <si>
+    <t>BZJ10</t>
+  </si>
+  <si>
+    <t>BZJ11</t>
+  </si>
+  <si>
+    <t>BZJ12</t>
+  </si>
+  <si>
+    <t>BZJ13</t>
+  </si>
+  <si>
+    <t>BZJ14</t>
+  </si>
+  <si>
+    <t>BZJ15</t>
+  </si>
+  <si>
+    <t>BZJ16</t>
+  </si>
+  <si>
+    <t>包装机09</t>
+  </si>
+  <si>
+    <t>包装机10</t>
+  </si>
+  <si>
+    <t>包装机11</t>
+  </si>
+  <si>
+    <t>包装机12</t>
+  </si>
+  <si>
+    <t>包装机13</t>
+  </si>
+  <si>
+    <t>包装机14</t>
+  </si>
+  <si>
+    <t>包装机15</t>
+  </si>
+  <si>
+    <t>包装机16</t>
+  </si>
+  <si>
+    <t>码垛机01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ02</t>
+  </si>
+  <si>
+    <t>MDJ03</t>
+  </si>
+  <si>
+    <t>MDJ04</t>
+  </si>
+  <si>
+    <t>MDJ05</t>
+  </si>
+  <si>
+    <t>MDJ06</t>
+  </si>
+  <si>
+    <t>码垛机02</t>
+  </si>
+  <si>
+    <t>码垛机03</t>
+  </si>
+  <si>
+    <t>码垛机04</t>
+  </si>
+  <si>
+    <t>码垛机05</t>
+  </si>
+  <si>
+    <t>码垛机06</t>
+  </si>
+  <si>
+    <t>称重机01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CZJ02</t>
+  </si>
+  <si>
+    <t>称重机02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checkweigher</t>
+  </si>
+  <si>
+    <t>Labeling</t>
+  </si>
+  <si>
+    <t>贴标机01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标机02</t>
+  </si>
+  <si>
+    <t>TBJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBJ02</t>
+  </si>
+  <si>
+    <t>1秒心跳</t>
+  </si>
+  <si>
+    <t>手动模式</t>
+  </si>
+  <si>
+    <t>自动模式</t>
+  </si>
+  <si>
+    <t>运行状态</t>
+  </si>
+  <si>
+    <t>HeartBeat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FMJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆膜机01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>StretchWrapper</t>
+  </si>
+  <si>
+    <t>FMJ02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆膜机02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ManualMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunningStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZ01</t>
+  </si>
+  <si>
+    <t>BZ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BZ02</t>
+  </si>
+  <si>
+    <t>BZ03</t>
+  </si>
+  <si>
+    <t>BZ04</t>
+  </si>
+  <si>
+    <t>BZ05</t>
+  </si>
+  <si>
+    <t>BZ06</t>
+  </si>
+  <si>
+    <t>BZ07</t>
+  </si>
+  <si>
+    <t>BZ08</t>
+  </si>
+  <si>
+    <t>CZ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MD01</t>
+  </si>
+  <si>
+    <t>MD02</t>
+  </si>
+  <si>
+    <t>MD03</t>
+  </si>
+  <si>
+    <t>FM01</t>
+  </si>
+  <si>
+    <t>TB01</t>
+  </si>
+  <si>
+    <t>CZ02</t>
+  </si>
+  <si>
+    <t>MD04</t>
+  </si>
+  <si>
+    <t>MD05</t>
+  </si>
+  <si>
+    <t>MD06</t>
+  </si>
+  <si>
+    <t>FM02</t>
+  </si>
+  <si>
+    <t>CD01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出垛机01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDJ02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>出垛机02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +781,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -548,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -568,6 +832,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -867,30 +1134,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.4140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -951,27 +1218,27 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
@@ -990,7 +1257,7 @@
         <v>19</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>20</v>
@@ -1001,10 +1268,10 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
@@ -1014,14 +1281,14 @@
         <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
@@ -1040,7 +1307,7 @@
         <v>19</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
@@ -1051,10 +1318,10 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
@@ -1064,14 +1331,14 @@
         <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
@@ -1101,27 +1368,27 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -1140,7 +1407,7 @@
         <v>19</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
@@ -1151,27 +1418,27 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
@@ -1190,7 +1457,7 @@
         <v>19</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>20</v>
@@ -1201,27 +1468,27 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
@@ -1251,27 +1518,27 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
@@ -1290,7 +1557,7 @@
         <v>19</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>20</v>
@@ -1301,27 +1568,27 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
@@ -1340,7 +1607,7 @@
         <v>19</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>20</v>
@@ -1351,27 +1618,27 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
@@ -1401,27 +1668,27 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="4" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
@@ -1451,27 +1718,27 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
@@ -1490,7 +1757,7 @@
         <v>25</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>20</v>
@@ -1501,27 +1768,27 @@
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
@@ -1540,7 +1807,7 @@
         <v>25</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
@@ -1551,27 +1818,27 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="4" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
@@ -1590,7 +1857,7 @@
         <v>25</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>20</v>
@@ -1601,27 +1868,27 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="J15" s="6" t="s">
         <v>18</v>
@@ -1640,7 +1907,7 @@
         <v>25</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>20</v>
@@ -1660,19 +1927,19 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.08203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="28.08203125" style="1"/>
+    <col min="5" max="5" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="28.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1700,10 +1967,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -1714,7 +1981,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -1723,7 +1990,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
@@ -1731,10 +1998,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -1745,10 +2012,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -1759,7 +2026,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -1768,7 +2035,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
@@ -1776,10 +2043,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -1790,10 +2057,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -1804,55 +2071,55 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
@@ -1863,10 +2130,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -1877,10 +2144,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
@@ -1891,16 +2158,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1911,951 +2178,1073 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Y15"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T2" sqref="T2:T15"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:26">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A15" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),E2)</f>
-        <v>Packing.Bagging.Status</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>57</v>
+        <f t="shared" ref="A2:A19" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <v>HeartBeat</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" s="1" t="str">
-        <f t="shared" ref="I2:I15" si="1">_xlfn.CONCAT(J2,K2,".",L2,IF(ISBLANK(M2),"",_xlfn.CONCAT(".",M2)))</f>
-        <v>DB1002.2</v>
-      </c>
-      <c r="J2" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J5" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <v>DB1002.0.0</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>1002</v>
       </c>
-      <c r="L2" s="1">
-        <v>2</v>
+      <c r="M2" s="1">
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="str">
-        <f t="shared" ref="P2:P15" si="2">IF(H2="STRING",64,"")</f>
-        <v/>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="3"/>
-      <c r="Y2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.Request</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>ManualMode</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="1" t="str">
+        <v>190</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J3" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.4</v>
-      </c>
-      <c r="J3" s="1" t="s">
+        <v>DB1002.0.1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>1002</v>
       </c>
-      <c r="L3" s="1">
-        <v>4</v>
+      <c r="M3" s="1">
+        <v>0</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.Code</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>AutoMode</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I4" s="1" t="str">
+        <v>192</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.6</v>
-      </c>
-      <c r="J4" s="1" t="s">
+        <v>DB1002.0.2</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>1002</v>
       </c>
-      <c r="L4" s="1">
-        <v>6</v>
+      <c r="M4" s="1">
+        <v>0</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="3"/>
-      <c r="Y4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Status</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>RunningStatus</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I5" s="1" t="str">
+        <v>191</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.40</v>
-      </c>
-      <c r="J5" s="1" t="s">
+        <v>DB1002.0.3</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>1002</v>
       </c>
-      <c r="L5" s="1">
-        <v>40</v>
+      <c r="M5" s="1">
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
+        <v>BZJ01.Bagging.Status</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" ref="J6:J19" si="2">_xlfn.CONCAT(K6,L6,".",M6,IF(ISBLANK(N6),"",_xlfn.CONCAT(".",N6)))</f>
+        <v>DB1002.2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" ref="Q6:Q19" si="3">IF(I6="STRING",64,"")</f>
         <v/>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="V5" s="1" t="s">
+      <c r="U6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Request</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.42</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="L6" s="1">
-        <v>42</v>
-      </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="X6" s="3"/>
+      <c r="Z6" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Code</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>59</v>
+        <v>BZJ01.Bagging.Request</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.44</v>
-      </c>
-      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.4</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1002</v>
       </c>
-      <c r="L7" s="1">
-        <v>44</v>
-      </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="X7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Sn</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>58</v>
+        <v>BZJ01.Bagging.Code</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.78</v>
-      </c>
-      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.6</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>1002</v>
       </c>
-      <c r="L8" s="1">
-        <v>78</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="1">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="V8" s="1" t="s">
+      <c r="U8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="X8" s="3"/>
+      <c r="Z8" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PalletOut.Grouping.Request</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>MDJ01.Palletizing.Status</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.80</v>
-      </c>
-      <c r="J9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.40</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1002</v>
       </c>
-      <c r="L9" s="1">
-        <v>80</v>
-      </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="M9" s="1">
+        <v>40</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="V9" s="1" t="s">
+      <c r="U9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PalletOut.Grouping.Code</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>MDJ01.Palletizing.Request</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.82</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.42</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>1002</v>
       </c>
-      <c r="L10" s="1">
-        <v>82</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="M10" s="1">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="V10" s="1" t="s">
+      <c r="W10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y10" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="X10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PalletOut.Grouping.PalletCode</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="1" t="str">
-        <f t="shared" ref="I11" si="3">_xlfn.CONCAT(J11,K11,".",L11,IF(ISBLANK(M11),"",_xlfn.CONCAT(".",M11)))</f>
-        <v>DB1002.116</v>
-      </c>
-      <c r="J11" s="1" t="s">
+        <v>MDJ01.Palletizing.Code</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.44</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>1002</v>
       </c>
-      <c r="L11" s="1">
-        <v>116</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="M11" s="1">
+        <v>44</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>32</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="V11" s="1" t="s">
+      <c r="U11" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Packing.Bagging.ProcessResult</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>MDJ01.Palletizing.Sn</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.2</v>
-      </c>
-      <c r="J12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.78</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="1">
-        <v>1001</v>
-      </c>
       <c r="L12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <v>1002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>78</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="U12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.ProcessResult</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>Grouping.Request</v>
+      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.80</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.4</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1001</v>
-      </c>
-      <c r="L13" s="1">
-        <v>4</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2</v>
-      </c>
-      <c r="O13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizer.Palletizing.Position</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>59</v>
-      </c>
+        <v>Grouping.Code</v>
+      </c>
+      <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.6</v>
-      </c>
-      <c r="J14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.82</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="1">
-        <v>1001</v>
-      </c>
       <c r="L14" s="1">
-        <v>6</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="Q14" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>82</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>32</v>
+      </c>
+      <c r="R14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="U14" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PalletOut.Grouping.ProcessResult</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="4" t="s">
+        <v>Grouping.PalletCode</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" ref="J15" si="4">_xlfn.CONCAT(K15,L15,".",M15,IF(ISBLANK(N15),"",_xlfn.CONCAT(".",N15)))</f>
+        <v>DB1002.116</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>116</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>32</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bagging.ProcessResult</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="E16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Palletizing.ProcessResult</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.4</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Palletizing.Position</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f t="shared" si="1"/>
+      <c r="G18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.6</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>6</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grouping.ProcessResult</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="2"/>
         <v>DB1001.8</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L19" s="1">
         <v>1001</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M19" s="1">
         <v>8</v>
       </c>
-      <c r="N15" s="1">
+      <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="V15" s="1" t="s">
+      <c r="U19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Y15" s="1" t="s">
-        <v>94</v>
+      <c r="Z19" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2867,17 +3256,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
@@ -2885,110 +3274,815 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
-        <v>33</v>
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="str">
+        <f>_xlfn.CONCAT(B2,"_",D2)</f>
+        <v>MDJ1_BZJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1">
+        <v>125</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="str">
+        <f>_xlfn.CONCAT(B3,"_",D3)</f>
+        <v>MDJ1_BZJ02</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="str">
+        <f>_xlfn.CONCAT(B4,"_",D4)</f>
+        <v>MDJ1_BZJ03</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="str">
+        <f>_xlfn.CONCAT(B5,"_",D5)</f>
+        <v>MDJ1_BZJ04</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="str">
+        <f>_xlfn.CONCAT(B6,"_",D6)</f>
+        <v>MDJ1_BZJ05</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="str">
+        <f>_xlfn.CONCAT(B7,"_",D7)</f>
+        <v>MDJ1_BZJ06</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="str">
+        <f>_xlfn.CONCAT(B8,"_",D8)</f>
+        <v>MDJ1_BZJ07</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="str">
+        <f>_xlfn.CONCAT(B9,"_",D9)</f>
+        <v>MDJ1_BZJ08</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="str">
+        <f>_xlfn.CONCAT(B10,"_",D10)</f>
+        <v>MDJ1_CZJ01</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="str">
+        <f t="shared" ref="A11" si="0">_xlfn.CONCAT(B11,"_",D11)</f>
+        <v>MDJ1_MDJ01</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="str">
+        <f>_xlfn.CONCAT(B12,"_",D12)</f>
+        <v>MDJ1_MDJ02</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="b">
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="str">
+        <f>_xlfn.CONCAT(B13,"_",D13)</f>
+        <v>MDJ1_MDJ03</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="str">
+        <f>_xlfn.CONCAT(B14,"_",D14)</f>
+        <v>MDJ1_TBJ01</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="str">
+        <f>_xlfn.CONCAT(B15,"_",D15)</f>
+        <v>MDJ2_BZJ09</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="str">
+        <f>_xlfn.CONCAT(B16,"_",D16)</f>
+        <v>MDJ2_BZJ10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="str">
+        <f>_xlfn.CONCAT(B17,"_",D17)</f>
+        <v>MDJ2_BZJ11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="str">
+        <f>_xlfn.CONCAT(B18,"_",D18)</f>
+        <v>MDJ2_BZJ12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="str">
+        <f>_xlfn.CONCAT(B19,"_",D19)</f>
+        <v>MDJ2_BZJ13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="str">
+        <f>_xlfn.CONCAT(B20,"_",D20)</f>
+        <v>MDJ2_BZJ14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="str">
+        <f>_xlfn.CONCAT(B21,"_",D21)</f>
+        <v>MDJ2_BZJ15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="str">
+        <f>_xlfn.CONCAT(B22,"_",D22)</f>
+        <v>MDJ2_BZJ16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="str">
+        <f>_xlfn.CONCAT(B23,"_",D23)</f>
+        <v>MDJ2_CZJ02</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="str">
+        <f>_xlfn.CONCAT(B24,"_",D24)</f>
+        <v>MDJ2_MDJ04</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="str">
+        <f>_xlfn.CONCAT(B25,"_",D25)</f>
+        <v>MDJ2_MDJ05</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="str">
+        <f>_xlfn.CONCAT(B26,"_",D26)</f>
+        <v>MDJ2_MDJ06</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="str">
+        <f>_xlfn.CONCAT(B27,"_",D27)</f>
+        <v>MDJ2_TBJ02</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3001,134 +4095,957 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.4140625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="12.4140625" style="1"/>
+    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="12.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="str">
-        <f>_xlfn.CONCAT(B2,"_",C2)</f>
-        <v>MDJ1_SDJ01</v>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,"_")),D2)</f>
+        <v>MDJ1_BZJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>84</v>
+        <v>72</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1">
+        <v>125</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A31" si="0">_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,"_")),D3)</f>
+        <v>MDJ1_BZJ02</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A4" si="0">_xlfn.CONCAT(B3,"_",C3)</f>
-        <v>MDJ1_MDJ01</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>MDJ1_BZJ03</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ04</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ05</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ06</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ07</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ08</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_CZJ01</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_MDJ01</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
+        <v>10</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_MDJ02</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_MDJ03</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>MDJ1_CDJ01</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1">
+        <v>13</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="str">
+        <f t="shared" ref="A15" si="1">_xlfn.CONCAT(IF(ISBLANK(B15),"",_xlfn.CONCAT(B15,"_")),D15)</f>
+        <v>MDJ1_FMJ01</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1">
+        <v>14</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_TBJ01</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ09</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ10</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1">
+        <v>3</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ12</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ13</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1">
+        <v>6</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ15</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZJ16</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_CZJ02</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1">
+        <v>9</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MDJ04</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1">
         <v>10</v>
       </c>
-      <c r="H4" s="1" t="b">
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MDJ05</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1">
+        <v>11</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MDJ06</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="1">
+        <v>12</v>
+      </c>
+      <c r="I28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="str">
+        <f t="shared" ref="A29" si="2">_xlfn.CONCAT(IF(ISBLANK(B29),"",_xlfn.CONCAT(B29,"_")),D29)</f>
+        <v>MDJ2_CDJ02</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1">
+        <v>13</v>
+      </c>
+      <c r="I29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_FMJ02</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1">
+        <v>13</v>
+      </c>
+      <c r="I30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_TBJ02</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4F2FA5-C6AB-4314-ABE5-F58F37D22415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B99E54-CC96-4B0E-9900-55DDF265CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="227">
   <si>
     <t>TagName</t>
   </si>
@@ -745,6 +745,38 @@
   </si>
   <si>
     <t>出垛机02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Printing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inkjet</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwdomInkjetTcp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labeling1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2178,11 +2210,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z19"/>
+  <dimension ref="A1:Z21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2204,7 +2236,7 @@
     <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" style="1"/>
     <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
@@ -2295,7 +2327,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A19" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <f t="shared" ref="A2:A21" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
         <v>HeartBeat</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3245,6 +3277,63 @@
       </c>
       <c r="Z19" s="1" t="s">
         <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TBJ01.Printing.Content</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PMJ01.Inkjet.Content</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4097,9 +4186,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E22" sqref="E22"/>
+      <selection pane="topRight" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B99E54-CC96-4B0E-9900-55DDF265CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59FB99-7194-439F-94AE-859C02608F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
     <sheet name="DomainTags" sheetId="7" r:id="rId2"/>
-    <sheet name="TagRaw" sheetId="2" r:id="rId3"/>
-    <sheet name="Device" sheetId="6" r:id="rId4"/>
-    <sheet name="DeviceRaw" sheetId="5" r:id="rId5"/>
+    <sheet name="Device" sheetId="6" r:id="rId3"/>
+    <sheet name="TagRaw" sheetId="2" r:id="rId4"/>
+    <sheet name="EquipmentRaw" sheetId="5" r:id="rId5"/>
+    <sheet name="StationRaw" sheetId="8" r:id="rId6"/>
+    <sheet name="LineRaw" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="310">
   <si>
     <t>TagName</t>
   </si>
@@ -165,272 +167,269 @@
     <t>Heartbeat, AlarmReport, OutputCount</t>
   </si>
   <si>
+    <t>包装机状态</t>
+  </si>
+  <si>
+    <t>申请读码</t>
+  </si>
+  <si>
+    <t>袋码数据</t>
+  </si>
+  <si>
+    <t>码垛机状态</t>
+  </si>
+  <si>
+    <t>码垛袋码</t>
+  </si>
+  <si>
+    <t>码垛包数</t>
+  </si>
+  <si>
+    <t>STRING</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组托申请读码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组托袋码数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装机读码完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palletizing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Grouping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>码垛机读码完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组托读码完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垛位号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>=1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Palletizer</t>
-  </si>
-  <si>
-    <t>包装机状态</t>
-  </si>
-  <si>
-    <t>申请读码</t>
-  </si>
-  <si>
-    <t>袋码数据</t>
-  </si>
-  <si>
-    <t>码垛机状态</t>
-  </si>
-  <si>
-    <t>码垛袋码</t>
-  </si>
-  <si>
-    <t>码垛包数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packing.Bagging.Status</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.Request</t>
+  </si>
+  <si>
+    <t>=1</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.Code</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Status</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Request</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Code</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Sn</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.Position</t>
+  </si>
+  <si>
+    <t>MDJ1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ01</t>
+  </si>
+  <si>
+    <t>MDJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Line</t>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_CDJ01</t>
+  </si>
+  <si>
+    <t>Short</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConfigJson</t>
+  </si>
+  <si>
+    <t>QrCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessTrigger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessResult</t>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletCode</t>
+  </si>
+  <si>
+    <t>PalletCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletOut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>垛盘码数据</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>DB1002.2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>DB1002.4</t>
   </si>
   <si>
     <t>STRING</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1002.6</t>
+  </si>
+  <si>
+    <t>Palletizing</t>
+  </si>
+  <si>
+    <t>DB1002.40</t>
+  </si>
+  <si>
+    <t>DB1002.42</t>
+  </si>
+  <si>
+    <t>DB1002.44</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>DB1002.78</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.Request</t>
+  </si>
+  <si>
+    <t>Grouping</t>
   </si>
   <si>
     <t>组托申请读码</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1002.80</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.Code</t>
   </si>
   <si>
     <t>组托袋码数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1002.82</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.PalletCode</t>
+  </si>
+  <si>
+    <t>DB1002.116</t>
+  </si>
+  <si>
+    <t>Packing.Bagging.ProcessResult</t>
   </si>
   <si>
     <t>包装机读码完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sn</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palletizing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Grouping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1001.2</t>
+  </si>
+  <si>
+    <t>Palletizer.Palletizing.ProcessResult</t>
   </si>
   <si>
     <t>码垛机读码完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB1001.4</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>垛位号</t>
+  </si>
+  <si>
+    <t>DB1001.6</t>
+  </si>
+  <si>
+    <t>PalletOut.Grouping.ProcessResult</t>
   </si>
   <si>
     <t>组托读码完成</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垛位号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Position</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>=1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Palletizer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Packing.Bagging.Status</t>
-  </si>
-  <si>
-    <t>Packing.Bagging.Request</t>
-  </si>
-  <si>
-    <t>=1</t>
-  </si>
-  <si>
-    <t>Packing.Bagging.Code</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Status</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Request</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Code</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Sn</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Position</t>
-  </si>
-  <si>
-    <t>MDJ1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDJ01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CDJ01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Line</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MDJ1_CDJ01</t>
-  </si>
-  <si>
-    <t>Short</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConfigJson</t>
-  </si>
-  <si>
-    <t>QrCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessTrigger</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessResult</t>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalletCode</t>
-  </si>
-  <si>
-    <t>PalletCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PalletOut</t>
-  </si>
-  <si>
-    <t>PalletOut</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垛盘码数据</t>
-  </si>
-  <si>
-    <t>Packing</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>DB1002.2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DB1002.4</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>DB1002.6</t>
-  </si>
-  <si>
-    <t>Palletizing</t>
-  </si>
-  <si>
-    <t>DB1002.40</t>
-  </si>
-  <si>
-    <t>DB1002.42</t>
-  </si>
-  <si>
-    <t>DB1002.44</t>
-  </si>
-  <si>
-    <t>Sn</t>
-  </si>
-  <si>
-    <t>DB1002.78</t>
-  </si>
-  <si>
-    <t>PalletOut.Grouping.Request</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>组托申请读码</t>
-  </si>
-  <si>
-    <t>DB1002.80</t>
-  </si>
-  <si>
-    <t>PalletOut.Grouping.Code</t>
-  </si>
-  <si>
-    <t>组托袋码数据</t>
-  </si>
-  <si>
-    <t>DB1002.82</t>
-  </si>
-  <si>
-    <t>PalletOut.Grouping.PalletCode</t>
-  </si>
-  <si>
-    <t>DB1002.116</t>
-  </si>
-  <si>
-    <t>Packing.Bagging.ProcessResult</t>
-  </si>
-  <si>
-    <t>包装机读码完成</t>
-  </si>
-  <si>
-    <t>DB1001.2</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.ProcessResult</t>
-  </si>
-  <si>
-    <t>码垛机读码完成</t>
-  </si>
-  <si>
-    <t>DB1001.4</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>垛位号</t>
-  </si>
-  <si>
-    <t>DB1001.6</t>
-  </si>
-  <si>
-    <t>PalletOut.Grouping.ProcessResult</t>
-  </si>
-  <si>
-    <t>组托读码完成</t>
   </si>
   <si>
     <t>DB1001.8</t>
@@ -445,6 +444,9 @@
   </si>
   <si>
     <t>BZJ01</t>
+  </si>
+  <si>
+    <t>BZJ01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -609,6 +611,9 @@
   </si>
   <si>
     <t>TBJ01</t>
+  </si>
+  <si>
+    <t>TBJ01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -628,6 +633,9 @@
   </si>
   <si>
     <t>HeartBeat</t>
+  </si>
+  <si>
+    <t>HeartBeat</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -651,18 +659,30 @@
   </si>
   <si>
     <t>ManualMode</t>
+  </si>
+  <si>
+    <t>ManualMode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>RunningStatus</t>
+  </si>
+  <si>
+    <t>RunningStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AutoMode</t>
+  </si>
+  <si>
+    <t>AutoMode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Bool</t>
+  </si>
+  <si>
+    <t>Bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -749,22 +769,37 @@
   </si>
   <si>
     <t>Printing</t>
+  </si>
+  <si>
+    <t>Printing</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Content</t>
+  </si>
+  <si>
+    <t>Content</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>发送内容</t>
+  </si>
+  <si>
+    <t>发送内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>PMJ01</t>
+  </si>
+  <si>
+    <t>PMJ01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Inkjet</t>
+  </si>
+  <si>
+    <t>Inkjet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -773,11 +808,240 @@
   </si>
   <si>
     <t>SwdomInkjetTcp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Labeling1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwdomInkjetTcp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMJ1</t>
+  </si>
+  <si>
+    <t>PMJ1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>READWRITE</t>
+  </si>
+  <si>
+    <t>READWRITE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_BZJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checkweigher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工位01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装工位02</t>
+  </si>
+  <si>
+    <t>包装工位03</t>
+  </si>
+  <si>
+    <t>包装工位04</t>
+  </si>
+  <si>
+    <t>包装工位05</t>
+  </si>
+  <si>
+    <t>包装工位06</t>
+  </si>
+  <si>
+    <t>包装工位07</t>
+  </si>
+  <si>
+    <t>包装工位08</t>
+  </si>
+  <si>
+    <t>称重工位01</t>
+  </si>
+  <si>
+    <t>码垛工位01</t>
+  </si>
+  <si>
+    <t>码垛工位02</t>
+  </si>
+  <si>
+    <t>码垛工位03</t>
+  </si>
+  <si>
+    <t>出垛工位01</t>
+  </si>
+  <si>
+    <t>覆膜工位01</t>
+  </si>
+  <si>
+    <t>贴标工位01</t>
+  </si>
+  <si>
+    <t>包装工位09</t>
+  </si>
+  <si>
+    <t>包装工位10</t>
+  </si>
+  <si>
+    <t>包装工位11</t>
+  </si>
+  <si>
+    <t>包装工位12</t>
+  </si>
+  <si>
+    <t>包装工位13</t>
+  </si>
+  <si>
+    <t>包装工位14</t>
+  </si>
+  <si>
+    <t>包装工位15</t>
+  </si>
+  <si>
+    <t>包装工位16</t>
+  </si>
+  <si>
+    <t>称重工位02</t>
+  </si>
+  <si>
+    <t>码垛工位04</t>
+  </si>
+  <si>
+    <t>码垛工位05</t>
+  </si>
+  <si>
+    <t>码垛工位06</t>
+  </si>
+  <si>
+    <t>出垛工位02</t>
+  </si>
+  <si>
+    <t>覆膜工位02</t>
+  </si>
+  <si>
+    <t>贴标工位02</t>
+  </si>
+  <si>
+    <t>StretchWrapper</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷码工位01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷码工位02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>码垛线1号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>码垛线2号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LabelingTcp</t>
+  </si>
+  <si>
+    <t>LabelingTcp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMJ1.HeartBeat</t>
+  </si>
+  <si>
+    <t>DB1002.0.0</t>
+  </si>
+  <si>
+    <t>PMJ1.ManualMode</t>
+  </si>
+  <si>
+    <t>DB1002.0.1</t>
+  </si>
+  <si>
+    <t>PMJ1.AutoMode</t>
+  </si>
+  <si>
+    <t>DB1002.0.2</t>
+  </si>
+  <si>
+    <t>PMJ1.RunningStatus</t>
+  </si>
+  <si>
+    <t>DB1002.0.3</t>
+  </si>
+  <si>
+    <t>BZJ01.Bagging.Status</t>
+  </si>
+  <si>
+    <t>BZJ01.Bagging.Request</t>
+  </si>
+  <si>
+    <t>BZJ01.Bagging.Code</t>
+  </si>
+  <si>
+    <t>MDJ01.Palletizing.Status</t>
+  </si>
+  <si>
+    <t>MDJ01.Palletizing.Request</t>
+  </si>
+  <si>
+    <t>MDJ01.Palletizing.Code</t>
+  </si>
+  <si>
+    <t>MDJ01.Palletizing.Sn</t>
+  </si>
+  <si>
+    <t>Grouping.Request</t>
+  </si>
+  <si>
+    <t>Grouping.Code</t>
+  </si>
+  <si>
+    <t>Grouping.PalletCode</t>
+  </si>
+  <si>
+    <t>DB1001.0.0</t>
+  </si>
+  <si>
+    <t>Bagging.ProcessResult</t>
+  </si>
+  <si>
+    <t>Palletizing.ProcessResult</t>
+  </si>
+  <si>
+    <t>Palletizing.Position</t>
+  </si>
+  <si>
+    <t>Grouping.ProcessResult</t>
+  </si>
+  <si>
+    <t>TBJ01.Printing.Content</t>
+  </si>
+  <si>
+    <t>PMJ01.Inkjet.Content</t>
   </si>
 </sst>
 </file>
@@ -1164,789 +1428,1114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="30.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1">
-        <v>1002</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1">
-        <v>1</v>
-      </c>
-      <c r="O2" s="1" t="s">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S5" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="L3" s="1">
-        <v>4</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="L4" s="1">
-        <v>6</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P4" s="1">
-        <v>32</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="L5" s="1">
-        <v>40</v>
-      </c>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B6" s="4"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>1002</v>
       </c>
-      <c r="L6" s="1">
-        <v>42</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="Q6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>1002</v>
       </c>
-      <c r="L7" s="1">
-        <v>44</v>
-      </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1" t="s">
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P7" s="1">
-        <v>32</v>
-      </c>
       <c r="Q7" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>42</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>101</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="4"/>
       <c r="I8" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>1002</v>
       </c>
-      <c r="L8" s="1">
-        <v>78</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1" t="s">
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="Q8" s="1">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="4" t="s">
-        <v>91</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="4"/>
       <c r="I9" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>1002</v>
       </c>
-      <c r="L9" s="1">
-        <v>80</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="M9" s="1">
+        <v>40</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="Q9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="4"/>
       <c r="I10" s="1" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>1002</v>
       </c>
-      <c r="L10" s="1">
-        <v>82</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="M10" s="1">
+        <v>42</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P10" s="1">
-        <v>32</v>
-      </c>
       <c r="Q10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4" t="s">
-        <v>95</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>1002</v>
       </c>
-      <c r="L11" s="1">
-        <v>116</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="M11" s="1">
+        <v>44</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P11" s="1">
+      <c r="Q11" s="1">
         <v>32</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>78</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>80</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>82</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>32</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1002</v>
+      </c>
+      <c r="M15" s="6">
+        <v>116</v>
+      </c>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>32</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="6">
+        <v>1001</v>
+      </c>
+      <c r="M16" s="6">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="F17" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="J12" s="1" t="s">
+      <c r="K17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L17" s="6">
         <v>1001</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M17" s="6">
         <v>2</v>
       </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1">
+      <c r="N17" s="6"/>
+      <c r="O17" s="6">
         <v>2</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P17" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q12" s="1" t="s">
+      <c r="Q17" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S17" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="1" t="s">
+    <row r="18" spans="1:19">
+      <c r="A18" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J18" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="K18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1001</v>
+      </c>
+      <c r="M18" s="6">
+        <v>4</v>
+      </c>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6">
+        <v>2</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="G19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L19" s="6">
         <v>1001</v>
       </c>
-      <c r="L13" s="1">
-        <v>4</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1">
+      <c r="M19" s="6">
+        <v>6</v>
+      </c>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6">
         <v>2</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="P19" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q13" s="1" t="s">
+      <c r="Q19" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R19" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S19" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="1" t="s">
+    <row r="20" spans="1:19">
+      <c r="A20" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="K20" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L20" s="6">
         <v>1001</v>
       </c>
-      <c r="L14" s="1">
-        <v>6</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1">
+      <c r="M20" s="6">
+        <v>8</v>
+      </c>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6">
         <v>2</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="P20" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q14" s="1" t="s">
+      <c r="Q20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S20" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1001</v>
-      </c>
-      <c r="L15" s="6">
-        <v>8</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6">
-        <v>2</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R15" s="6" t="s">
-        <v>21</v>
-      </c>
+    <row r="21" spans="1:19">
+      <c r="A21" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>64</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="S22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1999,10 +2588,10 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
@@ -2013,7 +2602,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>32</v>
@@ -2022,7 +2611,7 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>33</v>
@@ -2030,10 +2619,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
@@ -2044,10 +2633,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>31</v>
@@ -2058,7 +2647,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>32</v>
@@ -2067,7 +2656,7 @@
         <v>31</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>34</v>
@@ -2075,10 +2664,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
@@ -2089,10 +2678,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
@@ -2103,55 +2692,55 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>35</v>
@@ -2162,10 +2751,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
@@ -2176,10 +2765,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>35</v>
@@ -2190,16 +2779,16 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2209,20 +2798,859 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="34" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A10" si="0">_xlfn.CONCAT(B2,"_",D2)</f>
+        <v>MDJ1_BZJ01</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ02</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ03</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ04</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+      <c r="I5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ05</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ06</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ07</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7</v>
+      </c>
+      <c r="I8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZJ08</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_CZJ01</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="str">
+        <f t="shared" ref="A11" si="1">_xlfn.CONCAT(B11,"_",D11)</f>
+        <v>MDJ1_MDJ01</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="str">
+        <f t="shared" ref="A12:A27" si="2">_xlfn.CONCAT(B12,"_",D12)</f>
+        <v>MDJ1_MDJ02</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ1_MDJ03</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1">
+        <v>3</v>
+      </c>
+      <c r="I13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ1_TBJ01</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ09</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ10</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ11</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ13</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ14</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="1">
+        <v>6</v>
+      </c>
+      <c r="I20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="1">
+        <v>7</v>
+      </c>
+      <c r="I21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_BZJ16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="1">
+        <v>8</v>
+      </c>
+      <c r="I22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_CZJ02</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_MDJ04</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_MDJ05</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_MDJ06</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1">
+        <v>3</v>
+      </c>
+      <c r="I26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MDJ2_TBJ02</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16:XFD16"/>
+      <selection pane="topRight" activeCell="A3" sqref="A1:S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -2253,13 +3681,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>280</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -2327,17 +3755,20 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A21" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
-        <v>HeartBeat</v>
+        <f t="shared" ref="A2:A22" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <v>PMJ1.HeartBeat</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" ref="J2:J5" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
@@ -2358,20 +3789,35 @@
       <c r="O2" s="1">
         <v>1</v>
       </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>ManualMode</v>
+        <v>PMJ1.ManualMode</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2392,20 +3838,32 @@
       <c r="O3" s="1">
         <v>1</v>
       </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>AutoMode</v>
+        <v>PMJ1.AutoMode</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2426,20 +3884,32 @@
       <c r="O4" s="1">
         <v>1</v>
       </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>RunningStatus</v>
+        <v>PMJ1.RunningStatus</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>239</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2459,6 +3929,15 @@
       </c>
       <c r="O5" s="1">
         <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -2473,16 +3952,16 @@
         <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J19" si="2">_xlfn.CONCAT(K6,L6,".",M6,IF(ISBLANK(N6),"",_xlfn.CONCAT(".",N6)))</f>
+        <f t="shared" ref="J6:J20" si="2">_xlfn.CONCAT(K6,L6,".",M6,IF(ISBLANK(N6),"",_xlfn.CONCAT(".",N6)))</f>
         <v>DB1002.2</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -2501,7 +3980,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q19" si="3">IF(I6="STRING",64,"")</f>
+        <f t="shared" ref="Q6:Q21" si="3">IF(I6="STRING",64,"")</f>
         <v/>
       </c>
       <c r="R6" s="1" t="s">
@@ -2511,14 +3990,14 @@
         <v>21</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>31</v>
       </c>
       <c r="X6" s="3"/>
       <c r="Z6" s="1" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -2536,10 +4015,10 @@
         <v>22</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2577,10 +4056,10 @@
         <v>31</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -2598,10 +4077,10 @@
         <v>23</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2632,14 +4111,14 @@
         <v>21</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Z8" s="1" t="s">
-        <v>33</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -2651,16 +4130,16 @@
         <v>74</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2692,7 +4171,7 @@
         <v>21</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>31</v>
@@ -2710,16 +4189,16 @@
         <v>74</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2757,7 +4236,7 @@
         <v>31</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>34</v>
@@ -2772,16 +4251,16 @@
         <v>74</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2812,7 +4291,7 @@
         <v>21</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>31</v>
@@ -2830,16 +4309,16 @@
         <v>74</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2871,7 +4350,7 @@
         <v>21</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W12" s="1" t="s">
         <v>31</v>
@@ -2887,16 +4366,16 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2928,16 +4407,16 @@
         <v>21</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>31</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2947,16 +4426,16 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2987,13 +4466,13 @@
         <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -3003,19 +4482,19 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>88</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" ref="J15" si="4">_xlfn.CONCAT(K15,L15,".",M15,IF(ISBLANK(N15),"",_xlfn.CONCAT(".",N15)))</f>
+        <f t="shared" ref="J15:J16" si="4">_xlfn.CONCAT(K15,L15,".",M15,IF(ISBLANK(N15),"",_xlfn.CONCAT(".",N15)))</f>
         <v>DB1002.116</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -3043,94 +4522,89 @@
         <v>21</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1" t="str">
+        <f t="shared" ref="A16" si="5">_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
+        <v>PMJ1.HeartBeat</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>DB1001.0.0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Bagging.ProcessResult</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="E16" s="1" t="s">
+      <c r="C17" s="4"/>
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="1" t="str">
+      <c r="F17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>DB1001.2</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizing.ProcessResult</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1001.4</v>
-      </c>
       <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
@@ -3138,7 +4612,7 @@
         <v>1001</v>
       </c>
       <c r="M17" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O17" s="1">
         <v>2</v>
@@ -3157,36 +4631,36 @@
         <v>21</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:26">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Palletizing.Position</v>
+        <v>Palletizing.ProcessResult</v>
       </c>
       <c r="C18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DB1001.6</v>
+        <v>DB1001.4</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>18</v>
@@ -3195,7 +4669,7 @@
         <v>1001</v>
       </c>
       <c r="M18" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O18" s="1">
         <v>2</v>
@@ -3214,7 +4688,7 @@
         <v>21</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>35</v>
@@ -3226,23 +4700,24 @@
     <row r="19" spans="1:26">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>Grouping.ProcessResult</v>
-      </c>
+        <v>Palletizing.Position</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>DB1001.8</v>
+        <v>DB1001.6</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>18</v>
@@ -3251,7 +4726,7 @@
         <v>1001</v>
       </c>
       <c r="M19" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O19" s="1">
         <v>2</v>
@@ -3270,909 +4745,139 @@
         <v>21</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TBJ01.Printing.Content</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>221</v>
+        <v>Grouping.ProcessResult</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
       </c>
       <c r="R20" s="1" t="s">
-        <v>226</v>
+        <v>20</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>224</v>
+        <v>35</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>TBJ01.Printing.Content</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>PMJ01.Inkjet.Content</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:J27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1:D1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="str">
-        <f>_xlfn.CONCAT(B2,"_",D2)</f>
-        <v>MDJ1_BZJ01</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="str">
-        <f>_xlfn.CONCAT(B3,"_",D3)</f>
-        <v>MDJ1_BZJ02</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="str">
-        <f>_xlfn.CONCAT(B4,"_",D4)</f>
-        <v>MDJ1_BZJ03</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="1">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="str">
-        <f>_xlfn.CONCAT(B5,"_",D5)</f>
-        <v>MDJ1_BZJ04</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="str">
-        <f>_xlfn.CONCAT(B6,"_",D6)</f>
-        <v>MDJ1_BZJ05</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H6" s="1">
-        <v>5</v>
-      </c>
-      <c r="I6" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="str">
-        <f>_xlfn.CONCAT(B7,"_",D7)</f>
-        <v>MDJ1_BZJ06</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="1">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="str">
-        <f>_xlfn.CONCAT(B8,"_",D8)</f>
-        <v>MDJ1_BZJ07</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="1">
-        <v>7</v>
-      </c>
-      <c r="I8" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="str">
-        <f>_xlfn.CONCAT(B9,"_",D9)</f>
-        <v>MDJ1_BZJ08</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="1">
-        <v>8</v>
-      </c>
-      <c r="I9" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="str">
-        <f>_xlfn.CONCAT(B10,"_",D10)</f>
-        <v>MDJ1_CZJ01</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="str">
-        <f t="shared" ref="A11" si="0">_xlfn.CONCAT(B11,"_",D11)</f>
-        <v>MDJ1_MDJ01</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="str">
-        <f>_xlfn.CONCAT(B12,"_",D12)</f>
-        <v>MDJ1_MDJ02</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="1">
-        <v>2</v>
-      </c>
-      <c r="I12" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="str">
-        <f>_xlfn.CONCAT(B13,"_",D13)</f>
-        <v>MDJ1_MDJ03</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="1">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="str">
-        <f>_xlfn.CONCAT(B14,"_",D14)</f>
-        <v>MDJ1_TBJ01</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="str">
-        <f>_xlfn.CONCAT(B15,"_",D15)</f>
-        <v>MDJ2_BZJ09</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="str">
-        <f>_xlfn.CONCAT(B16,"_",D16)</f>
-        <v>MDJ2_BZJ10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="str">
-        <f>_xlfn.CONCAT(B17,"_",D17)</f>
-        <v>MDJ2_BZJ11</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="1">
-        <v>3</v>
-      </c>
-      <c r="I17" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="str">
-        <f>_xlfn.CONCAT(B18,"_",D18)</f>
-        <v>MDJ2_BZJ12</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="str">
-        <f>_xlfn.CONCAT(B19,"_",D19)</f>
-        <v>MDJ2_BZJ13</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H19" s="1">
-        <v>5</v>
-      </c>
-      <c r="I19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="1" t="str">
-        <f>_xlfn.CONCAT(B20,"_",D20)</f>
-        <v>MDJ2_BZJ14</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H20" s="1">
-        <v>6</v>
-      </c>
-      <c r="I20" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="str">
-        <f>_xlfn.CONCAT(B21,"_",D21)</f>
-        <v>MDJ2_BZJ15</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="1">
-        <v>7</v>
-      </c>
-      <c r="I21" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="1" t="str">
-        <f>_xlfn.CONCAT(B22,"_",D22)</f>
-        <v>MDJ2_BZJ16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>158</v>
+        <v>234</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>125</v>
+        <v>228</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H22" s="1">
-        <v>8</v>
-      </c>
-      <c r="I22" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="1" t="str">
-        <f>_xlfn.CONCAT(B23,"_",D23)</f>
-        <v>MDJ2_CZJ02</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="1">
-        <v>2</v>
-      </c>
-      <c r="I23" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="1" t="str">
-        <f>_xlfn.CONCAT(B24,"_",D24)</f>
-        <v>MDJ2_MDJ04</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="str">
-        <f>_xlfn.CONCAT(B25,"_",D25)</f>
-        <v>MDJ2_MDJ05</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H25" s="1">
-        <v>2</v>
-      </c>
-      <c r="I25" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="1" t="str">
-        <f>_xlfn.CONCAT(B26,"_",D26)</f>
-        <v>MDJ2_MDJ06</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H26" s="1">
-        <v>3</v>
-      </c>
-      <c r="I26" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="1" t="str">
-        <f>_xlfn.CONCAT(B27,"_",D27)</f>
-        <v>MDJ2_TBJ02</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="1">
-        <v>2</v>
-      </c>
-      <c r="I27" s="1" t="b">
-        <v>1</v>
+        <v>230</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4188,36 +4893,36 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="12.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -4235,7 +4940,7 @@
         <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4244,10 +4949,10 @@
         <v>MDJ1_BZJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>126</v>
@@ -4256,7 +4961,7 @@
         <v>131</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -4274,10 +4979,10 @@
         <v>MDJ1_BZJ02</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>128</v>
@@ -4286,7 +4991,7 @@
         <v>132</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -4304,10 +5009,10 @@
         <v>MDJ1_BZJ03</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>129</v>
@@ -4316,7 +5021,7 @@
         <v>133</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>41</v>
@@ -4334,10 +5039,10 @@
         <v>MDJ1_BZJ04</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>130</v>
@@ -4346,7 +5051,7 @@
         <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
@@ -4364,10 +5069,10 @@
         <v>MDJ1_BZJ05</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>139</v>
@@ -4376,7 +5081,7 @@
         <v>135</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
@@ -4394,10 +5099,10 @@
         <v>MDJ1_BZJ06</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>140</v>
@@ -4406,7 +5111,7 @@
         <v>136</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -4424,10 +5129,10 @@
         <v>MDJ1_BZJ07</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>141</v>
@@ -4436,7 +5141,7 @@
         <v>137</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
@@ -4454,10 +5159,10 @@
         <v>MDJ1_BZJ08</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>142</v>
@@ -4466,7 +5171,7 @@
         <v>138</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
@@ -4484,10 +5189,10 @@
         <v>MDJ1_CZJ01</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>171</v>
@@ -4496,7 +5201,7 @@
         <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
@@ -4514,10 +5219,10 @@
         <v>MDJ1_MDJ01</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>74</v>
@@ -4525,8 +5230,8 @@
       <c r="E11" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>62</v>
+      <c r="F11" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>41</v>
@@ -4544,10 +5249,10 @@
         <v>MDJ1_MDJ02</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>160</v>
@@ -4556,7 +5261,7 @@
         <v>165</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
@@ -4574,10 +5279,10 @@
         <v>MDJ1_MDJ03</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>161</v>
@@ -4586,7 +5291,7 @@
         <v>166</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>41</v>
@@ -4604,16 +5309,16 @@
         <v>MDJ1_CDJ01</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>87</v>
@@ -4634,19 +5339,19 @@
         <v>MDJ1_FMJ01</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>41</v>
@@ -4664,13 +5369,13 @@
         <v>MDJ1_TBJ01</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>176</v>
@@ -4694,10 +5399,10 @@
         <v>MDJ2_BZJ09</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>143</v>
@@ -4706,7 +5411,7 @@
         <v>151</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>41</v>
@@ -4724,10 +5429,10 @@
         <v>MDJ2_BZJ10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>144</v>
@@ -4736,7 +5441,7 @@
         <v>152</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>41</v>
@@ -4754,10 +5459,10 @@
         <v>MDJ2_BZJ11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>145</v>
@@ -4766,7 +5471,7 @@
         <v>153</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>41</v>
@@ -4784,10 +5489,10 @@
         <v>MDJ2_BZJ12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>146</v>
@@ -4796,7 +5501,7 @@
         <v>154</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>41</v>
@@ -4814,10 +5519,10 @@
         <v>MDJ2_BZJ13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>147</v>
@@ -4826,7 +5531,7 @@
         <v>155</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>41</v>
@@ -4844,10 +5549,10 @@
         <v>MDJ2_BZJ14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>148</v>
@@ -4856,7 +5561,7 @@
         <v>156</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
@@ -4874,10 +5579,10 @@
         <v>MDJ2_BZJ15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>149</v>
@@ -4886,7 +5591,7 @@
         <v>157</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
@@ -4904,10 +5609,10 @@
         <v>MDJ2_BZJ16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>150</v>
@@ -4916,7 +5621,7 @@
         <v>158</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>41</v>
@@ -4934,10 +5639,10 @@
         <v>MDJ2_CZJ02</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>172</v>
@@ -4964,10 +5669,10 @@
         <v>MDJ2_MDJ04</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>162</v>
@@ -4976,7 +5681,7 @@
         <v>167</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>41</v>
@@ -4994,10 +5699,10 @@
         <v>MDJ2_MDJ05</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>163</v>
@@ -5006,7 +5711,7 @@
         <v>168</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>41</v>
@@ -5024,10 +5729,10 @@
         <v>MDJ2_MDJ06</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>164</v>
@@ -5036,7 +5741,7 @@
         <v>169</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>41</v>
@@ -5054,16 +5759,16 @@
         <v>MDJ2_CDJ02</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>87</v>
@@ -5084,19 +5789,19 @@
         <v>MDJ2_FMJ02</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>41</v>
@@ -5114,13 +5819,13 @@
         <v>MDJ2_TBJ02</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>177</v>
@@ -5135,6 +5840,900 @@
         <v>14</v>
       </c>
       <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CA4B-91B2-4B42-9A2C-43FCA542F059}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="12.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,"_")),IF(ISBLANK(C2),"",C2))</f>
+        <v>MDJ1_BZ01</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="str">
+        <f t="shared" ref="A3:A33" si="0">_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,"_")),IF(ISBLANK(C3),"",C3))</f>
+        <v>MDJ1_BZ02</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZ03</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZ04</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZ05</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZ06</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZ07</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_BZ08</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_CZ01</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="str">
+        <f t="shared" ref="A11" si="1">_xlfn.CONCAT(IF(ISBLANK(B11),"",_xlfn.CONCAT(B11,"_")),IF(ISBLANK(C11),"",C11))</f>
+        <v>MDJ1_PM01</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_MD01</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_MD02</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_MD03</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_CD01</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1">
+        <v>14</v>
+      </c>
+      <c r="G15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_FM01</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="1">
+        <v>15</v>
+      </c>
+      <c r="G16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1_TB01</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="1">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ01</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ02</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+      <c r="G19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ03</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="1">
+        <v>3</v>
+      </c>
+      <c r="G20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ04</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F21" s="1">
+        <v>4</v>
+      </c>
+      <c r="G21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ05</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="1">
+        <v>5</v>
+      </c>
+      <c r="G22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ06</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6</v>
+      </c>
+      <c r="G23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ07</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="1">
+        <v>7</v>
+      </c>
+      <c r="G24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_BZ08</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_CZ02</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F26" s="1">
+        <v>9</v>
+      </c>
+      <c r="G26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_PM02</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F27" s="1">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MD04</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="1">
+        <v>11</v>
+      </c>
+      <c r="G28" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MD05</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="1">
+        <v>12</v>
+      </c>
+      <c r="G29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MD06</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="1">
+        <v>13</v>
+      </c>
+      <c r="G30" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_CD02</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="1">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_FM02</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" s="1">
+        <v>15</v>
+      </c>
+      <c r="G32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MD06</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F33" s="1">
+        <v>16</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E278A2C-898C-4DE6-A541-D2EA92C91CD8}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="12.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA59FB99-7194-439F-94AE-859C02608F74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F609B-EFB2-4C55-8482-29F430F3928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="302">
   <si>
     <t>TagName</t>
   </si>
@@ -241,33 +241,9 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Packing.Bagging.Status</t>
-  </si>
-  <si>
-    <t>Packing.Bagging.Request</t>
-  </si>
-  <si>
     <t>=1</t>
   </si>
   <si>
-    <t>Packing.Bagging.Code</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Status</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Request</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Code</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Sn</t>
-  </si>
-  <si>
-    <t>Palletizer.Palletizing.Position</t>
-  </si>
-  <si>
     <t>MDJ1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -372,9 +348,6 @@
     <t>DB1002.78</t>
   </si>
   <si>
-    <t>PalletOut.Grouping.Request</t>
-  </si>
-  <si>
     <t>Grouping</t>
   </si>
   <si>
@@ -384,33 +357,21 @@
     <t>DB1002.80</t>
   </si>
   <si>
-    <t>PalletOut.Grouping.Code</t>
-  </si>
-  <si>
     <t>组托袋码数据</t>
   </si>
   <si>
     <t>DB1002.82</t>
   </si>
   <si>
-    <t>PalletOut.Grouping.PalletCode</t>
-  </si>
-  <si>
     <t>DB1002.116</t>
   </si>
   <si>
-    <t>Packing.Bagging.ProcessResult</t>
-  </si>
-  <si>
     <t>包装机读码完成</t>
   </si>
   <si>
     <t>DB1001.2</t>
   </si>
   <si>
-    <t>Palletizer.Palletizing.ProcessResult</t>
-  </si>
-  <si>
     <t>码垛机读码完成</t>
   </si>
   <si>
@@ -426,9 +387,6 @@
     <t>DB1001.6</t>
   </si>
   <si>
-    <t>PalletOut.Grouping.ProcessResult</t>
-  </si>
-  <si>
     <t>组托读码完成</t>
   </si>
   <si>
@@ -1042,6 +1000,27 @@
   </si>
   <si>
     <t>PMJ01.Inkjet.Content</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ01</t>
+  </si>
+  <si>
+    <t>QrCode</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>PMJ1.ManualMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMJ1.AutoMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMJ1.RunningStatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1430,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1462,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1518,26 +1497,26 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="4"/>
       <c r="F2" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
@@ -1567,26 +1546,26 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>18</v>
@@ -1616,26 +1595,26 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
@@ -1665,26 +1644,26 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>18</v>
@@ -1714,28 +1693,28 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="1"/>
       <c r="D6" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>18</v>
@@ -1754,7 +1733,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>20</v>
@@ -1765,12 +1744,12 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="1"/>
       <c r="D7" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -1783,10 +1762,10 @@
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>18</v>
@@ -1805,7 +1784,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>20</v>
@@ -1816,12 +1795,12 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="1"/>
       <c r="D8" s="4" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>24</v>
@@ -1834,10 +1813,10 @@
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
@@ -1867,28 +1846,28 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>18</v>
@@ -1907,7 +1886,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>20</v>
@@ -1918,15 +1897,15 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>22</v>
@@ -1936,10 +1915,10 @@
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>18</v>
@@ -1958,7 +1937,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>20</v>
@@ -1969,15 +1948,15 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>23</v>
@@ -1987,10 +1966,10 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>18</v>
@@ -2020,28 +1999,28 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="1"/>
       <c r="D12" s="4" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
@@ -2060,7 +2039,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>20</v>
@@ -2071,26 +2050,26 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="1"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>18</v>
@@ -2109,7 +2088,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>20</v>
@@ -2120,26 +2099,26 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>18</v>
@@ -2169,26 +2148,26 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="6" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>18</v>
@@ -2218,26 +2197,26 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="6" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>18</v>
@@ -2248,9 +2227,7 @@
       <c r="M16" s="6">
         <v>0</v>
       </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
+      <c r="N16" s="6"/>
       <c r="O16" s="6">
         <v>1</v>
       </c>
@@ -2267,7 +2244,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="6" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2276,17 +2253,17 @@
         <v>24</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>18</v>
@@ -2305,7 +2282,7 @@
         <v>25</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R17" s="6" t="s">
         <v>20</v>
@@ -2316,26 +2293,26 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="6" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>18</v>
@@ -2354,7 +2331,7 @@
         <v>25</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R18" s="6" t="s">
         <v>20</v>
@@ -2365,26 +2342,26 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="6" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="K19" s="6" t="s">
         <v>18</v>
@@ -2403,7 +2380,7 @@
         <v>25</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R19" s="6" t="s">
         <v>20</v>
@@ -2414,26 +2391,26 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="6" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="K20" s="6" t="s">
         <v>18</v>
@@ -2452,7 +2429,7 @@
         <v>25</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R20" s="6" t="s">
         <v>20</v>
@@ -2463,25 +2440,25 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="6" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -2490,37 +2467,37 @@
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Q21" s="6">
         <v>64</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="6" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
@@ -2529,11 +2506,11 @@
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="Q22" s="6"/>
       <c r="R22" s="6" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="S22" s="6"/>
     </row>
@@ -2545,21 +2522,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="B2" sqref="B2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="28.125" style="1"/>
   </cols>
   <sheetData>
@@ -2588,52 +2565,49 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>63</v>
+        <v>299</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>81</v>
+        <v>300</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>301</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
@@ -2642,153 +2616,245 @@
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>81</v>
+        <v>280</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>281</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>82</v>
+        <v>282</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="G9" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>81</v>
+        <v>283</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>109</v>
+        <v>284</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>86</v>
+        <v>297</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>114</v>
+        <v>286</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>288</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>78</v>
+      <c r="G17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2819,16 +2885,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -2846,7 +2912,7 @@
         <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2855,19 +2921,19 @@
         <v>MDJ1_BZJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -2885,19 +2951,19 @@
         <v>MDJ1_BZJ02</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -2915,19 +2981,19 @@
         <v>MDJ1_BZJ03</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>41</v>
@@ -2945,19 +3011,19 @@
         <v>MDJ1_BZJ04</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
@@ -2975,19 +3041,19 @@
         <v>MDJ1_BZJ05</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
@@ -3005,19 +3071,19 @@
         <v>MDJ1_BZJ06</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -3035,19 +3101,19 @@
         <v>MDJ1_BZJ07</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
@@ -3065,19 +3131,19 @@
         <v>MDJ1_BZJ08</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
@@ -3095,19 +3161,19 @@
         <v>MDJ1_CZJ01</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
@@ -3125,16 +3191,16 @@
         <v>MDJ1_MDJ01</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>61</v>
@@ -3155,16 +3221,16 @@
         <v>MDJ1_MDJ02</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>61</v>
@@ -3185,16 +3251,16 @@
         <v>MDJ1_MDJ03</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>61</v>
@@ -3215,19 +3281,19 @@
         <v>MDJ1_TBJ01</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
@@ -3245,19 +3311,19 @@
         <v>MDJ2_BZJ09</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>41</v>
@@ -3275,19 +3341,19 @@
         <v>MDJ2_BZJ10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
@@ -3305,19 +3371,19 @@
         <v>MDJ2_BZJ11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>41</v>
@@ -3335,19 +3401,19 @@
         <v>MDJ2_BZJ12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>41</v>
@@ -3365,19 +3431,19 @@
         <v>MDJ2_BZJ13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>41</v>
@@ -3395,19 +3461,19 @@
         <v>MDJ2_BZJ14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>41</v>
@@ -3425,19 +3491,19 @@
         <v>MDJ2_BZJ15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>41</v>
@@ -3455,19 +3521,19 @@
         <v>MDJ2_BZJ16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
@@ -3485,19 +3551,19 @@
         <v>MDJ2_CZJ02</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
@@ -3515,16 +3581,16 @@
         <v>MDJ2_MDJ04</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>61</v>
@@ -3545,16 +3611,16 @@
         <v>MDJ2_MDJ05</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>61</v>
@@ -3575,16 +3641,16 @@
         <v>MDJ2_MDJ06</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>61</v>
@@ -3605,19 +3671,19 @@
         <v>MDJ2_TBJ02</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>41</v>
@@ -3640,9 +3706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A3" sqref="A1:S22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3681,13 +3747,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3759,16 +3825,16 @@
         <v>PMJ1.HeartBeat</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J2" s="1" t="str">
         <f t="shared" ref="J2:J5" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
@@ -3799,7 +3865,13 @@
         <v>21</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3808,16 +3880,16 @@
         <v>PMJ1.ManualMode</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3847,6 +3919,15 @@
       <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="U3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="str">
@@ -3854,16 +3935,16 @@
         <v>PMJ1.AutoMode</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3893,6 +3974,15 @@
       <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="U4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="str">
@@ -3900,16 +3990,16 @@
         <v>PMJ1.RunningStatus</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -3938,6 +4028,15 @@
       </c>
       <c r="S5" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3946,7 +4045,7 @@
         <v>BZJ01.Bagging.Status</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -3958,7 +4057,7 @@
         <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J6" s="1" t="str">
         <f t="shared" ref="J6:J20" si="2">_xlfn.CONCAT(K6,L6,".",M6,IF(ISBLANK(N6),"",_xlfn.CONCAT(".",N6)))</f>
@@ -3997,7 +4096,7 @@
       </c>
       <c r="X6" s="3"/>
       <c r="Z6" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4006,7 +4105,7 @@
         <v>BZJ01.Bagging.Request</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -4018,7 +4117,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4059,7 +4158,7 @@
         <v>60</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4068,7 +4167,7 @@
         <v>BZJ01.Bagging.Code</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
@@ -4111,14 +4210,14 @@
         <v>21</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Z8" s="1" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4127,7 +4226,7 @@
         <v>MDJ01.Palletizing.Status</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>54</v>
@@ -4139,7 +4238,7 @@
         <v>45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4186,7 +4285,7 @@
         <v>MDJ01.Palletizing.Request</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>54</v>
@@ -4198,7 +4297,7 @@
         <v>43</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J10" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4248,7 +4347,7 @@
         <v>MDJ01.Palletizing.Code</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -4291,7 +4390,7 @@
         <v>21</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>31</v>
@@ -4306,7 +4405,7 @@
         <v>MDJ01.Palletizing.Sn</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>54</v>
@@ -4318,7 +4417,7 @@
         <v>47</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4375,7 +4474,7 @@
         <v>49</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J13" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4407,7 +4506,7 @@
         <v>21</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>31</v>
@@ -4416,7 +4515,7 @@
         <v>60</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4466,13 +4565,13 @@
         <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4485,10 +4584,10 @@
         <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>48</v>
@@ -4522,13 +4621,13 @@
         <v>21</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -4537,16 +4636,16 @@
         <v>PMJ1.HeartBeat</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J16" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4577,7 +4676,7 @@
         <v>21</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>31</v>
@@ -4593,13 +4692,13 @@
         <v>24</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4631,7 +4730,7 @@
         <v>21</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>35</v>
@@ -4650,13 +4749,13 @@
         <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J18" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4688,7 +4787,7 @@
         <v>21</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>35</v>
@@ -4713,7 +4812,7 @@
         <v>58</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4763,13 +4862,13 @@
         <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="2"/>
@@ -4801,13 +4900,13 @@
         <v>21</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -4816,35 +4915,35 @@
         <v>TBJ01.Printing.Content</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -4853,31 +4952,31 @@
         <v>PMJ01.Inkjet.Content</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -4893,7 +4992,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -4913,16 +5012,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -4940,7 +5039,7 @@
         <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -4949,19 +5048,19 @@
         <v>MDJ1_BZJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -4979,19 +5078,19 @@
         <v>MDJ1_BZJ02</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -5009,19 +5108,19 @@
         <v>MDJ1_BZJ03</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>41</v>
@@ -5039,19 +5138,19 @@
         <v>MDJ1_BZJ04</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
@@ -5069,19 +5168,19 @@
         <v>MDJ1_BZJ05</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
@@ -5099,19 +5198,19 @@
         <v>MDJ1_BZJ06</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -5129,19 +5228,19 @@
         <v>MDJ1_BZJ07</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
@@ -5159,19 +5258,19 @@
         <v>MDJ1_BZJ08</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
@@ -5189,19 +5288,19 @@
         <v>MDJ1_CZJ01</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
@@ -5219,16 +5318,16 @@
         <v>MDJ1_MDJ01</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>61</v>
@@ -5249,16 +5348,16 @@
         <v>MDJ1_MDJ02</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>61</v>
@@ -5279,16 +5378,16 @@
         <v>MDJ1_MDJ03</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>61</v>
@@ -5309,19 +5408,19 @@
         <v>MDJ1_CDJ01</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
@@ -5339,19 +5438,19 @@
         <v>MDJ1_FMJ01</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>41</v>
@@ -5369,19 +5468,19 @@
         <v>MDJ1_TBJ01</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
@@ -5399,19 +5498,19 @@
         <v>MDJ2_BZJ09</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>41</v>
@@ -5429,19 +5528,19 @@
         <v>MDJ2_BZJ10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>41</v>
@@ -5459,19 +5558,19 @@
         <v>MDJ2_BZJ11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>41</v>
@@ -5489,19 +5588,19 @@
         <v>MDJ2_BZJ12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>41</v>
@@ -5519,19 +5618,19 @@
         <v>MDJ2_BZJ13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>41</v>
@@ -5549,19 +5648,19 @@
         <v>MDJ2_BZJ14</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
@@ -5579,19 +5678,19 @@
         <v>MDJ2_BZJ15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
@@ -5609,19 +5708,19 @@
         <v>MDJ2_BZJ16</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>41</v>
@@ -5639,19 +5738,19 @@
         <v>MDJ2_CZJ02</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>41</v>
@@ -5669,16 +5768,16 @@
         <v>MDJ2_MDJ04</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>61</v>
@@ -5699,16 +5798,16 @@
         <v>MDJ2_MDJ05</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>61</v>
@@ -5729,16 +5828,16 @@
         <v>MDJ2_MDJ06</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>61</v>
@@ -5759,19 +5858,19 @@
         <v>MDJ2_CDJ02</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>41</v>
@@ -5789,19 +5888,19 @@
         <v>MDJ2_FMJ02</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>41</v>
@@ -5819,19 +5918,19 @@
         <v>MDJ2_TBJ02</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>41</v>
@@ -5874,13 +5973,13 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -5895,7 +5994,7 @@
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5904,16 +6003,16 @@
         <v>MDJ1_BZ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -5928,16 +6027,16 @@
         <v>MDJ1_BZ02</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -5952,16 +6051,16 @@
         <v>MDJ1_BZ03</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -5976,16 +6075,16 @@
         <v>MDJ1_BZ04</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>
@@ -6000,16 +6099,16 @@
         <v>MDJ1_BZ05</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
@@ -6024,16 +6123,16 @@
         <v>MDJ1_BZ06</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F7" s="1">
         <v>6</v>
@@ -6048,16 +6147,16 @@
         <v>MDJ1_BZ07</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F8" s="1">
         <v>7</v>
@@ -6072,16 +6171,16 @@
         <v>MDJ1_BZ08</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F9" s="1">
         <v>8</v>
@@ -6096,16 +6195,16 @@
         <v>MDJ1_CZ01</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="F10" s="1">
         <v>9</v>
@@ -6120,16 +6219,16 @@
         <v>MDJ1_PM01</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F11" s="1">
         <v>10</v>
@@ -6144,13 +6243,13 @@
         <v>MDJ1_MD01</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>61</v>
@@ -6168,13 +6267,13 @@
         <v>MDJ1_MD02</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>61</v>
@@ -6192,13 +6291,13 @@
         <v>MDJ1_MD03</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>61</v>
@@ -6216,16 +6315,16 @@
         <v>MDJ1_CD01</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F15" s="1">
         <v>14</v>
@@ -6240,16 +6339,16 @@
         <v>MDJ1_FM01</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="F16" s="1">
         <v>15</v>
@@ -6264,16 +6363,16 @@
         <v>MDJ1_TB01</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F17" s="1">
         <v>16</v>
@@ -6288,16 +6387,16 @@
         <v>MDJ2_BZ01</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -6312,16 +6411,16 @@
         <v>MDJ2_BZ02</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F19" s="1">
         <v>2</v>
@@ -6336,16 +6435,16 @@
         <v>MDJ2_BZ03</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F20" s="1">
         <v>3</v>
@@ -6360,16 +6459,16 @@
         <v>MDJ2_BZ04</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1">
         <v>4</v>
@@ -6384,16 +6483,16 @@
         <v>MDJ2_BZ05</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F22" s="1">
         <v>5</v>
@@ -6408,16 +6507,16 @@
         <v>MDJ2_BZ06</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F23" s="1">
         <v>6</v>
@@ -6432,16 +6531,16 @@
         <v>MDJ2_BZ07</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1">
         <v>7</v>
@@ -6456,16 +6555,16 @@
         <v>MDJ2_BZ08</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1">
         <v>8</v>
@@ -6480,16 +6579,16 @@
         <v>MDJ2_CZ02</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="F26" s="1">
         <v>9</v>
@@ -6504,16 +6603,16 @@
         <v>MDJ2_PM02</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="F27" s="1">
         <v>10</v>
@@ -6528,13 +6627,13 @@
         <v>MDJ2_MD04</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>61</v>
@@ -6552,13 +6651,13 @@
         <v>MDJ2_MD05</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>61</v>
@@ -6576,13 +6675,13 @@
         <v>MDJ2_MD06</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>61</v>
@@ -6600,16 +6699,16 @@
         <v>MDJ2_CD02</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F31" s="1">
         <v>14</v>
@@ -6624,16 +6723,16 @@
         <v>MDJ2_FM02</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="F32" s="1">
         <v>15</v>
@@ -6648,16 +6747,16 @@
         <v>MDJ2_MD06</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F33" s="1">
         <v>16</v>
@@ -6694,7 +6793,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
@@ -6706,15 +6805,15 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -6725,10 +6824,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14F609B-EFB2-4C55-8482-29F430F3928F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AA77F8-6F2F-4640-921E-25B84736FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,11 @@
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
     <sheet name="DomainTags" sheetId="7" r:id="rId2"/>
     <sheet name="Device" sheetId="6" r:id="rId3"/>
-    <sheet name="TagRaw" sheetId="2" r:id="rId4"/>
-    <sheet name="EquipmentRaw" sheetId="5" r:id="rId5"/>
-    <sheet name="StationRaw" sheetId="8" r:id="rId6"/>
-    <sheet name="LineRaw" sheetId="9" r:id="rId7"/>
+    <sheet name="PlcTagRaw" sheetId="2" r:id="rId4"/>
+    <sheet name="InkjetTag" sheetId="10" r:id="rId5"/>
+    <sheet name="EquipmentRaw" sheetId="5" r:id="rId6"/>
+    <sheet name="StationRaw" sheetId="8" r:id="rId7"/>
+    <sheet name="LineRaw" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="331">
   <si>
     <t>TagName</t>
   </si>
@@ -1021,6 +1022,94 @@
   <si>
     <t>PMJ1.RunningStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LineCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EquipmentRefsStr</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ02</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ03</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ04</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ05</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ06</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ07</t>
+  </si>
+  <si>
+    <t>MDJ1_BZJ08</t>
+  </si>
+  <si>
+    <t>MDJ1_CZJ01</t>
+  </si>
+  <si>
+    <t>MDJ1_MDJ02</t>
+  </si>
+  <si>
+    <t>MDJ1_MDJ03</t>
+  </si>
+  <si>
+    <t>MDJ1_FMJ01</t>
+  </si>
+  <si>
+    <t>MDJ1_TBJ01</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ09</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ10</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ11</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ12</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ13</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ14</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ15</t>
+  </si>
+  <si>
+    <t>MDJ2_BZJ16</t>
+  </si>
+  <si>
+    <t>MDJ2_CZJ02</t>
+  </si>
+  <si>
+    <t>MDJ2_MDJ04</t>
+  </si>
+  <si>
+    <t>MDJ2_MDJ05</t>
+  </si>
+  <si>
+    <t>MDJ2_MDJ06</t>
+  </si>
+  <si>
+    <t>MDJ2_CDJ02</t>
+  </si>
+  <si>
+    <t>MDJ2_FMJ02</t>
+  </si>
+  <si>
+    <t>MDJ2_TBJ02</t>
   </si>
 </sst>
 </file>
@@ -3708,7 +3797,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T9" sqref="T9"/>
+      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4736,7 +4825,7 @@
         <v>35</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>33</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -4987,12 +5076,1296 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431CFF1D-70F2-49DC-93A3-439F0036F289}">
+  <dimension ref="A1:Z22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A16" sqref="A10:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A22" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <v>PMJ1.HeartBeat</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J20" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <v>DB1002.0.0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PMJ1.ManualMode</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PMJ1.AutoMode</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PMJ1.RunningStatus</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
+        <v>BZJ01.Bagging.Status</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" ref="Q6:Q21" si="2">IF(I6="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.Request</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.Code</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Status</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.40</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M9" s="1">
+        <v>40</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Request</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Code</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>32</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Sn</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>78</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grouping.Request</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.80</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grouping.Code</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.82</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>82</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>32</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grouping.PalletCode</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.116</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>116</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>32</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PMJ1.HeartBeat</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.0.0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>2</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bagging.ProcessResult</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Palletizing.ProcessResult</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Palletizing.Position</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grouping.ProcessResult</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TBJ01.Printing.Content</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" s="1">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PMJ01.Inkjet.Content</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G27" sqref="G27"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -5949,34 +7322,35 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CA4B-91B2-4B42-9A2C-43FCA542F059}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:XFD1048576"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="12.375" style="1"/>
+    <col min="9" max="9" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="12.375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>69</v>
+      <c r="B1" s="1" t="s">
+        <v>302</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>113</v>
@@ -5996,13 +7370,16 @@
       <c r="H1" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,"_")),IF(ISBLANK(C2),"",C2))</f>
         <v>MDJ1_BZ01</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -6020,8 +7397,11 @@
       <c r="G2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="str">
         <f t="shared" ref="A3:A33" si="0">_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,"_")),IF(ISBLANK(C3),"",C3))</f>
         <v>MDJ1_BZ02</v>
@@ -6044,8 +7424,11 @@
       <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_BZ03</v>
@@ -6068,8 +7451,11 @@
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_BZ04</v>
@@ -6092,8 +7478,11 @@
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_BZ05</v>
@@ -6116,8 +7505,11 @@
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_BZ06</v>
@@ -6140,8 +7532,11 @@
       <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_BZ07</v>
@@ -6164,8 +7559,11 @@
       <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_BZ08</v>
@@ -6188,8 +7586,11 @@
       <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_CZ01</v>
@@ -6212,8 +7613,11 @@
       <c r="G10" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="str">
         <f t="shared" ref="A11" si="1">_xlfn.CONCAT(IF(ISBLANK(B11),"",_xlfn.CONCAT(B11,"_")),IF(ISBLANK(C11),"",C11))</f>
         <v>MDJ1_PM01</v>
@@ -6236,8 +7640,11 @@
       <c r="G11" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_MD01</v>
@@ -6260,8 +7667,11 @@
       <c r="G12" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_MD02</v>
@@ -6284,8 +7694,11 @@
       <c r="G13" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_MD03</v>
@@ -6308,8 +7721,11 @@
       <c r="G14" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_CD01</v>
@@ -6332,8 +7748,11 @@
       <c r="G15" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_FM01</v>
@@ -6356,8 +7775,11 @@
       <c r="G16" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ1_TB01</v>
@@ -6380,8 +7802,11 @@
       <c r="G17" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ01</v>
@@ -6404,8 +7829,11 @@
       <c r="G18" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ02</v>
@@ -6428,8 +7856,11 @@
       <c r="G19" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ03</v>
@@ -6452,8 +7883,11 @@
       <c r="G20" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ04</v>
@@ -6476,8 +7910,11 @@
       <c r="G21" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ05</v>
@@ -6500,8 +7937,11 @@
       <c r="G22" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ06</v>
@@ -6524,8 +7964,11 @@
       <c r="G23" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ07</v>
@@ -6548,8 +7991,11 @@
       <c r="G24" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_BZ08</v>
@@ -6572,8 +8018,11 @@
       <c r="G25" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="I25" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_CZ02</v>
@@ -6596,8 +8045,11 @@
       <c r="G26" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="I26" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_PM02</v>
@@ -6620,8 +8072,11 @@
       <c r="G27" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="I27" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_MD04</v>
@@ -6644,8 +8099,11 @@
       <c r="G28" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="I28" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_MD05</v>
@@ -6668,8 +8126,11 @@
       <c r="G29" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="I29" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_MD06</v>
@@ -6692,8 +8153,11 @@
       <c r="G30" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="I30" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_CD02</v>
@@ -6716,8 +8180,11 @@
       <c r="G31" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="I31" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_FM02</v>
@@ -6740,8 +8207,12 @@
       <c r="G32" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="I32" s="1" t="str">
+        <f t="shared" ref="I32:I33" si="2">C32</f>
+        <v>FM02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ2_MD06</v>
@@ -6763,6 +8234,10 @@
       </c>
       <c r="G33" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>MD06</v>
       </c>
     </row>
   </sheetData>
@@ -6772,7 +8247,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E278A2C-898C-4DE6-A541-D2EA92C91CD8}">
   <dimension ref="A1:E3"/>
   <sheetViews>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AA77F8-6F2F-4640-921E-25B84736FE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE00B9D9-B5E0-499B-8891-636328C1DBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="282">
   <si>
     <t>TagName</t>
   </si>
@@ -242,9 +242,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>=1</t>
-  </si>
-  <si>
     <t>MDJ1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,9 +251,6 @@
   </si>
   <si>
     <t>MDJ01</t>
-  </si>
-  <si>
-    <t>MDJ01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -265,9 +259,6 @@
   </si>
   <si>
     <t>Line</t>
-  </si>
-  <si>
-    <t>Line</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -297,9 +288,6 @@
   </si>
   <si>
     <t>PalletCode</t>
-  </si>
-  <si>
-    <t>PalletCode</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,90 +298,6 @@
     <t>垛盘码数据</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>DB1002.2</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>DB1002.4</t>
-  </si>
-  <si>
-    <t>STRING</t>
-  </si>
-  <si>
-    <t>DB1002.6</t>
-  </si>
-  <si>
-    <t>Palletizing</t>
-  </si>
-  <si>
-    <t>DB1002.40</t>
-  </si>
-  <si>
-    <t>DB1002.42</t>
-  </si>
-  <si>
-    <t>DB1002.44</t>
-  </si>
-  <si>
-    <t>Sn</t>
-  </si>
-  <si>
-    <t>DB1002.78</t>
-  </si>
-  <si>
-    <t>Grouping</t>
-  </si>
-  <si>
-    <t>组托申请读码</t>
-  </si>
-  <si>
-    <t>DB1002.80</t>
-  </si>
-  <si>
-    <t>组托袋码数据</t>
-  </si>
-  <si>
-    <t>DB1002.82</t>
-  </si>
-  <si>
-    <t>DB1002.116</t>
-  </si>
-  <si>
-    <t>包装机读码完成</t>
-  </si>
-  <si>
-    <t>DB1001.2</t>
-  </si>
-  <si>
-    <t>码垛机读码完成</t>
-  </si>
-  <si>
-    <t>DB1001.4</t>
-  </si>
-  <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>垛位号</t>
-  </si>
-  <si>
-    <t>DB1001.6</t>
-  </si>
-  <si>
-    <t>组托读码完成</t>
-  </si>
-  <si>
-    <t>DB1001.8</t>
-  </si>
-  <si>
     <t>MDJ2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -403,9 +307,6 @@
   </si>
   <si>
     <t>BZJ01</t>
-  </si>
-  <si>
-    <t>BZJ01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -570,9 +471,6 @@
   </si>
   <si>
     <t>TBJ01</t>
-  </si>
-  <si>
-    <t>TBJ01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -625,9 +523,6 @@
   </si>
   <si>
     <t>RunningStatus</t>
-  </si>
-  <si>
-    <t>RunningStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -639,9 +534,6 @@
   </si>
   <si>
     <t>Bool</t>
-  </si>
-  <si>
-    <t>Bool</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -728,13 +620,7 @@
   </si>
   <si>
     <t>Printing</t>
-  </si>
-  <si>
-    <t>Printing</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
   </si>
   <si>
     <t>Content</t>
@@ -742,13 +628,7 @@
   </si>
   <si>
     <t>发送内容</t>
-  </si>
-  <si>
-    <t>发送内容</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMJ01</t>
   </si>
   <si>
     <t>PMJ01</t>
@@ -756,9 +636,6 @@
   </si>
   <si>
     <t>Inkjet</t>
-  </si>
-  <si>
-    <t>Inkjet</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -767,13 +644,7 @@
   </si>
   <si>
     <t>SwdomInkjetTcp</t>
-  </si>
-  <si>
-    <t>SwdomInkjetTcp</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMJ1</t>
   </si>
   <si>
     <t>PMJ1</t>
@@ -781,9 +652,6 @@
   </si>
   <si>
     <t>READWRITE</t>
-  </si>
-  <si>
-    <t>READWRITE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -907,9 +775,6 @@
   </si>
   <si>
     <t>Equipment</t>
-  </si>
-  <si>
-    <t>Equipment</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -922,36 +787,9 @@
   </si>
   <si>
     <t>LabelingTcp</t>
-  </si>
-  <si>
-    <t>LabelingTcp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PMJ1.HeartBeat</t>
-  </si>
-  <si>
-    <t>DB1002.0.0</t>
-  </si>
-  <si>
-    <t>PMJ1.ManualMode</t>
-  </si>
-  <si>
-    <t>DB1002.0.1</t>
-  </si>
-  <si>
-    <t>PMJ1.AutoMode</t>
-  </si>
-  <si>
-    <t>DB1002.0.2</t>
-  </si>
-  <si>
-    <t>PMJ1.RunningStatus</t>
-  </si>
-  <si>
-    <t>DB1002.0.3</t>
-  </si>
-  <si>
     <t>BZJ01.Bagging.Status</t>
   </si>
   <si>
@@ -973,55 +811,7 @@
     <t>MDJ01.Palletizing.Sn</t>
   </si>
   <si>
-    <t>Grouping.Request</t>
-  </si>
-  <si>
-    <t>Grouping.Code</t>
-  </si>
-  <si>
-    <t>Grouping.PalletCode</t>
-  </si>
-  <si>
-    <t>DB1001.0.0</t>
-  </si>
-  <si>
-    <t>Bagging.ProcessResult</t>
-  </si>
-  <si>
-    <t>Palletizing.ProcessResult</t>
-  </si>
-  <si>
-    <t>Palletizing.Position</t>
-  </si>
-  <si>
-    <t>Grouping.ProcessResult</t>
-  </si>
-  <si>
-    <t>TBJ01.Printing.Content</t>
-  </si>
-  <si>
-    <t>PMJ01.Inkjet.Content</t>
-  </si>
-  <si>
     <t>MDJ1_BZJ01</t>
-  </si>
-  <si>
-    <t>QrCode</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>PMJ1.ManualMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMJ1.AutoMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMJ1.RunningStatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LineCode</t>
@@ -1110,6 +900,73 @@
   </si>
   <si>
     <t>MDJ2_TBJ02</t>
+  </si>
+  <si>
+    <t>Heartbeat</t>
+  </si>
+  <si>
+    <t>CDJ01.Grouping.Request</t>
+  </si>
+  <si>
+    <t>CDJ01.Grouping.Code</t>
+  </si>
+  <si>
+    <t>CDJ01.Grouping.PalletCode</t>
+  </si>
+  <si>
+    <t>BZJ01.Bagging.ProcessResult</t>
+  </si>
+  <si>
+    <t>MDJ01.Palletizing.ProcessResult</t>
+  </si>
+  <si>
+    <t>MDJ01.Palletizing.Position</t>
+  </si>
+  <si>
+    <t>CDJ01.Grouping.ProcessResult</t>
+  </si>
+  <si>
+    <t>虚拟工位01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLC01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_PLC01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1.ManualMode</t>
+  </si>
+  <si>
+    <t>MDJ1.AutoMode</t>
+  </si>
+  <si>
+    <t>MDJ1.RunningStatus</t>
+  </si>
+  <si>
+    <t>虚拟设备</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>OutPut</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1.Input.Heartbeat</t>
+  </si>
+  <si>
+    <t>MDJ1.OutPut.Heartbeat</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,9 +1050,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1496,16 +1350,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD22"/>
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
@@ -1521,7 +1375,7 @@
     <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1530,13 +1384,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1580,32 +1434,33 @@
       <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>280</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H2" s="4"/>
+        <v>133</v>
+      </c>
+      <c r="H2" s="1"/>
       <c r="I2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>272</v>
+        <v>149</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J20" si="0">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <v>DB1002.0.0</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>18</v>
@@ -1629,32 +1484,33 @@
       <c r="R2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>274</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>134</v>
+      </c>
+      <c r="H3" s="1"/>
       <c r="I3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>274</v>
+        <v>149</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.0.1</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>18</v>
@@ -1678,7 +1534,7 @@
       <c r="R3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1686,24 +1542,25 @@
       <c r="A4" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>224</v>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H4" s="4"/>
+        <v>135</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>276</v>
+        <v>149</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.0.2</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>18</v>
@@ -1727,32 +1584,33 @@
       <c r="R4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>224</v>
+        <v>276</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>278</v>
+        <v>149</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.0.3</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>18</v>
@@ -1776,34 +1634,35 @@
       <c r="R5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="4" t="s">
-        <v>111</v>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>81</v>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>83</v>
+      <c r="H6" s="1"/>
+      <c r="I6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.2</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>18</v>
@@ -1821,24 +1680,25 @@
       <c r="P6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>84</v>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" ref="Q6:Q20" si="1">IF(I6="STRING",64,"")</f>
+        <v/>
       </c>
       <c r="R6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="4" t="s">
-        <v>111</v>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -1849,12 +1709,13 @@
       <c r="G7" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>85</v>
+      <c r="H7" s="1"/>
+      <c r="I7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.4</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>18</v>
@@ -1872,26 +1733,27 @@
       <c r="P7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>84</v>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>227</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1900,12 +1762,13 @@
       <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>87</v>
+      <c r="H8" s="1"/>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.6</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>18</v>
@@ -1929,34 +1792,35 @@
       <c r="R8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
+        <v>228</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>89</v>
+      <c r="H9" s="1"/>
+      <c r="I9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.40</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>18</v>
@@ -1974,40 +1838,42 @@
       <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q9" s="1" t="s">
-        <v>84</v>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="S9" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>90</v>
+      <c r="H10" s="1"/>
+      <c r="I10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.42</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>18</v>
@@ -2025,40 +1891,42 @@
       <c r="P10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="1" t="s">
-        <v>84</v>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>230</v>
+      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>91</v>
+      <c r="H11" s="1"/>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.44</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>18</v>
@@ -2082,34 +1950,35 @@
       <c r="R11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>231</v>
+      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="4" t="s">
-        <v>65</v>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>93</v>
+      <c r="H12" s="1"/>
+      <c r="I12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.78</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>18</v>
@@ -2127,38 +1996,42 @@
       <c r="P12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q12" s="1" t="s">
-        <v>84</v>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>263</v>
+      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H13" s="4"/>
-      <c r="I13" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>96</v>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.80</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>18</v>
@@ -2176,38 +2049,42 @@
       <c r="P13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>84</v>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="R13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>264</v>
+      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H14" s="4"/>
-      <c r="I14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>98</v>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.82</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>18</v>
@@ -2231,377 +2108,323 @@
       <c r="R14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:19">
-      <c r="A15" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="A15" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1002.116</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="1">
         <v>1002</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="1">
         <v>116</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6" t="s">
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="1">
         <v>32</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="A16" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1001.0.0</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="1">
         <v>1001</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6" t="s">
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6" t="s">
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
+      <c r="A17" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="1">
         <v>1001</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="1">
         <v>2</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6">
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
         <v>2</v>
       </c>
-      <c r="P17" s="6" t="s">
+      <c r="P17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R17" s="6" t="s">
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="K18" s="6" t="s">
+      <c r="A18" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1001.4</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="1">
         <v>1001</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="1">
         <v>4</v>
       </c>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6">
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
         <v>2</v>
       </c>
-      <c r="P18" s="6" t="s">
+      <c r="P18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q18" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="6" t="s">
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K19" s="6" t="s">
+      <c r="A19" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1001.6</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="1">
         <v>1001</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="1">
         <v>6</v>
       </c>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6">
+      <c r="N19" s="1"/>
+      <c r="O19" s="1">
         <v>2</v>
       </c>
-      <c r="P19" s="6" t="s">
+      <c r="P19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R19" s="6" t="s">
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="6" t="s">
+      <c r="S19" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:19">
-      <c r="A20" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="A20" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="1">
         <v>1001</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="1">
         <v>8</v>
       </c>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6">
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
         <v>2</v>
       </c>
-      <c r="P20" s="6" t="s">
+      <c r="P20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q20" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="R20" s="6" t="s">
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="R20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>64</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="S22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2611,15 +2434,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
@@ -2654,49 +2477,49 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
@@ -2705,26 +2528,27 @@
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
@@ -2732,33 +2556,34 @@
       <c r="D7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>62</v>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>297</v>
+        <v>227</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="E8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>31</v>
@@ -2769,7 +2594,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -2777,8 +2602,8 @@
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>62</v>
+      <c r="E10" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>34</v>
@@ -2786,10 +2611,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>297</v>
+        <v>230</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
@@ -2800,10 +2625,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>31</v>
@@ -2814,80 +2639,83 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>263</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>62</v>
+      <c r="E13" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>264</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>171</v>
+        <v>262</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>35</v>
@@ -2898,10 +2726,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>35</v>
@@ -2912,38 +2740,16 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>298</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2974,16 +2780,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -3001,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -3010,19 +2816,19 @@
         <v>MDJ1_BZJ01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
@@ -3040,19 +2846,19 @@
         <v>MDJ1_BZJ02</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
@@ -3070,19 +2876,19 @@
         <v>MDJ1_BZJ03</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>41</v>
@@ -3100,19 +2906,19 @@
         <v>MDJ1_BZJ04</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
@@ -3130,19 +2936,19 @@
         <v>MDJ1_BZJ05</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
@@ -3160,19 +2966,19 @@
         <v>MDJ1_BZJ06</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
@@ -3190,19 +2996,19 @@
         <v>MDJ1_BZJ07</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
@@ -3220,19 +3026,19 @@
         <v>MDJ1_BZJ08</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
@@ -3250,19 +3056,19 @@
         <v>MDJ1_CZJ01</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>123</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
@@ -3280,16 +3086,16 @@
         <v>MDJ1_MDJ01</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>61</v>
@@ -3310,16 +3116,16 @@
         <v>MDJ1_MDJ02</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>61</v>
@@ -3340,16 +3146,16 @@
         <v>MDJ1_MDJ03</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>61</v>
@@ -3370,19 +3176,19 @@
         <v>MDJ1_TBJ01</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>161</v>
+        <v>129</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
@@ -3400,19 +3206,19 @@
         <v>MDJ2_BZJ09</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>41</v>
@@ -3430,19 +3236,19 @@
         <v>MDJ2_BZJ10</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
@@ -3460,19 +3266,19 @@
         <v>MDJ2_BZJ11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>41</v>
@@ -3490,19 +3296,19 @@
         <v>MDJ2_BZJ12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>41</v>
@@ -3520,19 +3326,19 @@
         <v>MDJ2_BZJ13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>41</v>
@@ -3550,19 +3356,19 @@
         <v>MDJ2_BZJ14</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>41</v>
@@ -3580,19 +3386,19 @@
         <v>MDJ2_BZJ15</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>41</v>
@@ -3610,19 +3416,19 @@
         <v>MDJ2_BZJ16</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
@@ -3640,19 +3446,19 @@
         <v>MDJ2_CZJ02</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>160</v>
+        <v>126</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
@@ -3670,16 +3476,16 @@
         <v>MDJ2_MDJ04</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>61</v>
@@ -3700,16 +3506,16 @@
         <v>MDJ2_MDJ05</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>61</v>
@@ -3730,16 +3536,16 @@
         <v>MDJ2_MDJ06</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>61</v>
@@ -3760,19 +3566,19 @@
         <v>MDJ2_TBJ02</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>161</v>
+        <v>130</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>41</v>
@@ -3793,11 +3599,1252 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Z20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A20" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <v>MDJ1.Input.Heartbeat</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J5" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <v>DB1002.0.0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1.ManualMode</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1.AutoMode</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1.RunningStatus</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
+        <v>BZJ01.Bagging.Status</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" ref="J6:J20" si="2">_xlfn.CONCAT(K6,L6,".",M6,IF(ISBLANK(N6),"",_xlfn.CONCAT(".",N6)))</f>
+        <v>DB1002.2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" ref="Q6:Q20" si="3">IF(I6="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.Request</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.Code</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Status</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.40</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M9" s="1">
+        <v>40</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Request</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.42</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>42</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Code</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.44</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>44</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>32</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Sn</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.78</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>78</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.Request</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.80</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>80</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.Code</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1002.82</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>82</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>32</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.PalletCode</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" ref="J15:J16" si="4">_xlfn.CONCAT(K15,L15,".",M15,IF(ISBLANK(N15),"",_xlfn.CONCAT(".",N15)))</f>
+        <v>DB1002.116</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>116</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>32</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="str">
+        <f t="shared" ref="A16" si="5">_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
+        <v>MDJ1.OutPut.Heartbeat</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>DB1001.0.0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.ProcessResult</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.ProcessResult</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.4</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Position</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.6</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M19" s="1">
+        <v>6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>2</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.ProcessResult</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431CFF1D-70F2-49DC-93A3-439F0036F289}">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z16" sqref="Z16"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3836,13 +4883,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3914,19 +4961,19 @@
         <v>PMJ1.HeartBeat</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:J5" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <f t="shared" ref="J2:J20" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
         <v>DB1002.0.0</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3954,13 +5001,13 @@
         <v>21</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -3969,16 +5016,16 @@
         <v>PMJ1.ManualMode</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="J3" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4009,13 +5056,13 @@
         <v>21</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -4024,16 +5071,16 @@
         <v>PMJ1.AutoMode</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="J4" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4064,13 +5111,13 @@
         <v>21</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -4079,16 +5126,16 @@
         <v>PMJ1.RunningStatus</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="J5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -4125,7 +5172,7 @@
         <v>31</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -4134,7 +5181,7 @@
         <v>BZJ01.Bagging.Status</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -4146,10 +5193,10 @@
         <v>42</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J20" si="2">_xlfn.CONCAT(K6,L6,".",M6,IF(ISBLANK(N6),"",_xlfn.CONCAT(".",N6)))</f>
+        <f t="shared" si="1"/>
         <v>DB1002.2</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -4168,7 +5215,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q21" si="3">IF(I6="STRING",64,"")</f>
+        <f t="shared" ref="Q6:Q21" si="2">IF(I6="STRING",64,"")</f>
         <v/>
       </c>
       <c r="R6" s="1" t="s">
@@ -4185,7 +5232,7 @@
       </c>
       <c r="X6" s="3"/>
       <c r="Z6" s="1" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -4194,7 +5241,7 @@
         <v>BZJ01.Bagging.Request</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>24</v>
@@ -4206,10 +5253,10 @@
         <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.4</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -4228,7 +5275,7 @@
         <v>19</v>
       </c>
       <c r="Q7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R7" s="1" t="s">
@@ -4247,7 +5294,7 @@
         <v>60</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -4256,7 +5303,7 @@
         <v>BZJ01.Bagging.Code</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>24</v>
@@ -4271,7 +5318,7 @@
         <v>48</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.6</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -4299,14 +5346,14 @@
         <v>21</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="X8" s="3"/>
       <c r="Z8" s="1" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -4315,7 +5362,7 @@
         <v>MDJ01.Palletizing.Status</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>54</v>
@@ -4327,10 +5374,10 @@
         <v>45</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.40</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -4349,7 +5396,7 @@
         <v>19</v>
       </c>
       <c r="Q9" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R9" s="1" t="s">
@@ -4374,7 +5421,7 @@
         <v>MDJ01.Palletizing.Request</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>54</v>
@@ -4386,10 +5433,10 @@
         <v>43</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.42</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -4408,7 +5455,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R10" s="1" t="s">
@@ -4436,7 +5483,7 @@
         <v>MDJ01.Palletizing.Code</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>54</v>
@@ -4451,7 +5498,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.44</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -4479,7 +5526,7 @@
         <v>21</v>
       </c>
       <c r="U11" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W11" s="1" t="s">
         <v>31</v>
@@ -4494,7 +5541,7 @@
         <v>MDJ01.Palletizing.Sn</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>54</v>
@@ -4506,10 +5553,10 @@
         <v>47</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.78</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -4528,7 +5575,7 @@
         <v>19</v>
       </c>
       <c r="Q12" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R12" s="1" t="s">
@@ -4563,10 +5610,10 @@
         <v>49</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.80</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -4585,7 +5632,7 @@
         <v>19</v>
       </c>
       <c r="Q13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R13" s="1" t="s">
@@ -4595,7 +5642,7 @@
         <v>21</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="W13" s="1" t="s">
         <v>31</v>
@@ -4604,7 +5651,7 @@
         <v>60</v>
       </c>
       <c r="Z13" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -4626,7 +5673,7 @@
         <v>48</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1002.82</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -4654,13 +5701,13 @@
         <v>21</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="W14" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -4673,16 +5720,16 @@
         <v>55</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>48</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" ref="J15:J16" si="4">_xlfn.CONCAT(K15,L15,".",M15,IF(ISBLANK(N15),"",_xlfn.CONCAT(".",N15)))</f>
+        <f t="shared" si="1"/>
         <v>DB1002.116</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -4710,34 +5757,34 @@
         <v>21</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W15" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26">
       <c r="A16" s="1" t="str">
-        <f t="shared" ref="A16" si="5">_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
+        <f t="shared" si="0"/>
         <v>PMJ1.HeartBeat</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>DB1001.0.0</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -4753,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>25</v>
@@ -4765,7 +5812,7 @@
         <v>21</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="W16" s="1" t="s">
         <v>31</v>
@@ -4781,16 +5828,16 @@
         <v>24</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1001.2</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -4809,7 +5856,7 @@
         <v>25</v>
       </c>
       <c r="Q17" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R17" s="1" t="s">
@@ -4819,13 +5866,13 @@
         <v>21</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Z17" s="1" t="s">
-        <v>228</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -4838,16 +5885,16 @@
         <v>54</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>DB1001.4</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -4866,7 +5913,7 @@
         <v>25</v>
       </c>
       <c r="Q18" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="R18" s="1" t="s">
@@ -4876,7 +5923,7 @@
         <v>21</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>35</v>
@@ -4901,1291 +5948,7 @@
         <v>58</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1001.6</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M19" s="1">
-        <v>6</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.ProcessResult</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1001.8</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M20" s="1">
-        <v>8</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TBJ01.Printing.Content</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="3"/>
-        <v>64</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ01.Inkjet.Content</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431CFF1D-70F2-49DC-93A3-439F0036F289}">
-  <dimension ref="A1:Z22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A16" sqref="A10:XFD16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A22" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
-        <v>PMJ1.HeartBeat</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:J20" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
-        <v>DB1002.0.0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.ManualMode</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.0.1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.AutoMode</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.0.2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.RunningStatus</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.0.3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
-        <v>BZJ01.Bagging.Status</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.2</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q21" si="2">IF(I6="STRING",64,"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Z6" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BZJ01.Bagging.Request</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BZJ01.Bagging.Code</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M8" s="1">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>32</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Z8" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Status</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.40</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M9" s="1">
-        <v>40</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Request</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.42</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M10" s="1">
-        <v>42</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Code</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.44</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M11" s="1">
-        <v>44</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>32</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Sn</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.78</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M12" s="1">
-        <v>78</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.Request</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.80</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M13" s="1">
-        <v>80</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.Code</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.82</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M14" s="1">
-        <v>82</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>32</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.PalletCode</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.116</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M15" s="1">
-        <v>116</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>32</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.HeartBeat</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.0.0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bagging.ProcessResult</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.2</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizing.ProcessResult</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.4</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizing.Position</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J19" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6235,13 +5998,13 @@
         <v>55</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J20" s="1" t="str">
         <f t="shared" si="1"/>
@@ -6273,13 +6036,13 @@
         <v>21</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -6288,35 +6051,35 @@
         <v>TBJ01.Printing.Content</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>165</v>
+        <v>131</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -6325,31 +6088,31 @@
         <v>PMJ01.Inkjet.Content</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>178</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>48</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6361,11 +6124,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A31"/>
+      <selection pane="topRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -6385,16 +6148,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>36</v>
@@ -6412,34 +6175,34 @@
         <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,"_")),D2)</f>
-        <v>MDJ1_BZJ01</v>
+        <v>MDJ1_PLC01</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>272</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>277</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="b">
         <v>1</v>
@@ -6447,29 +6210,29 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A31" si="0">_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,"_")),D3)</f>
-        <v>MDJ1_BZJ02</v>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,"_")),D3)</f>
+        <v>MDJ1_BZJ01</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="b">
         <v>1</v>
@@ -6477,29 +6240,29 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ1_BZJ03</v>
+        <f t="shared" ref="A4:A32" si="0">_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,"_")),D4)</f>
+        <v>MDJ1_BZJ02</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1" t="b">
         <v>1</v>
@@ -6508,28 +6271,28 @@
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZJ04</v>
+        <v>MDJ1_BZJ03</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1" t="b">
         <v>1</v>
@@ -6538,28 +6301,28 @@
     <row r="6" spans="1:10">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZJ05</v>
+        <v>MDJ1_BZJ04</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="1" t="b">
         <v>1</v>
@@ -6568,28 +6331,28 @@
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZJ06</v>
+        <v>MDJ1_BZJ05</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="1" t="b">
         <v>1</v>
@@ -6598,28 +6361,28 @@
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZJ07</v>
+        <v>MDJ1_BZJ06</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="1" t="b">
         <v>1</v>
@@ -6628,28 +6391,28 @@
     <row r="9" spans="1:10">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZJ08</v>
+        <v>MDJ1_BZJ07</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1" t="b">
         <v>1</v>
@@ -6658,28 +6421,28 @@
     <row r="10" spans="1:10">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_CZJ01</v>
+        <v>MDJ1_BZJ08</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="1" t="b">
         <v>1</v>
@@ -6688,28 +6451,28 @@
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_MDJ01</v>
+        <v>MDJ1_CZJ01</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>61</v>
+        <v>123</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I11" s="1" t="b">
         <v>1</v>
@@ -6718,28 +6481,28 @@
     <row r="12" spans="1:10">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_MDJ02</v>
+        <v>MDJ1_MDJ01</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>146</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="b">
         <v>1</v>
@@ -6748,19 +6511,19 @@
     <row r="13" spans="1:10">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_MDJ03</v>
+        <v>MDJ1_MDJ02</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>61</v>
@@ -6769,7 +6532,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I13" s="1" t="b">
         <v>1</v>
@@ -6778,28 +6541,28 @@
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_CDJ01</v>
+        <v>MDJ1_MDJ03</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>79</v>
+        <v>119</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I14" s="1" t="b">
         <v>1</v>
@@ -6807,29 +6570,29 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="str">
-        <f t="shared" ref="A15" si="1">_xlfn.CONCAT(IF(ISBLANK(B15),"",_xlfn.CONCAT(B15,"_")),D15)</f>
-        <v>MDJ1_FMJ01</v>
+        <f t="shared" si="0"/>
+        <v>MDJ1_CDJ01</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>173</v>
+        <v>65</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1" t="b">
         <v>1</v>
@@ -6837,29 +6600,29 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ1_TBJ01</v>
+        <f t="shared" ref="A16" si="1">_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,"_")),D16)</f>
+        <v>MDJ1_FMJ01</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>161</v>
+        <v>140</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I16" s="1" t="b">
         <v>1</v>
@@ -6868,28 +6631,28 @@
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ09</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>109</v>
+        <v>MDJ1_TBJ01</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>110</v>
+      <c r="F17" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H17" s="1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I17" s="1" t="b">
         <v>1</v>
@@ -6898,28 +6661,28 @@
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ10</v>
+        <v>MDJ2_BZJ09</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -6928,28 +6691,28 @@
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ11</v>
+        <v>MDJ2_BZJ10</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H19" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -6958,28 +6721,28 @@
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ12</v>
+        <v>MDJ2_BZJ11</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -6988,28 +6751,28 @@
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ13</v>
+        <v>MDJ2_BZJ12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>141</v>
+        <v>107</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H21" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -7018,28 +6781,28 @@
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ14</v>
+        <v>MDJ2_BZJ13</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H22" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -7048,28 +6811,28 @@
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ15</v>
+        <v>MDJ2_BZJ14</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -7078,28 +6841,28 @@
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ16</v>
+        <v>MDJ2_BZJ15</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H24" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
@@ -7108,28 +6871,28 @@
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_CZJ02</v>
+        <v>MDJ2_BZJ16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>158</v>
+        <v>103</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H25" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -7138,28 +6901,28 @@
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MDJ04</v>
+        <v>MDJ2_CZJ02</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>148</v>
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>61</v>
+        <v>126</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H26" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -7168,19 +6931,19 @@
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MDJ05</v>
+        <v>MDJ2_MDJ04</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>61</v>
@@ -7189,7 +6952,7 @@
         <v>41</v>
       </c>
       <c r="H27" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -7198,19 +6961,19 @@
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MDJ06</v>
+        <v>MDJ2_MDJ05</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>61</v>
@@ -7219,7 +6982,7 @@
         <v>41</v>
       </c>
       <c r="H28" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -7227,29 +6990,29 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="str">
-        <f t="shared" ref="A29" si="2">_xlfn.CONCAT(IF(ISBLANK(B29),"",_xlfn.CONCAT(B29,"_")),D29)</f>
-        <v>MDJ2_CDJ02</v>
+        <f t="shared" si="0"/>
+        <v>MDJ2_MDJ06</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>209</v>
+        <v>77</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>79</v>
+        <v>122</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H29" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
@@ -7257,23 +7020,23 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ2_FMJ02</v>
+        <f t="shared" ref="A30" si="2">_xlfn.CONCAT(IF(ISBLANK(B30),"",_xlfn.CONCAT(B30,"_")),D30)</f>
+        <v>MDJ2_CDJ02</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>41</v>
@@ -7288,30 +7051,60 @@
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_TBJ02</v>
+        <v>MDJ2_FMJ02</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>204</v>
+        <v>77</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>161</v>
+        <v>143</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H31" s="1">
+        <v>13</v>
+      </c>
+      <c r="I31" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_TBJ02</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1">
         <v>14</v>
       </c>
-      <c r="I31" s="1" t="b">
+      <c r="I32" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7324,11 +7117,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CA4B-91B2-4B42-9A2C-43FCA542F059}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -7347,13 +7140,13 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>36</v>
@@ -7368,874 +7161,901 @@
         <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>303</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="str">
         <f>_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,"_")),IF(ISBLANK(C2),"",C2))</f>
-        <v>MDJ1_BZ01</v>
+        <v>MDJ1_PLC01</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>271</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="str">
-        <f t="shared" ref="A3:A33" si="0">_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,"_")),IF(ISBLANK(C3),"",C3))</f>
-        <v>MDJ1_BZ02</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>63</v>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,"_")),IF(ISBLANK(C3),"",C3))</f>
+        <v>MDJ1_BZ01</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>231</v>
+        <v>186</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ1_BZ03</v>
+        <f t="shared" ref="A4:A34" si="0">_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,"_")),IF(ISBLANK(C4),"",C4))</f>
+        <v>MDJ1_BZ02</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>232</v>
+        <v>187</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>305</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZ04</v>
+        <v>MDJ1_BZ03</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>233</v>
+        <v>188</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZ05</v>
+        <v>MDJ1_BZ04</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZ06</v>
+        <v>MDJ1_BZ05</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>235</v>
+        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZ07</v>
+        <v>MDJ1_BZ06</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>236</v>
+        <v>191</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>309</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_BZ08</v>
+        <v>MDJ1_BZ07</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>237</v>
+        <v>192</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>310</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_CZ01</v>
+        <v>MDJ1_BZ08</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>193</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="str">
-        <f t="shared" ref="A11" si="1">_xlfn.CONCAT(IF(ISBLANK(B11),"",_xlfn.CONCAT(B11,"_")),IF(ISBLANK(C11),"",C11))</f>
-        <v>MDJ1_PM01</v>
+        <f t="shared" si="0"/>
+        <v>MDJ1_CZ01</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>261</v>
+        <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>220</v>
+        <v>194</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="F11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ1_MD01</v>
+        <f t="shared" ref="A12" si="1">_xlfn.CONCAT(IF(ISBLANK(B12),"",_xlfn.CONCAT(B12,"_")),IF(ISBLANK(C12),"",C12))</f>
+        <v>MDJ1_PM01</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>196</v>
+        <v>62</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>217</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
       <c r="F12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>312</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_MD02</v>
+        <v>MDJ1_MD01</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>197</v>
+        <v>160</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>313</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_MD03</v>
+        <v>MDJ1_MD02</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_CD01</v>
+        <v>MDJ1_MD03</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>206</v>
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>79</v>
+        <v>197</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>314</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_FM01</v>
+        <v>MDJ1_CD01</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>175</v>
+        <v>198</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>315</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1_TB01</v>
+        <v>MDJ1_FM01</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="F17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>316</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ01</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>MDJ1_TB01</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>110</v>
+        <v>200</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>128</v>
       </c>
       <c r="F18" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>317</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ02</v>
+        <v>MDJ2_BZ01</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>318</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ03</v>
+        <v>MDJ2_BZ02</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>247</v>
+        <v>202</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ04</v>
+        <v>MDJ2_BZ03</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>320</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ05</v>
+        <v>MDJ2_BZ04</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>191</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>249</v>
+        <v>204</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>321</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ06</v>
+        <v>MDJ2_BZ05</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>192</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>250</v>
+        <v>205</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>322</v>
+        <v>252</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ07</v>
+        <v>MDJ2_BZ06</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>193</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>323</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ08</v>
+        <v>MDJ2_BZ07</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>194</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>252</v>
+        <v>207</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>324</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_CZ02</v>
+        <v>MDJ2_BZ08</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>208</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F26" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>325</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_PM02</v>
+        <v>MDJ2_CZ02</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>263</v>
+        <v>165</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>220</v>
+        <v>209</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="F27" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MD04</v>
+        <v>MDJ2_PM02</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>202</v>
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F28" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>327</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MD05</v>
+        <v>MDJ2_MD04</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F29" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>328</v>
+        <v>258</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MD06</v>
+        <v>MDJ2_MD05</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F30" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_CD02</v>
+        <v>MDJ2_MD06</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>208</v>
+        <v>77</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>79</v>
+        <v>212</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F31" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>330</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_FM02</v>
+        <v>MDJ2_CD02</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>260</v>
+        <v>213</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F32" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="str">
-        <f t="shared" ref="I32:I33" si="2">C32</f>
-        <v>FM02</v>
+      <c r="I32" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>MDJ2_FM02</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="1">
+        <v>15</v>
+      </c>
+      <c r="G33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" ref="I33:I34" si="2">C33</f>
+        <v>FM02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
         <v>MDJ2_MD06</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F33" s="1">
+      <c r="B34" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="1">
         <v>16</v>
       </c>
-      <c r="G33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" s="1" t="str">
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="str">
         <f t="shared" si="2"/>
         <v>MD06</v>
       </c>
@@ -8268,7 +8088,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>36</v>
@@ -8280,15 +8100,15 @@
         <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -8299,10 +8119,10 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE00B9D9-B5E0-499B-8891-636328C1DBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E6E39-890D-432E-9A16-7E041312B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="285">
   <si>
     <t>TagName</t>
   </si>
@@ -967,6 +967,17 @@
   </si>
   <si>
     <t>MDJ1.OutPut.Heartbeat</t>
+  </si>
+  <si>
+    <t>PLC02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟工位02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ2_PLC02</t>
   </si>
 </sst>
 </file>
@@ -2436,7 +2447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
@@ -6128,7 +6139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J2" sqref="J2"/>
+      <selection pane="topRight" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -7117,11 +7128,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CA4B-91B2-4B42-9A2C-43FCA542F059}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I2" sqref="I2"/>
+      <selection pane="topRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -7223,7 +7234,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="str">
-        <f t="shared" ref="A4:A34" si="0">_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,"_")),IF(ISBLANK(C4),"",C4))</f>
+        <f t="shared" ref="A4:A35" si="0">_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,"_")),IF(ISBLANK(C4),"",C4))</f>
         <v>MDJ1_BZ02</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -7628,434 +7639,461 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ2_BZ01</v>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B19),"",_xlfn.CONCAT(B19,"_")),IF(ISBLANK(C19),"",C19))</f>
+        <v>MDJ2_PLC02</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>201</v>
+        <v>283</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>78</v>
+        <v>271</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ02</v>
+        <v>MDJ2_BZ01</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ03</v>
+        <v>MDJ2_BZ02</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ04</v>
+        <v>MDJ2_BZ03</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F22" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ05</v>
+        <v>MDJ2_BZ04</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F23" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ06</v>
+        <v>MDJ2_BZ05</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F24" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ07</v>
+        <v>MDJ2_BZ06</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F25" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZ08</v>
+        <v>MDJ2_BZ07</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F26" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_CZ02</v>
+        <v>MDJ2_BZ08</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>127</v>
+        <v>208</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F27" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_PM02</v>
+        <v>MDJ2_CZ02</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>179</v>
+        <v>209</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="F28" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MD04</v>
+        <v>MDJ2_PM02</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="4" t="s">
-        <v>166</v>
+      <c r="C29" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>61</v>
+        <v>220</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>179</v>
       </c>
       <c r="F29" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MD05</v>
+        <v>MDJ2_MD04</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F30" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MD06</v>
+        <v>MDJ2_MD05</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F31" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_CD02</v>
+        <v>MDJ2_MD06</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>172</v>
+      <c r="C32" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>75</v>
+        <v>212</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="F32" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_FM02</v>
+        <v>MDJ2_CD02</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="F33" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="str">
-        <f t="shared" ref="I33:I34" si="2">C33</f>
-        <v>FM02</v>
+      <c r="I33" s="1" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MD06</v>
+        <v>MDJ2_FM02</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="1">
+        <v>15</v>
+      </c>
+      <c r="G34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" ref="I34:I35" si="2">C34</f>
+        <v>FM02</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_MD06</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F35" s="1">
         <v>16</v>
       </c>
-      <c r="G34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I34" s="1" t="str">
+      <c r="G35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>MD06</v>
       </c>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E6E39-890D-432E-9A16-7E041312B5BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F1A88A-1F71-4549-B8F4-EE51F9AE9E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="InkjetTag" sheetId="10" r:id="rId5"/>
     <sheet name="EquipmentRaw" sheetId="5" r:id="rId6"/>
     <sheet name="StationRaw" sheetId="8" r:id="rId7"/>
-    <sheet name="LineRaw" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="301">
   <si>
     <t>TagName</t>
   </si>
@@ -619,18 +618,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Printing</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送内容</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PMJ01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -639,14 +626,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwdomInkjetTcp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>PMJ1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -778,18 +757,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>码垛线1号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>码垛线2号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LabelingTcp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>BZJ01.Bagging.Status</t>
   </si>
   <si>
@@ -955,14 +922,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>OutPut</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>MDJ1.Input.Heartbeat</t>
   </si>
   <si>
@@ -978,6 +937,107 @@
   </si>
   <si>
     <t>MDJ2_PLC02</t>
+  </si>
+  <si>
+    <t>Labeling</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>称重机读码完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷码机读码完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕读码完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标读码完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckWeigher</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weigh</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>称重机状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷码机状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>称重数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装重量</t>
+  </si>
+  <si>
+    <t>包装时间</t>
+  </si>
+  <si>
+    <t>Weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeOffset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_CZJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕机申请读码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>缠绕机袋码数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标机申请读码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标机袋码数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贴标机垛盘码数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_TBJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_PMJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_FMJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MDJ1_PLC01</t>
   </si>
 </sst>
 </file>
@@ -1364,7 +1424,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1401,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1451,7 +1511,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>62</v>
@@ -1460,7 +1520,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>133</v>
@@ -1501,7 +1561,7 @@
     </row>
     <row r="3" spans="1:19">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>62</v>
@@ -1551,7 +1611,7 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>62</v>
@@ -1601,7 +1661,7 @@
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>62</v>
@@ -1651,7 +1711,7 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1704,7 +1764,7 @@
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1757,7 +1817,7 @@
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1809,7 +1869,7 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1862,7 +1922,7 @@
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1915,7 +1975,7 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1967,7 +2027,7 @@
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2020,7 +2080,7 @@
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2073,7 +2133,7 @@
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2125,7 +2185,7 @@
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2177,7 +2237,7 @@
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>62</v>
@@ -2186,7 +2246,7 @@
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>133</v>
@@ -2215,7 +2275,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>25</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="1"/>
       <c r="R16" s="1" t="s">
@@ -2227,7 +2287,7 @@
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="4"/>
@@ -2280,7 +2340,7 @@
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="4"/>
@@ -2333,7 +2393,7 @@
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="4"/>
@@ -2386,7 +2446,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2488,21 +2548,21 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>144</v>
@@ -2511,12 +2571,12 @@
         <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>147</v>
@@ -2525,12 +2585,12 @@
         <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>52</v>
@@ -2539,12 +2599,12 @@
         <v>31</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>52</v>
@@ -2554,12 +2614,12 @@
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>32</v>
@@ -2571,12 +2631,12 @@
         <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>70</v>
@@ -2586,12 +2646,12 @@
       </c>
       <c r="E8" s="3"/>
       <c r="G8" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>52</v>
@@ -2605,7 +2665,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>32</v>
@@ -2622,7 +2682,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>70</v>
@@ -2636,7 +2696,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>53</v>
@@ -2650,7 +2710,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>71</v>
@@ -2667,7 +2727,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>70</v>
@@ -2681,7 +2741,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>74</v>
@@ -2695,21 +2755,21 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>72</v>
@@ -2718,12 +2778,12 @@
         <v>35</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>72</v>
@@ -2737,7 +2797,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>59</v>
@@ -2751,7 +2811,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>72</v>
@@ -3610,20 +3670,2242 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="28.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="1"/>
+    <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" s="1" t="str">
+        <f t="shared" ref="A2:A38" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <v>MDJ1.Heartbeat</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J2" s="1" t="str">
+        <f t="shared" ref="J2:J38" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <v>DB1002.0.0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1.ManualMode</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J3" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1.AutoMode</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.2</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1.RunningStatus</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.0.3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
+        <v>BZJ01.Bagging.Status</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.2</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="1" t="str">
+        <f t="shared" ref="Q6:Q38" si="2">IF(I6="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X6" s="3"/>
+      <c r="Z6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.Request</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.4</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.Code</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.6</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>32</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X8" s="3"/>
+      <c r="Z8" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.Weight</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.40</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M9" s="1">
+        <v>40</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1" t="str">
+        <f t="shared" ref="Q9" si="3">IF(I9="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Z9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>BZJ01.Bagging.TimeOffset</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.44</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Z10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B11),"",_xlfn.CONCAT(B11,".")),IF(ISBLANK(C11),"",_xlfn.CONCAT(C11,".")),IF(ISBLANK(D11),"",_xlfn.CONCAT(D11,".")),IF(ISBLANK(E11),"",_xlfn.CONCAT(E11,".")),F11)</f>
+        <v>CZJ01.Weigh.Status</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.48</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>48</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" ref="Q11:Q12" si="4">IF(I11="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1" t="str">
+        <f t="shared" ref="A12:A14" si="5">_xlfn.CONCAT(IF(ISBLANK(B12),"",_xlfn.CONCAT(B12,".")),IF(ISBLANK(C12),"",_xlfn.CONCAT(C12,".")),IF(ISBLANK(D12),"",_xlfn.CONCAT(D12,".")),IF(ISBLANK(E12),"",_xlfn.CONCAT(E12,".")),F12)</f>
+        <v>CZJ01.Weigh.Request</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>CZJ01.Weigh.Code</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.52</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>52</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>32</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>CZJ01.Weigh.Data</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>86</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Z14" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B15),"",_xlfn.CONCAT(B15,".")),IF(ISBLANK(C15),"",_xlfn.CONCAT(C15,".")),IF(ISBLANK(D15),"",_xlfn.CONCAT(D15,".")),IF(ISBLANK(E15),"",_xlfn.CONCAT(E15,".")),F15)</f>
+        <v>PMJ01.Inkjet.Status</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.90</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>90</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="str">
+        <f t="shared" ref="A16:A17" si="6">_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
+        <v>PMJ01.Inkjet.Request</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.92</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M16" s="1">
+        <v>92</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>PMJ01.Inkjet.Code</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.94</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M17" s="1">
+        <v>94</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>32</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Z17" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Status</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.128</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M18" s="1">
+        <v>128</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Request</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.130</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M19" s="1">
+        <v>130</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Code</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.132</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>132</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Sn</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.166</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M21" s="1">
+        <v>166</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.Request</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.168</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M22" s="1">
+        <v>168</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.Code</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.170</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>170</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.PalletCode</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.204</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M24" s="1">
+        <v>204</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FMJ01.Request</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.238</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M25" s="1">
+        <v>238</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>FMJ01.Code</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.240</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M26" s="1">
+        <v>240</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TBJ01.Request</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.274</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M27" s="1">
+        <v>274</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TBJ01.Code</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.276</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M28" s="1">
+        <v>276</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TBJ01.PalletCode</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.310</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M29" s="1">
+        <v>310</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ1.Heartbeat</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.0.0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bagging.ProcessResult</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CheckWeigher.ProcessResult</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="E32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Inkjet.ProcessResult</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="E33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Palletizing.ProcessResult</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Palletizing.Position</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.6</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M35" s="1">
+        <v>6</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grouping.ProcessResult</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M36" s="1">
+        <v>8</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>StretchWrapper.ProcessResult</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.6</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M37" s="1">
+        <v>6</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Labeling.ProcessResult</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M38" s="1">
+        <v>8</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431CFF1D-70F2-49DC-93A3-439F0036F289}">
+  <dimension ref="A1:Z38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
@@ -3659,7 +5941,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -3727,17 +6009,14 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A20" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
-        <v>MDJ1.Input.Heartbeat</v>
+        <f t="shared" ref="A2:A36" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <v>PMJ1.HeartBeat</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>279</v>
+        <v>177</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>133</v>
@@ -3746,7 +6025,7 @@
         <v>149</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:J5" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <f t="shared" ref="J2:J36" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
         <v>DB1002.0.0</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -3774,22 +6053,22 @@
         <v>21</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>262</v>
+        <v>137</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1.ManualMode</v>
+        <v>PMJ1.ManualMode</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>145</v>
@@ -3835,16 +6114,16 @@
         <v>31</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1.AutoMode</v>
+        <v>PMJ1.AutoMode</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>148</v>
@@ -3890,16 +6169,16 @@
         <v>31</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ1.RunningStatus</v>
+        <v>PMJ1.RunningStatus</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>146</v>
@@ -3945,7 +6224,7 @@
         <v>31</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>273</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -3969,7 +6248,7 @@
         <v>68</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" ref="J6:J20" si="2">_xlfn.CONCAT(K6,L6,".",M6,IF(ISBLANK(N6),"",_xlfn.CONCAT(".",N6)))</f>
+        <f t="shared" si="1"/>
         <v>DB1002.2</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -3988,7 +6267,7 @@
         <v>19</v>
       </c>
       <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q20" si="3">IF(I6="STRING",64,"")</f>
+        <f t="shared" ref="Q6:Q36" si="2">IF(I6="STRING",64,"")</f>
         <v/>
       </c>
       <c r="R6" s="1" t="s">
@@ -4005,1245 +6284,7 @@
       </c>
       <c r="X6" s="3"/>
       <c r="Z6" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BZJ01.Bagging.Request</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J7" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.4</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M7" s="1">
-        <v>4</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z7" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BZJ01.Bagging.Code</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.6</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M8" s="1">
-        <v>6</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>32</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X8" s="3"/>
-      <c r="Z8" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Status</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.40</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M9" s="1">
-        <v>40</v>
-      </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Request</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J10" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.42</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M10" s="1">
-        <v>42</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Code</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.44</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M11" s="1">
-        <v>44</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>32</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Sn</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.78</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M12" s="1">
-        <v>78</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CDJ01.Grouping.Request</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.80</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M13" s="1">
-        <v>80</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CDJ01.Grouping.Code</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1002.82</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M14" s="1">
-        <v>82</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>32</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CDJ01.Grouping.PalletCode</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" ref="J15:J16" si="4">_xlfn.CONCAT(K15,L15,".",M15,IF(ISBLANK(N15),"",_xlfn.CONCAT(".",N15)))</f>
-        <v>DB1002.116</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M15" s="1">
-        <v>116</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>32</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="1" t="str">
-        <f t="shared" ref="A16" si="5">_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
-        <v>MDJ1.OutPut.Heartbeat</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v>DB1001.0.0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z16" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BZJ01.Bagging.ProcessResult</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1001.2</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.ProcessResult</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1001.4</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Position</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1001.6</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M19" s="1">
-        <v>6</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>CDJ01.Grouping.ProcessResult</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>DB1001.8</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M20" s="1">
-        <v>8</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{431CFF1D-70F2-49DC-93A3-439F0036F289}">
-  <dimension ref="A1:Z22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1"/>
-    <col min="21" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A22" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
-        <v>PMJ1.HeartBeat</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:J20" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
-        <v>DB1002.0.0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.ManualMode</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J3" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.0.1</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.AutoMode</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.0.2</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.RunningStatus</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J5" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.0.3</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
-        <v>BZJ01.Bagging.Status</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J6" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.2</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M6" s="1">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q21" si="2">IF(I6="STRING",64,"")</f>
-        <v/>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="3"/>
-      <c r="Z6" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -5305,7 +6346,7 @@
         <v>60</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -5364,31 +6405,31 @@
       </c>
       <c r="X8" s="3"/>
       <c r="Z8" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Status</v>
+        <f t="shared" ref="A9:A10" si="3">_xlfn.CONCAT(IF(ISBLANK(B9),"",_xlfn.CONCAT(B9,".")),IF(ISBLANK(C9),"",_xlfn.CONCAT(C9,".")),IF(ISBLANK(D9),"",_xlfn.CONCAT(D9,".")),IF(ISBLANK(E9),"",_xlfn.CONCAT(E9,".")),F9)</f>
+        <v>BZJ01.Bagging.Weight</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>52</v>
+        <v>79</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>288</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>68</v>
+        <v>286</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J9:J10" si="4">_xlfn.CONCAT(K9,L9,".",M9,IF(ISBLANK(N9),"",_xlfn.CONCAT(".",N9)))</f>
         <v>DB1002.40</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -5407,723 +6448,1658 @@
         <v>19</v>
       </c>
       <c r="Q9" s="1" t="str">
+        <f t="shared" ref="Q9" si="5">IF(I9="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X9" s="5"/>
+      <c r="Z9" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>BZJ01.Bagging.TimeOffset</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>DB1002.44</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M10" s="1">
+        <v>44</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" s="3"/>
+      <c r="Z10" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B11),"",_xlfn.CONCAT(B11,".")),IF(ISBLANK(C11),"",_xlfn.CONCAT(C11,".")),IF(ISBLANK(D11),"",_xlfn.CONCAT(D11,".")),IF(ISBLANK(E11),"",_xlfn.CONCAT(E11,".")),F11)</f>
+        <v>CZJ01.Weigh.Status</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f t="shared" ref="J11:J13" si="6">_xlfn.CONCAT(K11,L11,".",M11,IF(ISBLANK(N11),"",_xlfn.CONCAT(".",N11)))</f>
+        <v>DB1002.48</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M11" s="1">
+        <v>48</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="1" t="str">
+        <f t="shared" ref="Q11:Q12" si="7">IF(I11="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X11" s="3"/>
+      <c r="Z11" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1" t="str">
+        <f t="shared" ref="A12:A13" si="8">_xlfn.CONCAT(IF(ISBLANK(B12),"",_xlfn.CONCAT(B12,".")),IF(ISBLANK(C12),"",_xlfn.CONCAT(C12,".")),IF(ISBLANK(D12),"",_xlfn.CONCAT(D12,".")),IF(ISBLANK(E12),"",_xlfn.CONCAT(E12,".")),F12)</f>
+        <v>CZJ01.Weigh.Request</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>DB1002.50</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M12" s="1">
+        <v>50</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>CZJ01.Weigh.Code</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>DB1002.52</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M13" s="1">
+        <v>52</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>32</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X13" s="3"/>
+      <c r="Z13" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1" t="str">
+        <f t="shared" ref="A14" si="9">_xlfn.CONCAT(IF(ISBLANK(B14),"",_xlfn.CONCAT(B14,".")),IF(ISBLANK(C14),"",_xlfn.CONCAT(C14,".")),IF(ISBLANK(D14),"",_xlfn.CONCAT(D14,".")),IF(ISBLANK(E14),"",_xlfn.CONCAT(E14,".")),F14)</f>
+        <v>CZJ01.Weigh.Data</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" ref="J14" si="10">_xlfn.CONCAT(K14,L14,".",M14,IF(ISBLANK(N14),"",_xlfn.CONCAT(".",N14)))</f>
+        <v>DB1002.86</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M14" s="1">
+        <v>86</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X14" s="3"/>
+      <c r="Z14" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1" t="str">
+        <f>_xlfn.CONCAT(IF(ISBLANK(B15),"",_xlfn.CONCAT(B15,".")),IF(ISBLANK(C15),"",_xlfn.CONCAT(C15,".")),IF(ISBLANK(D15),"",_xlfn.CONCAT(D15,".")),IF(ISBLANK(E15),"",_xlfn.CONCAT(E15,".")),F15)</f>
+        <v>PMJ01.Inkjet.Status</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f t="shared" ref="J15:J17" si="11">_xlfn.CONCAT(K15,L15,".",M15,IF(ISBLANK(N15),"",_xlfn.CONCAT(".",N15)))</f>
+        <v>DB1002.90</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M15" s="1">
+        <v>90</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Z15" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1" t="str">
+        <f t="shared" ref="A16:A17" si="12">_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
+        <v>PMJ01.Inkjet.Request</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>DB1002.92</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M16" s="1">
+        <v>92</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="12"/>
+        <v>PMJ01.Inkjet.Code</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>DB1002.94</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M17" s="1">
+        <v>94</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>32</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X17" s="3"/>
+      <c r="Z17" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Status</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.128</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M18" s="1">
+        <v>128</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Request</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.130</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M19" s="1">
+        <v>130</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Code</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.132</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M20" s="1">
+        <v>132</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ01.Palletizing.Sn</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.166</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M21" s="1">
+        <v>166</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.Request</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.168</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M22" s="1">
+        <v>168</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.Code</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.170</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M23" s="1">
+        <v>170</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z23" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CDJ01.Grouping.PalletCode</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1002.204</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M24" s="1">
+        <v>204</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z24" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" s="1" t="str">
+        <f t="shared" ref="A25:A27" si="13">_xlfn.CONCAT(IF(ISBLANK(B25),"",_xlfn.CONCAT(B25,".")),IF(ISBLANK(C25),"",_xlfn.CONCAT(C25,".")),IF(ISBLANK(D25),"",_xlfn.CONCAT(D25,".")),IF(ISBLANK(E25),"",_xlfn.CONCAT(E25,".")),F25)</f>
+        <v>FMJ01.Request</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" ref="J25:J27" si="14">_xlfn.CONCAT(K25,L25,".",M25,IF(ISBLANK(N25),"",_xlfn.CONCAT(".",N25)))</f>
+        <v>DB1002.238</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M25" s="1">
+        <v>238</v>
+      </c>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>FMJ01.Code</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J26" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>DB1002.240</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M26" s="1">
+        <v>240</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>TBJ01.Request</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>DB1002.274</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M27" s="1">
+        <v>274</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
+      <c r="A28" s="1" t="str">
+        <f t="shared" ref="A28:A29" si="15">_xlfn.CONCAT(IF(ISBLANK(B28),"",_xlfn.CONCAT(B28,".")),IF(ISBLANK(C28),"",_xlfn.CONCAT(C28,".")),IF(ISBLANK(D28),"",_xlfn.CONCAT(D28,".")),IF(ISBLANK(E28),"",_xlfn.CONCAT(E28,".")),F28)</f>
+        <v>TBJ01.Code</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J28" s="1" t="str">
+        <f t="shared" ref="J28:J29" si="16">_xlfn.CONCAT(K28,L28,".",M28,IF(ISBLANK(N28),"",_xlfn.CONCAT(".",N28)))</f>
+        <v>DB1002.276</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M28" s="1">
+        <v>276</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>TBJ01.PalletCode</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J29" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>DB1002.310</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1002</v>
+      </c>
+      <c r="M29" s="1">
+        <v>310</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>PMJ1.HeartBeat</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.0.0</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M30" s="1">
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>2</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Bagging.ProcessResult</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="E31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2</v>
+      </c>
+      <c r="O31" s="1">
+        <v>2</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q31" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Request</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="U31" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>CheckWeigher.ProcessResult</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="E32" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.42</v>
-      </c>
-      <c r="K10" s="1" t="s">
+        <v>DB1001.4</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M10" s="1">
-        <v>42</v>
-      </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="1" t="str">
+      <c r="L32" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+      <c r="O32" s="1">
+        <v>2</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q32" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z10" s="1" t="s">
+      <c r="U32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z32" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Code</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E11" s="4" t="s">
+    <row r="33" spans="1:26">
+      <c r="A33" s="1" t="str">
+        <f t="shared" ref="A33:A34" si="17">_xlfn.CONCAT(IF(ISBLANK(B33),"",_xlfn.CONCAT(B33,".")),IF(ISBLANK(C33),"",_xlfn.CONCAT(C33,".")),IF(ISBLANK(D33),"",_xlfn.CONCAT(D33,".")),IF(ISBLANK(E33),"",_xlfn.CONCAT(E33,".")),F33)</f>
+        <v>Inkjet.ProcessResult</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="E33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" ref="J33:J34" si="18">_xlfn.CONCAT(K33,L33,".",M33,IF(ISBLANK(N33),"",_xlfn.CONCAT(".",N33)))</f>
+        <v>DB1001.2</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q33" s="1" t="str">
+        <f t="shared" ref="Q33:Q34" si="19">IF(I33="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>Palletizing.ProcessResult</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="E34" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="1" t="str">
+      <c r="F34" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>DB1001.4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M34" s="1">
+        <v>4</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q34" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Palletizing.Position</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.44</v>
-      </c>
-      <c r="K11" s="1" t="s">
+        <v>DB1001.6</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M11" s="1">
-        <v>44</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>32</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U11" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ01.Palletizing.Sn</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.78</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M12" s="1">
-        <v>78</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="1" t="str">
+      <c r="L35" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M35" s="1">
+        <v>6</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q35" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z12" s="1" t="s">
+      <c r="U35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.Request</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4" t="s">
+    <row r="36" spans="1:26">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Grouping.ProcessResult</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="F36" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>DB1002.80</v>
-      </c>
-      <c r="K13" s="1" t="s">
+        <v>DB1001.8</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M13" s="1">
-        <v>80</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="1" t="str">
+      <c r="L36" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M36" s="1">
+        <v>8</v>
+      </c>
+      <c r="O36" s="1">
+        <v>2</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q36" s="1" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="X13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z13" s="1" t="s">
+      <c r="U36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z36" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.Code</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.82</v>
-      </c>
-      <c r="K14" s="1" t="s">
+    <row r="37" spans="1:26">
+      <c r="A37" s="1" t="str">
+        <f t="shared" ref="A37:A38" si="20">_xlfn.CONCAT(IF(ISBLANK(B37),"",_xlfn.CONCAT(B37,".")),IF(ISBLANK(C37),"",_xlfn.CONCAT(C37,".")),IF(ISBLANK(D37),"",_xlfn.CONCAT(D37,".")),IF(ISBLANK(E37),"",_xlfn.CONCAT(E37,".")),F37)</f>
+        <v>StretchWrapper.ProcessResult</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="E37" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f t="shared" ref="J37:J38" si="21">_xlfn.CONCAT(K37,L37,".",M37,IF(ISBLANK(N37),"",_xlfn.CONCAT(".",N37)))</f>
+        <v>DB1001.6</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M14" s="1">
-        <v>82</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>32</v>
-      </c>
-      <c r="R14" s="1" t="s">
+      <c r="L37" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M37" s="1">
+        <v>6</v>
+      </c>
+      <c r="O37" s="1">
+        <v>2</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q37" s="1" t="str">
+        <f t="shared" ref="Q37:Q38" si="22">IF(I37="STRING",64,"")</f>
+        <v/>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z14" s="1" t="s">
+      <c r="U37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Labeling.ProcessResult</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>DB1001.8</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="1">
+        <v>1001</v>
+      </c>
+      <c r="M38" s="1">
+        <v>8</v>
+      </c>
+      <c r="O38" s="1">
+        <v>2</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q38" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z38" s="1" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.PalletCode</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J15" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1002.116</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="1">
-        <v>1002</v>
-      </c>
-      <c r="M15" s="1">
-        <v>116</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>32</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z15" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ1.HeartBeat</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J16" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.0.0</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0</v>
-      </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-      <c r="O16" s="1">
-        <v>2</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:26">
-      <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Bagging.ProcessResult</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J17" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.2</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>2</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
-      <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizing.ProcessResult</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.4</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M18" s="1">
-        <v>4</v>
-      </c>
-      <c r="O18" s="1">
-        <v>2</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z18" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Palletizing.Position</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.6</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M19" s="1">
-        <v>6</v>
-      </c>
-      <c r="O19" s="1">
-        <v>2</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Grouping.ProcessResult</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>DB1001.8</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="1">
-        <v>1001</v>
-      </c>
-      <c r="M20" s="1">
-        <v>8</v>
-      </c>
-      <c r="O20" s="1">
-        <v>2</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q20" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>TBJ01.Printing.Content</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q21" s="1">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="W21" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PMJ01.Inkjet.Content</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -6135,11 +8111,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G11" sqref="G11"/>
+      <selection pane="topRight" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -6150,7 +8126,7 @@
     <col min="4" max="4" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.25" style="1" bestFit="1" customWidth="1"/>
@@ -6198,19 +8174,16 @@
         <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -6239,9 +8212,6 @@
       <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H3" s="1">
         <v>1</v>
       </c>
@@ -6251,7 +8221,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="str">
-        <f t="shared" ref="A4:A32" si="0">_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,"_")),D4)</f>
+        <f t="shared" ref="A4:A33" si="0">_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,"_")),D4)</f>
         <v>MDJ1_BZJ02</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -6269,9 +8239,6 @@
       <c r="F4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" s="1">
         <v>2</v>
       </c>
@@ -6299,9 +8266,6 @@
       <c r="F5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H5" s="1">
         <v>3</v>
       </c>
@@ -6329,9 +8293,6 @@
       <c r="F6" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" s="1">
         <v>4</v>
       </c>
@@ -6359,9 +8320,6 @@
       <c r="F7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H7" s="1">
         <v>5</v>
       </c>
@@ -6389,9 +8347,6 @@
       <c r="F8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="1">
         <v>6</v>
       </c>
@@ -6419,9 +8374,6 @@
       <c r="F9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" s="1">
         <v>7</v>
       </c>
@@ -6449,9 +8401,6 @@
       <c r="F10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H10" s="1">
         <v>8</v>
       </c>
@@ -6477,10 +8426,7 @@
         <v>123</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="H11" s="1">
         <v>9</v>
@@ -6509,9 +8455,6 @@
       <c r="F12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H12" s="1">
         <v>10</v>
       </c>
@@ -6539,9 +8482,6 @@
       <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H13" s="1">
         <v>11</v>
       </c>
@@ -6569,9 +8509,6 @@
       <c r="F14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H14" s="1">
         <v>12</v>
       </c>
@@ -6598,9 +8535,6 @@
       </c>
       <c r="F15" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="H15" s="1">
         <v>13</v>
@@ -6629,9 +8563,6 @@
       <c r="F16" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H16" s="1">
         <v>14</v>
       </c>
@@ -6659,9 +8590,6 @@
       <c r="F17" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H17" s="1">
         <v>15</v>
       </c>
@@ -6671,29 +8599,26 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ2_BZJ09</v>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B18),"",_xlfn.CONCAT(B18,"_")),D18)</f>
+        <v>MDJ2_PLC02</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>272</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>96</v>
+        <v>272</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>269</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="H18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="b">
         <v>1</v>
@@ -6702,28 +8627,25 @@
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ10</v>
+        <v>MDJ2_BZJ09</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="b">
         <v>1</v>
@@ -6732,28 +8654,25 @@
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ11</v>
+        <v>MDJ2_BZJ10</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" s="1" t="b">
         <v>1</v>
@@ -6762,28 +8681,25 @@
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ12</v>
+        <v>MDJ2_BZJ11</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I21" s="1" t="b">
         <v>1</v>
@@ -6792,28 +8708,25 @@
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ13</v>
+        <v>MDJ2_BZJ12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H22" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I22" s="1" t="b">
         <v>1</v>
@@ -6822,28 +8735,25 @@
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ14</v>
+        <v>MDJ2_BZJ13</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H23" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="1" t="b">
         <v>1</v>
@@ -6852,28 +8762,25 @@
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ15</v>
+        <v>MDJ2_BZJ14</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H24" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I24" s="1" t="b">
         <v>1</v>
@@ -6882,28 +8789,25 @@
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_BZJ16</v>
+        <v>MDJ2_BZJ15</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H25" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I25" s="1" t="b">
         <v>1</v>
@@ -6912,28 +8816,25 @@
     <row r="26" spans="1:9">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_CZJ02</v>
+        <v>MDJ2_BZJ16</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>111</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="H26" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I26" s="1" t="b">
         <v>1</v>
@@ -6942,28 +8843,25 @@
     <row r="27" spans="1:9">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MDJ04</v>
+        <v>MDJ2_CZJ02</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>115</v>
+      <c r="C27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>125</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="H27" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I27" s="1" t="b">
         <v>1</v>
@@ -6972,28 +8870,25 @@
     <row r="28" spans="1:9">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MDJ05</v>
+        <v>MDJ2_MDJ04</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H28" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1" t="b">
         <v>1</v>
@@ -7002,28 +8897,25 @@
     <row r="29" spans="1:9">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_MDJ06</v>
+        <v>MDJ2_MDJ05</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="H29" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I29" s="1" t="b">
         <v>1</v>
@@ -7031,29 +8923,26 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="1" t="str">
-        <f t="shared" ref="A30" si="2">_xlfn.CONCAT(IF(ISBLANK(B30),"",_xlfn.CONCAT(B30,"_")),D30)</f>
-        <v>MDJ2_CDJ02</v>
+        <f t="shared" si="0"/>
+        <v>MDJ2_MDJ06</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>173</v>
+      <c r="C30" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>122</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="H30" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I30" s="1" t="b">
         <v>1</v>
@@ -7061,26 +8950,23 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>MDJ2_FMJ02</v>
+        <f t="shared" ref="A31" si="2">_xlfn.CONCAT(IF(ISBLANK(B31),"",_xlfn.CONCAT(B31,"_")),D31)</f>
+        <v>MDJ2_CDJ02</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>41</v>
+        <v>174</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H31" s="1">
         <v>13</v>
@@ -7092,30 +8978,54 @@
     <row r="32" spans="1:9">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ2_TBJ02</v>
+        <v>MDJ2_FMJ02</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="1">
+        <v>13</v>
+      </c>
+      <c r="I32" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>MDJ2_TBJ02</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>14</v>
       </c>
-      <c r="I32" s="1" t="b">
+      <c r="I33" s="1" t="b">
         <v>1</v>
       </c>
     </row>
@@ -7130,9 +9040,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CA4B-91B2-4B42-9A2C-43FCA542F059}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H19" sqref="H19"/>
+      <selection pane="topRight" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
@@ -7154,7 +9064,7 @@
         <v>73</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>80</v>
@@ -7175,7 +9085,7 @@
         <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7187,13 +9097,13 @@
         <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
@@ -7202,7 +9112,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -7217,7 +9127,7 @@
         <v>151</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>78</v>
@@ -7229,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -7244,7 +9154,7 @@
         <v>152</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>78</v>
@@ -7256,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -7271,7 +9181,7 @@
         <v>153</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>78</v>
@@ -7283,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -7298,7 +9208,7 @@
         <v>154</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>78</v>
@@ -7310,7 +9220,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -7325,7 +9235,7 @@
         <v>155</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>78</v>
@@ -7337,7 +9247,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -7352,7 +9262,7 @@
         <v>156</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>78</v>
@@ -7364,7 +9274,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -7379,7 +9289,7 @@
         <v>157</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>78</v>
@@ -7391,7 +9301,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -7406,7 +9316,7 @@
         <v>158</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>78</v>
@@ -7418,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -7433,10 +9343,10 @@
         <v>159</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F11" s="1">
         <v>9</v>
@@ -7445,7 +9355,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -7457,13 +9367,13 @@
         <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
@@ -7487,7 +9397,7 @@
         <v>160</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>61</v>
@@ -7499,7 +9409,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7514,7 +9424,7 @@
         <v>161</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>61</v>
@@ -7526,7 +9436,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7541,7 +9451,7 @@
         <v>162</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
@@ -7568,7 +9478,7 @@
         <v>170</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>75</v>
@@ -7580,7 +9490,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -7595,7 +9505,7 @@
         <v>163</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>141</v>
@@ -7607,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -7622,10 +9532,10 @@
         <v>164</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="F18" s="1">
         <v>16</v>
@@ -7634,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -7646,13 +9556,13 @@
         <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -7661,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7676,7 +9586,7 @@
         <v>150</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>78</v>
@@ -7688,7 +9598,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -7703,7 +9613,7 @@
         <v>152</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>78</v>
@@ -7715,7 +9625,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -7730,7 +9640,7 @@
         <v>153</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>78</v>
@@ -7742,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -7757,7 +9667,7 @@
         <v>154</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>78</v>
@@ -7769,7 +9679,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -7784,7 +9694,7 @@
         <v>155</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>78</v>
@@ -7796,7 +9706,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -7811,7 +9721,7 @@
         <v>156</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>78</v>
@@ -7823,7 +9733,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -7838,7 +9748,7 @@
         <v>157</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>78</v>
@@ -7850,7 +9760,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -7865,7 +9775,7 @@
         <v>158</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>78</v>
@@ -7877,7 +9787,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -7892,7 +9802,7 @@
         <v>165</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>127</v>
@@ -7904,7 +9814,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -7916,13 +9826,13 @@
         <v>77</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F29" s="1">
         <v>10</v>
@@ -7931,7 +9841,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7946,7 +9856,7 @@
         <v>166</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>61</v>
@@ -7958,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -7973,7 +9883,7 @@
         <v>167</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>61</v>
@@ -7985,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8000,7 +9910,7 @@
         <v>168</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>61</v>
@@ -8012,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8027,7 +9937,7 @@
         <v>172</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>75</v>
@@ -8039,7 +9949,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -8054,10 +9964,10 @@
         <v>169</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F34" s="1">
         <v>15</v>
@@ -8082,7 +9992,7 @@
         <v>168</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>128</v>
@@ -8096,77 +10006,6 @@
       <c r="I35" s="1" t="str">
         <f t="shared" si="2"/>
         <v>MD06</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="203" verticalDpi="203"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E278A2C-898C-4DE6-A541-D2EA92C91CD8}">
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K13" sqref="K13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.375" defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="6" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="12.375" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="b">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9015216-C427-4E1F-9696-E1C10B531710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FBB38C-113A-47BD-B047-1D318B4807FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
     <sheet name="DomainTags" sheetId="7" r:id="rId2"/>
     <sheet name="Device" sheetId="6" r:id="rId3"/>
-    <sheet name="PlcTagRaw" sheetId="2" r:id="rId4"/>
+    <sheet name="SiemensS7TagRaw" sheetId="2" r:id="rId4"/>
     <sheet name="EquipmentRaw" sheetId="5" r:id="rId5"/>
     <sheet name="StationRaw" sheetId="8" r:id="rId6"/>
   </sheets>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="353">
   <si>
     <t>TagName</t>
   </si>
@@ -1180,6 +1180,22 @@
   </si>
   <si>
     <t>S7BatchReadingId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S7DataType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Real</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4039,18 +4055,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AB38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1:C1048576"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J15" sqref="J15:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.58203125" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="7" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
@@ -4058,27 +4074,28 @@
     <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="25.5" style="1"/>
-    <col min="21" max="21" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="25.5" style="1"/>
+    <col min="11" max="11" width="10.9140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.5" style="1"/>
+    <col min="22" max="22" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="29" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>343</v>
       </c>
@@ -4110,57 +4127,60 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:28">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A38" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
         <v>PLC01.Input.Heartbeat</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4182,51 +4202,54 @@
         <v>143</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:J38" si="1">_xlfn.CONCAT(K2,L2,".",M2,IF(ISBLANK(N2),"",_xlfn.CONCAT(".",N2)))</f>
+        <f t="shared" ref="J2:J38" si="0">_xlfn.CONCAT(L2,M2,".",N2,IF(ISBLANK(O2),"",_xlfn.CONCAT(".",O2)))</f>
         <v>DB1002.0.0</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>1002</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
       </c>
       <c r="N2" s="1">
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>1</v>
-      </c>
-      <c r="P2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="1" t="str">
-        <f t="shared" ref="U2:U38" si="2">_xlfn.CONCAT(G2,"_",H2)</f>
+      <c r="V2" s="1" t="str">
+        <f t="shared" ref="V2:V38" si="1">_xlfn.CONCAT(G2,"_",H2)</f>
         <v>产线01_1秒心跳</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA2" s="1" t="str">
+      <c r="AB2" s="1" t="str">
         <f>D2</f>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:28">
       <c r="A3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,".")),IF(ISBLANK(C3),"",_xlfn.CONCAT(C3,".")),IF(ISBLANK(D3),"",_xlfn.CONCAT(D3,".")),IF(ISBLANK(E3),"",_xlfn.CONCAT(E3,".")),F3)</f>
         <v>PLC01.ManualMode</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -4245,51 +4268,54 @@
         <v>143</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.0.1</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1002</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="1" t="str">
-        <f t="shared" si="2"/>
+      <c r="V3" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>产线01_手动模式</v>
       </c>
-      <c r="V3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="X3" s="1" t="s">
+      <c r="Y3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="1" t="str">
-        <f t="shared" ref="AA3:AA38" si="3">D3</f>
+      <c r="AB3" s="1" t="str">
+        <f t="shared" ref="AB3:AB38" si="2">D3</f>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:28">
       <c r="A4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,".")),IF(ISBLANK(C4),"",_xlfn.CONCAT(C4,".")),IF(ISBLANK(D4),"",_xlfn.CONCAT(D4,".")),IF(ISBLANK(E4),"",_xlfn.CONCAT(E4,".")),F4)</f>
         <v>PLC01.AutoMode</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4308,51 +4334,54 @@
         <v>143</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.0.2</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>1002</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>2</v>
       </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="1" t="str">
+      <c r="V4" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>产线01_自动模式</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB4" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>产线01_自动模式</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA4" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:28">
       <c r="A5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B5),"",_xlfn.CONCAT(B5,".")),IF(ISBLANK(C5),"",_xlfn.CONCAT(C5,".")),IF(ISBLANK(D5),"",_xlfn.CONCAT(D5,".")),IF(ISBLANK(E5),"",_xlfn.CONCAT(E5,".")),F5)</f>
         <v>PLC01.RunningStatus</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -4371,51 +4400,54 @@
         <v>143</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.0.3</v>
       </c>
       <c r="K5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>1002</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>3</v>
       </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U5" s="1" t="str">
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>产线01_运行状态</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB5" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>产线01_运行状态</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA5" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:28">
       <c r="A6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
         <v>BZJ01.Status</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -4434,53 +4466,56 @@
         <v>65</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.2</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>1002</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>2</v>
       </c>
-      <c r="O6" s="1">
-        <v>1</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q6" s="1" t="str">
-        <f t="shared" ref="Q6:Q38" si="4">IF(I6="STRING",64,"")</f>
+      <c r="R6" s="1" t="str">
+        <f t="shared" ref="R6:R38" si="3">IF(I6="STRING",64,"")</f>
         <v/>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="1" t="str">
+      <c r="V6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>包装机01_状态</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AB6" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>包装机01_状态</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y6" s="3"/>
-      <c r="AA6" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:28">
       <c r="A7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B7),"",_xlfn.CONCAT(B7,".")),IF(ISBLANK(C7),"",_xlfn.CONCAT(C7,".")),IF(ISBLANK(D7),"",_xlfn.CONCAT(D7,".")),IF(ISBLANK(E7),"",_xlfn.CONCAT(E7,".")),F7)</f>
         <v>BZJ01.Request</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -4499,55 +4534,58 @@
         <v>65</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.4</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>1002</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>4</v>
       </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q7" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R7" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="T7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U7" s="1" t="str">
+      <c r="V7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>包装机01_申请读码</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB7" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>包装机01_申请读码</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA7" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:28">
       <c r="A8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B8),"",_xlfn.CONCAT(B8,".")),IF(ISBLANK(C8),"",_xlfn.CONCAT(C8,".")),IF(ISBLANK(D8),"",_xlfn.CONCAT(D8,".")),IF(ISBLANK(E8),"",_xlfn.CONCAT(E8,".")),F8)</f>
         <v>BZJ01.Code</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -4566,52 +4604,55 @@
         <v>46</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.6</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>1002</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>6</v>
       </c>
-      <c r="O8" s="1">
-        <v>1</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>32</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="T8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U8" s="1" t="str">
+      <c r="V8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>包装机01_袋码数据</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="3"/>
+      <c r="AB8" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>包装机01_袋码数据</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y8" s="3"/>
-      <c r="AA8" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:28">
       <c r="A9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B9),"",_xlfn.CONCAT(B9,".")),IF(ISBLANK(C9),"",_xlfn.CONCAT(C9,".")),IF(ISBLANK(D9),"",_xlfn.CONCAT(D9,".")),IF(ISBLANK(E9),"",_xlfn.CONCAT(E9,".")),F9)</f>
         <v>BZJ01.Weight</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -4630,53 +4671,56 @@
         <v>251</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.40</v>
       </c>
       <c r="K9" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>1002</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>40</v>
       </c>
-      <c r="O9" s="1">
-        <v>1</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q9" s="1" t="str">
-        <f t="shared" ref="Q9" si="5">IF(I9="STRING",64,"")</f>
+      <c r="R9" s="1" t="str">
+        <f t="shared" ref="R9" si="4">IF(I9="STRING",64,"")</f>
         <v/>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="T9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="1" t="str">
+      <c r="V9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>包装机01_包装重量</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="5"/>
+      <c r="AB9" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>包装机01_包装重量</v>
-      </c>
-      <c r="V9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y9" s="5"/>
-      <c r="AA9" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:28">
       <c r="A10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B10),"",_xlfn.CONCAT(B10,".")),IF(ISBLANK(C10),"",_xlfn.CONCAT(C10,".")),IF(ISBLANK(D10),"",_xlfn.CONCAT(D10,".")),IF(ISBLANK(E10),"",_xlfn.CONCAT(E10,".")),F10)</f>
         <v>BZJ01.TimeOffset</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -4695,49 +4739,52 @@
         <v>251</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.44</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>1002</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>44</v>
       </c>
-      <c r="O10" s="1">
-        <v>1</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="T10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U10" s="1" t="str">
+      <c r="V10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>包装机01_包装时间</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z10" s="3"/>
+      <c r="AB10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>包装机01_包装时间</v>
-      </c>
-      <c r="V10" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y10" s="3"/>
-      <c r="AA10" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:28">
       <c r="A11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B11),"",_xlfn.CONCAT(B11,".")),IF(ISBLANK(C11),"",_xlfn.CONCAT(C11,".")),IF(ISBLANK(D11),"",_xlfn.CONCAT(D11,".")),IF(ISBLANK(E11),"",_xlfn.CONCAT(E11,".")),F11)</f>
         <v>CZJ01.Status</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -4756,53 +4803,56 @@
         <v>65</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.48</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L11" s="1">
+      <c r="M11" s="1">
         <v>1002</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>48</v>
       </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q11" s="1" t="str">
-        <f t="shared" ref="Q11:Q12" si="6">IF(I11="STRING",64,"")</f>
+      <c r="R11" s="1" t="str">
+        <f t="shared" ref="R11:R12" si="5">IF(I11="STRING",64,"")</f>
         <v/>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="S11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="T11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U11" s="1" t="str">
+      <c r="V11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>称重机01_状态</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="3"/>
+      <c r="AB11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>称重机01_状态</v>
-      </c>
-      <c r="V11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y11" s="3"/>
-      <c r="AA11" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:28">
       <c r="A12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B12),"",_xlfn.CONCAT(B12,".")),IF(ISBLANK(C12),"",_xlfn.CONCAT(C12,".")),IF(ISBLANK(D12),"",_xlfn.CONCAT(D12,".")),IF(ISBLANK(E12),"",_xlfn.CONCAT(E12,".")),F12)</f>
         <v>CZJ01.Request</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -4821,55 +4871,58 @@
         <v>65</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.50</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="1">
+      <c r="M12" s="1">
         <v>1002</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>50</v>
       </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q12" s="1" t="str">
-        <f t="shared" si="6"/>
+      <c r="R12" s="1" t="str">
+        <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U12" s="1" t="str">
+      <c r="V12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>称重机01_申请读码</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>称重机01_申请读码</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA12" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:28">
       <c r="A13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B13),"",_xlfn.CONCAT(B13,".")),IF(ISBLANK(C13),"",_xlfn.CONCAT(C13,".")),IF(ISBLANK(D13),"",_xlfn.CONCAT(D13,".")),IF(ISBLANK(E13),"",_xlfn.CONCAT(E13,".")),F13)</f>
         <v>CZJ01.Code</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -4888,52 +4941,55 @@
         <v>46</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.52</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L13" s="1">
+      <c r="M13" s="1">
         <v>1002</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>52</v>
       </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>32</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="S13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="T13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U13" s="1" t="str">
+      <c r="V13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>称重机01_袋码数据</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="3"/>
+      <c r="AB13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>称重机01_袋码数据</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y13" s="3"/>
-      <c r="AA13" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:28">
       <c r="A14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B14),"",_xlfn.CONCAT(B14,".")),IF(ISBLANK(C14),"",_xlfn.CONCAT(C14,".")),IF(ISBLANK(D14),"",_xlfn.CONCAT(D14,".")),IF(ISBLANK(E14),"",_xlfn.CONCAT(E14,".")),F14)</f>
         <v>CZJ01.Data</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -4952,49 +5008,52 @@
         <v>251</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.86</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L14" s="1">
+      <c r="M14" s="1">
         <v>1002</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>86</v>
       </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="T14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U14" s="1" t="str">
+      <c r="V14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>称重机01_称重数据</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z14" s="3"/>
+      <c r="AB14" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>称重机01_称重数据</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y14" s="3"/>
-      <c r="AA14" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:28">
       <c r="A15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B15),"",_xlfn.CONCAT(B15,".")),IF(ISBLANK(C15),"",_xlfn.CONCAT(C15,".")),IF(ISBLANK(D15),"",_xlfn.CONCAT(D15,".")),IF(ISBLANK(E15),"",_xlfn.CONCAT(E15,".")),F15)</f>
         <v>PMJ01.Status</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -5013,49 +5072,52 @@
         <v>65</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.90</v>
       </c>
       <c r="K15" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="1">
+      <c r="M15" s="1">
         <v>1002</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>90</v>
       </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="S15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="T15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U15" s="1" t="str">
+      <c r="V15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>喷码机01_状态</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z15" s="3"/>
+      <c r="AB15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>喷码机01_状态</v>
-      </c>
-      <c r="V15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y15" s="3"/>
-      <c r="AA15" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:28">
       <c r="A16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
         <v>PMJ01.Request</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -5074,51 +5136,54 @@
         <v>65</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.92</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="1">
+      <c r="M16" s="1">
         <v>1002</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>92</v>
       </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="S16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="T16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U16" s="1" t="str">
+      <c r="V16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>喷码机01_申请读码</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB16" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>喷码机01_申请读码</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA16" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:28">
       <c r="A17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B17),"",_xlfn.CONCAT(B17,".")),IF(ISBLANK(C17),"",_xlfn.CONCAT(C17,".")),IF(ISBLANK(D17),"",_xlfn.CONCAT(D17,".")),IF(ISBLANK(E17),"",_xlfn.CONCAT(E17,".")),F17)</f>
         <v>PMJ01.Code</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -5137,52 +5202,55 @@
         <v>46</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.94</v>
       </c>
       <c r="K17" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L17" s="1">
+      <c r="M17" s="1">
         <v>1002</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>94</v>
       </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>32</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="S17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="T17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U17" s="1" t="str">
+      <c r="V17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>喷码机01_袋码数据</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z17" s="3"/>
+      <c r="AB17" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>喷码机01_袋码数据</v>
-      </c>
-      <c r="V17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y17" s="3"/>
-      <c r="AA17" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:28">
       <c r="A18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B18),"",_xlfn.CONCAT(B18,".")),IF(ISBLANK(C18),"",_xlfn.CONCAT(C18,".")),IF(ISBLANK(D18),"",_xlfn.CONCAT(D18,".")),IF(ISBLANK(E18),"",_xlfn.CONCAT(E18,".")),F18)</f>
         <v>MDJ01.Status</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -5202,48 +5270,51 @@
         <v>65</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.128</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="1">
+      <c r="M18" s="1">
         <v>1002</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>128</v>
       </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="T18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U18" s="1" t="str">
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>码垛机01_状态</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>码垛机01_状态</v>
-      </c>
-      <c r="V18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA18" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:28">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B19),"",_xlfn.CONCAT(B19,".")),IF(ISBLANK(C19),"",_xlfn.CONCAT(C19,".")),IF(ISBLANK(D19),"",_xlfn.CONCAT(D19,".")),IF(ISBLANK(E19),"",_xlfn.CONCAT(E19,".")),F19)</f>
         <v>MDJ01.Request</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -5263,51 +5334,54 @@
         <v>65</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.130</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="1">
+      <c r="M19" s="1">
         <v>1002</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>130</v>
       </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="T19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U19" s="1" t="str">
+      <c r="V19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>码垛机01_申请读码</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>码垛机01_申请读码</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA19" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:28">
       <c r="A20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B20),"",_xlfn.CONCAT(B20,".")),IF(ISBLANK(C20),"",_xlfn.CONCAT(C20,".")),IF(ISBLANK(D20),"",_xlfn.CONCAT(D20,".")),IF(ISBLANK(E20),"",_xlfn.CONCAT(E20,".")),F20)</f>
         <v>MDJ01.Code</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -5327,48 +5401,51 @@
         <v>46</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.132</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L20" s="1">
+      <c r="M20" s="1">
         <v>1002</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>132</v>
       </c>
-      <c r="O20" s="1">
-        <v>1</v>
-      </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="S20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="T20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U20" s="1" t="str">
+      <c r="V20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>码垛机01_码垛袋码</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>码垛机01_码垛袋码</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA20" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:28">
       <c r="A21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B21),"",_xlfn.CONCAT(B21,".")),IF(ISBLANK(C21),"",_xlfn.CONCAT(C21,".")),IF(ISBLANK(D21),"",_xlfn.CONCAT(D21,".")),IF(ISBLANK(E21),"",_xlfn.CONCAT(E21,".")),F21)</f>
         <v>MDJ01.Sn</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -5388,48 +5465,51 @@
         <v>65</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.166</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>1002</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>166</v>
       </c>
-      <c r="O21" s="1">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="S21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="T21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U21" s="1" t="str">
+      <c r="V21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>码垛机01_码垛包数</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>码垛机01_码垛包数</v>
-      </c>
-      <c r="V21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA21" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:28">
       <c r="A22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B22),"",_xlfn.CONCAT(B22,".")),IF(ISBLANK(C22),"",_xlfn.CONCAT(C22,".")),IF(ISBLANK(D22),"",_xlfn.CONCAT(D22,".")),IF(ISBLANK(E22),"",_xlfn.CONCAT(E22,".")),F22)</f>
         <v>CDJ01.Request</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -5449,51 +5529,54 @@
         <v>65</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.168</v>
       </c>
       <c r="K22" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L22" s="1">
+      <c r="M22" s="1">
         <v>1002</v>
       </c>
-      <c r="M22" s="1">
+      <c r="N22" s="1">
         <v>168</v>
       </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="S22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="T22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U22" s="1" t="str">
+      <c r="V22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>出垛01_申请读码</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>出垛01_申请读码</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA22" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:28">
       <c r="A23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B23),"",_xlfn.CONCAT(B23,".")),IF(ISBLANK(C23),"",_xlfn.CONCAT(C23,".")),IF(ISBLANK(D23),"",_xlfn.CONCAT(D23,".")),IF(ISBLANK(E23),"",_xlfn.CONCAT(E23,".")),F23)</f>
         <v>CDJ01.Code</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -5513,48 +5596,51 @@
         <v>46</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.170</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="1">
+      <c r="M23" s="1">
         <v>1002</v>
       </c>
-      <c r="M23" s="1">
+      <c r="N23" s="1">
         <v>170</v>
       </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="S23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="T23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U23" s="1" t="str">
+      <c r="V23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>出垛01_袋码数据</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB23" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>出垛01_袋码数据</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA23" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:28">
       <c r="A24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B24),"",_xlfn.CONCAT(B24,".")),IF(ISBLANK(C24),"",_xlfn.CONCAT(C24,".")),IF(ISBLANK(D24),"",_xlfn.CONCAT(D24,".")),IF(ISBLANK(E24),"",_xlfn.CONCAT(E24,".")),F24)</f>
         <v>CDJ01.PalletCode</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -5574,48 +5660,51 @@
         <v>46</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.204</v>
       </c>
       <c r="K24" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L24" s="1">
+      <c r="M24" s="1">
         <v>1002</v>
       </c>
-      <c r="M24" s="1">
+      <c r="N24" s="1">
         <v>204</v>
       </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="S24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="T24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U24" s="1" t="str">
+      <c r="V24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>出垛01_垛盘码数据</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>出垛01_垛盘码数据</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA24" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:28">
       <c r="A25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B25),"",_xlfn.CONCAT(B25,".")),IF(ISBLANK(C25),"",_xlfn.CONCAT(C25,".")),IF(ISBLANK(D25),"",_xlfn.CONCAT(D25,".")),IF(ISBLANK(E25),"",_xlfn.CONCAT(E25,".")),F25)</f>
         <v>FMJ01.Request</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -5635,51 +5724,54 @@
         <v>65</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.238</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L25" s="1">
+      <c r="M25" s="1">
         <v>1002</v>
       </c>
-      <c r="M25" s="1">
+      <c r="N25" s="1">
         <v>238</v>
       </c>
-      <c r="O25" s="1">
-        <v>1</v>
-      </c>
-      <c r="P25" s="1" t="s">
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="S25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="T25" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U25" s="1" t="str">
+      <c r="V25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>覆膜缠绕机01_申请读码</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z25" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>覆膜缠绕机01_申请读码</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y25" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA25" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:28">
       <c r="A26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B26),"",_xlfn.CONCAT(B26,".")),IF(ISBLANK(C26),"",_xlfn.CONCAT(C26,".")),IF(ISBLANK(D26),"",_xlfn.CONCAT(D26,".")),IF(ISBLANK(E26),"",_xlfn.CONCAT(E26,".")),F26)</f>
         <v>FMJ01.Code</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -5699,48 +5791,51 @@
         <v>46</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.240</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L26" s="1">
+      <c r="M26" s="1">
         <v>1002</v>
       </c>
-      <c r="M26" s="1">
+      <c r="N26" s="1">
         <v>240</v>
       </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="S26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="T26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U26" s="1" t="str">
+      <c r="V26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>覆膜缠绕机01_袋码数据</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>覆膜缠绕机01_袋码数据</v>
-      </c>
-      <c r="V26" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA26" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:28">
       <c r="A27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B27),"",_xlfn.CONCAT(B27,".")),IF(ISBLANK(C27),"",_xlfn.CONCAT(C27,".")),IF(ISBLANK(D27),"",_xlfn.CONCAT(D27,".")),IF(ISBLANK(E27),"",_xlfn.CONCAT(E27,".")),F27)</f>
         <v>TBJ01.Request</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -5760,51 +5855,54 @@
         <v>65</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.274</v>
       </c>
       <c r="K27" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L27" s="1">
+      <c r="M27" s="1">
         <v>1002</v>
       </c>
-      <c r="M27" s="1">
+      <c r="N27" s="1">
         <v>274</v>
       </c>
-      <c r="O27" s="1">
-        <v>1</v>
-      </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="S27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="T27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U27" s="1" t="str">
+      <c r="V27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>贴标机01_申请读码</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB27" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>贴标机01_申请读码</v>
-      </c>
-      <c r="V27" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA27" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:28">
       <c r="A28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B28),"",_xlfn.CONCAT(B28,".")),IF(ISBLANK(C28),"",_xlfn.CONCAT(C28,".")),IF(ISBLANK(D28),"",_xlfn.CONCAT(D28,".")),IF(ISBLANK(E28),"",_xlfn.CONCAT(E28,".")),F28)</f>
         <v>TBJ01.Code</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -5824,48 +5922,51 @@
         <v>46</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.276</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L28" s="1">
+      <c r="M28" s="1">
         <v>1002</v>
       </c>
-      <c r="M28" s="1">
+      <c r="N28" s="1">
         <v>276</v>
       </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="S28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="T28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U28" s="1" t="str">
+      <c r="V28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>贴标机01_袋码数据</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>贴标机01_袋码数据</v>
-      </c>
-      <c r="V28" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA28" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:28">
       <c r="A29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B29),"",_xlfn.CONCAT(B29,".")),IF(ISBLANK(C29),"",_xlfn.CONCAT(C29,".")),IF(ISBLANK(D29),"",_xlfn.CONCAT(D29,".")),IF(ISBLANK(E29),"",_xlfn.CONCAT(E29,".")),F29)</f>
         <v>TBJ01.PalletCode</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -5885,48 +5986,51 @@
         <v>46</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1002.310</v>
       </c>
       <c r="K29" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="1">
+      <c r="M29" s="1">
         <v>1002</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>310</v>
       </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="S29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="T29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U29" s="1" t="str">
+      <c r="V29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>贴标机01_垛盘码数据</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB29" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>贴标机01_垛盘码数据</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA29" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:28">
       <c r="A30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B30),"",_xlfn.CONCAT(B30,".")),IF(ISBLANK(C30),"",_xlfn.CONCAT(C30,".")),IF(ISBLANK(D30),"",_xlfn.CONCAT(D30,".")),IF(ISBLANK(E30),"",_xlfn.CONCAT(E30,".")),F30)</f>
         <v>PLC01.Output.Heartbeat</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -5948,51 +6052,54 @@
         <v>143</v>
       </c>
       <c r="J30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.0.0</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="1">
+      <c r="M30" s="1">
         <v>1001</v>
-      </c>
-      <c r="M30" s="1">
-        <v>0</v>
       </c>
       <c r="N30" s="1">
         <v>0</v>
       </c>
       <c r="O30" s="1">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1">
         <v>2</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="S30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="T30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U30" s="1" t="str">
+      <c r="V30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>产线01_1秒心跳</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB30" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>产线01_1秒心跳</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA30" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:28">
       <c r="A31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B31),"",_xlfn.CONCAT(B31,".")),IF(ISBLANK(C31),"",_xlfn.CONCAT(C31,".")),IF(ISBLANK(D31),"",_xlfn.CONCAT(D31,".")),IF(ISBLANK(E31),"",_xlfn.CONCAT(E31,".")),F31)</f>
         <v>BZJ01.ProcessResult</v>
       </c>
       <c r="C31" s="8"/>
@@ -6012,52 +6119,55 @@
         <v>65</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.2</v>
       </c>
       <c r="K31" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L31" s="1">
+      <c r="M31" s="1">
         <v>1001</v>
       </c>
-      <c r="M31" s="1">
+      <c r="N31" s="1">
         <v>2</v>
       </c>
-      <c r="O31" s="1">
+      <c r="P31" s="1">
         <v>2</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q31" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R31" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="S31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="T31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U31" s="1" t="str">
+      <c r="V31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>包装机01_读码完成</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB31" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>包装机01_读码完成</v>
-      </c>
-      <c r="V31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA31" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:28">
       <c r="A32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B32),"",_xlfn.CONCAT(B32,".")),IF(ISBLANK(C32),"",_xlfn.CONCAT(C32,".")),IF(ISBLANK(D32),"",_xlfn.CONCAT(D32,".")),IF(ISBLANK(E32),"",_xlfn.CONCAT(E32,".")),F32)</f>
         <v>CZJ01.ProcessResult</v>
       </c>
       <c r="C32" s="8"/>
@@ -6077,52 +6187,55 @@
         <v>65</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.4</v>
       </c>
       <c r="K32" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="1">
+      <c r="M32" s="1">
         <v>1001</v>
       </c>
-      <c r="M32" s="1">
+      <c r="N32" s="1">
         <v>4</v>
       </c>
-      <c r="O32" s="1">
+      <c r="P32" s="1">
         <v>2</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q32" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R32" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="T32" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U32" s="1" t="str">
+      <c r="V32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>称重机01_读码完成</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB32" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>称重机01_读码完成</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA32" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:28">
       <c r="A33" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B33),"",_xlfn.CONCAT(B33,".")),IF(ISBLANK(C33),"",_xlfn.CONCAT(C33,".")),IF(ISBLANK(D33),"",_xlfn.CONCAT(D33,".")),IF(ISBLANK(E33),"",_xlfn.CONCAT(E33,".")),F33)</f>
         <v>PMJ01.ProcessResult</v>
       </c>
       <c r="C33" s="8"/>
@@ -6142,52 +6255,55 @@
         <v>65</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.2</v>
       </c>
       <c r="K33" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="1">
+      <c r="M33" s="1">
         <v>1001</v>
       </c>
-      <c r="M33" s="1">
+      <c r="N33" s="1">
         <v>2</v>
       </c>
-      <c r="O33" s="1">
+      <c r="P33" s="1">
         <v>2</v>
       </c>
-      <c r="P33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q33" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R33" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="T33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U33" s="1" t="str">
+      <c r="V33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>喷码机01_读码完成</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB33" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>喷码机01_读码完成</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA33" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:28">
       <c r="A34" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B34),"",_xlfn.CONCAT(B34,".")),IF(ISBLANK(C34),"",_xlfn.CONCAT(C34,".")),IF(ISBLANK(D34),"",_xlfn.CONCAT(D34,".")),IF(ISBLANK(E34),"",_xlfn.CONCAT(E34,".")),F34)</f>
         <v>MDJ01.ProcessResult</v>
       </c>
       <c r="C34" s="8"/>
@@ -6208,52 +6324,55 @@
         <v>65</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.4</v>
       </c>
       <c r="K34" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="1">
+      <c r="M34" s="1">
         <v>1001</v>
       </c>
-      <c r="M34" s="1">
+      <c r="N34" s="1">
         <v>4</v>
       </c>
-      <c r="O34" s="1">
+      <c r="P34" s="1">
         <v>2</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="Q34" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q34" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R34" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="T34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U34" s="1" t="str">
+      <c r="V34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>码垛机01_读码完成</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB34" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>码垛机01_读码完成</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA34" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:28">
       <c r="A35" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B35),"",_xlfn.CONCAT(B35,".")),IF(ISBLANK(C35),"",_xlfn.CONCAT(C35,".")),IF(ISBLANK(D35),"",_xlfn.CONCAT(D35,".")),IF(ISBLANK(E35),"",_xlfn.CONCAT(E35,".")),F35)</f>
         <v>MDJ01.Position</v>
       </c>
       <c r="C35" s="8"/>
@@ -6274,52 +6393,55 @@
         <v>65</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.6</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="1">
+      <c r="M35" s="1">
         <v>1001</v>
       </c>
-      <c r="M35" s="1">
+      <c r="N35" s="1">
         <v>6</v>
       </c>
-      <c r="O35" s="1">
+      <c r="P35" s="1">
         <v>2</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="Q35" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q35" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R35" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="T35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U35" s="1" t="str">
+      <c r="V35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>码垛机01_垛位号</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB35" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>码垛机01_垛位号</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="X35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA35" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:28">
       <c r="A36" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B36),"",_xlfn.CONCAT(B36,".")),IF(ISBLANK(C36),"",_xlfn.CONCAT(C36,".")),IF(ISBLANK(D36),"",_xlfn.CONCAT(D36,".")),IF(ISBLANK(E36),"",_xlfn.CONCAT(E36,".")),F36)</f>
         <v>CDJ01.ProcessResult</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -6339,52 +6461,55 @@
         <v>65</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.8</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L36" s="1">
+      <c r="M36" s="1">
         <v>1001</v>
       </c>
-      <c r="M36" s="1">
+      <c r="N36" s="1">
         <v>8</v>
       </c>
-      <c r="O36" s="1">
+      <c r="P36" s="1">
         <v>2</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="Q36" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q36" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R36" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="S36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="T36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U36" s="1" t="str">
+      <c r="V36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>出垛01_读码完成</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB36" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>出垛01_读码完成</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA36" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:28">
       <c r="A37" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B37),"",_xlfn.CONCAT(B37,".")),IF(ISBLANK(C37),"",_xlfn.CONCAT(C37,".")),IF(ISBLANK(D37),"",_xlfn.CONCAT(D37,".")),IF(ISBLANK(E37),"",_xlfn.CONCAT(E37,".")),F37)</f>
         <v>FMJ01.ProcessResult</v>
       </c>
       <c r="C37" s="8"/>
@@ -6405,52 +6530,55 @@
         <v>65</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.6</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="1">
+      <c r="M37" s="1">
         <v>1001</v>
       </c>
-      <c r="M37" s="1">
+      <c r="N37" s="1">
         <v>6</v>
       </c>
-      <c r="O37" s="1">
+      <c r="P37" s="1">
         <v>2</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="Q37" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q37" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R37" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="S37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="T37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U37" s="1" t="str">
+      <c r="V37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>覆膜缠绕机01_读码完成</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB37" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>覆膜缠绕机01_读码完成</v>
-      </c>
-      <c r="V37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA37" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:28">
       <c r="A38" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f>_xlfn.CONCAT(IF(ISBLANK(B38),"",_xlfn.CONCAT(B38,".")),IF(ISBLANK(C38),"",_xlfn.CONCAT(C38,".")),IF(ISBLANK(D38),"",_xlfn.CONCAT(D38,".")),IF(ISBLANK(E38),"",_xlfn.CONCAT(E38,".")),F38)</f>
         <v>TBJ01.ProcessResult</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -6469,46 +6597,49 @@
         <v>65</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>DB1001.8</v>
       </c>
       <c r="K38" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L38" s="1">
+      <c r="M38" s="1">
         <v>1001</v>
       </c>
-      <c r="M38" s="1">
+      <c r="N38" s="1">
         <v>8</v>
       </c>
-      <c r="O38" s="1">
+      <c r="P38" s="1">
         <v>2</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="Q38" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="Q38" s="1" t="str">
-        <f t="shared" si="4"/>
+      <c r="R38" s="1" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="S38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="T38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="U38" s="1" t="str">
+      <c r="V38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>贴标机01_读码完成</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AB38" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>贴标机01_读码完成</v>
-      </c>
-      <c r="V38" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA38" s="1" t="str">
-        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
@@ -6525,7 +6656,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:A35"/>
+      <selection pane="topRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FBB38C-113A-47BD-B047-1D318B4807FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8314C937-7014-4FCD-B098-C0A3E4E0C4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47890" yWindow="-110" windowWidth="29020" windowHeight="15700" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="362">
   <si>
     <t>TagName</t>
   </si>
@@ -1196,6 +1196,40 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPJ01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进盘机01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PalletStack</t>
+  </si>
+  <si>
+    <t>WS_JPJ01</t>
+  </si>
+  <si>
+    <t>进盘机02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPJ02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WS_JPJ02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进盘工位02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进盘工位01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1598,27 +1632,27 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.75" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.25" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.08203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.58203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.08203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -2682,16 +2716,16 @@
       <selection activeCell="A2" sqref="A2:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.08203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="28.125" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="28.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="28.08203125" style="1"/>
+    <col min="8" max="16384" width="28.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3009,20 +3043,20 @@
       <selection pane="topRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="5.83203125" style="1"/>
+    <col min="11" max="11" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="5.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4057,41 +4091,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J15" sqref="J15:J21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="20.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.58203125" style="7" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="20.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="7" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.9140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="3.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.5" style="1"/>
-    <col min="22" max="22" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.375" style="1" hidden="1" customWidth="1"/>
     <col min="29" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
@@ -4180,7 +4214,7 @@
     </row>
     <row r="2" spans="1:28">
       <c r="A2" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
+        <f t="shared" ref="A2:A38" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
         <v>PLC01.Input.Heartbeat</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4202,7 +4236,7 @@
         <v>143</v>
       </c>
       <c r="J2" s="1" t="str">
-        <f t="shared" ref="J2:J38" si="0">_xlfn.CONCAT(L2,M2,".",N2,IF(ISBLANK(O2),"",_xlfn.CONCAT(".",O2)))</f>
+        <f t="shared" ref="J2:J38" si="1">_xlfn.CONCAT(L2,M2,".",N2,IF(ISBLANK(O2),"",_xlfn.CONCAT(".",O2)))</f>
         <v>DB1002.0.0</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -4233,7 +4267,7 @@
         <v>21</v>
       </c>
       <c r="V2" s="1" t="str">
-        <f t="shared" ref="V2:V38" si="1">_xlfn.CONCAT(G2,"_",H2)</f>
+        <f t="shared" ref="V2:V38" si="2">_xlfn.CONCAT(G2,"_",H2)</f>
         <v>产线01_1秒心跳</v>
       </c>
       <c r="W2" s="1" t="s">
@@ -4249,7 +4283,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B3),"",_xlfn.CONCAT(B3,".")),IF(ISBLANK(C3),"",_xlfn.CONCAT(C3,".")),IF(ISBLANK(D3),"",_xlfn.CONCAT(D3,".")),IF(ISBLANK(E3),"",_xlfn.CONCAT(E3,".")),F3)</f>
+        <f t="shared" si="0"/>
         <v>PLC01.ManualMode</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -4268,7 +4302,7 @@
         <v>143</v>
       </c>
       <c r="J3" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.0.1</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -4299,7 +4333,7 @@
         <v>21</v>
       </c>
       <c r="V3" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>产线01_手动模式</v>
       </c>
       <c r="W3" s="1" t="s">
@@ -4309,13 +4343,13 @@
         <v>31</v>
       </c>
       <c r="AB3" s="1" t="str">
-        <f t="shared" ref="AB3:AB38" si="2">D3</f>
+        <f t="shared" ref="AB3:AB38" si="3">D3</f>
         <v>PLC01</v>
       </c>
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B4),"",_xlfn.CONCAT(B4,".")),IF(ISBLANK(C4),"",_xlfn.CONCAT(C4,".")),IF(ISBLANK(D4),"",_xlfn.CONCAT(D4,".")),IF(ISBLANK(E4),"",_xlfn.CONCAT(E4,".")),F4)</f>
+        <f t="shared" si="0"/>
         <v>PLC01.AutoMode</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -4334,7 +4368,7 @@
         <v>143</v>
       </c>
       <c r="J4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.0.2</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -4365,7 +4399,7 @@
         <v>21</v>
       </c>
       <c r="V4" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>产线01_自动模式</v>
       </c>
       <c r="W4" s="1" t="s">
@@ -4375,13 +4409,13 @@
         <v>31</v>
       </c>
       <c r="AB4" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B5),"",_xlfn.CONCAT(B5,".")),IF(ISBLANK(C5),"",_xlfn.CONCAT(C5,".")),IF(ISBLANK(D5),"",_xlfn.CONCAT(D5,".")),IF(ISBLANK(E5),"",_xlfn.CONCAT(E5,".")),F5)</f>
+        <f t="shared" si="0"/>
         <v>PLC01.RunningStatus</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -4400,7 +4434,7 @@
         <v>143</v>
       </c>
       <c r="J5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.0.3</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -4431,7 +4465,7 @@
         <v>21</v>
       </c>
       <c r="V5" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>产线01_运行状态</v>
       </c>
       <c r="W5" s="1" t="s">
@@ -4441,13 +4475,13 @@
         <v>31</v>
       </c>
       <c r="AB5" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B6),"",_xlfn.CONCAT(B6,".")),IF(ISBLANK(C6),"",_xlfn.CONCAT(C6,".")),IF(ISBLANK(D6),"",_xlfn.CONCAT(D6,".")),IF(ISBLANK(E6),"",_xlfn.CONCAT(E6,".")),F6)</f>
+        <f t="shared" si="0"/>
         <v>BZJ01.Status</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -4466,7 +4500,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.2</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -4488,7 +4522,7 @@
         <v>345</v>
       </c>
       <c r="R6" s="1" t="str">
-        <f t="shared" ref="R6:R38" si="3">IF(I6="STRING",64,"")</f>
+        <f t="shared" ref="R6:R38" si="4">IF(I6="STRING",64,"")</f>
         <v/>
       </c>
       <c r="S6" s="1" t="s">
@@ -4498,7 +4532,7 @@
         <v>21</v>
       </c>
       <c r="V6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>包装机01_状态</v>
       </c>
       <c r="W6" s="1" t="s">
@@ -4509,13 +4543,13 @@
       </c>
       <c r="Z6" s="3"/>
       <c r="AB6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
     <row r="7" spans="1:28">
       <c r="A7" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B7),"",_xlfn.CONCAT(B7,".")),IF(ISBLANK(C7),"",_xlfn.CONCAT(C7,".")),IF(ISBLANK(D7),"",_xlfn.CONCAT(D7,".")),IF(ISBLANK(E7),"",_xlfn.CONCAT(E7,".")),F7)</f>
+        <f t="shared" si="0"/>
         <v>BZJ01.Request</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -4534,7 +4568,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.4</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -4556,7 +4590,7 @@
         <v>345</v>
       </c>
       <c r="R7" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S7" s="1" t="s">
@@ -4566,7 +4600,7 @@
         <v>21</v>
       </c>
       <c r="V7" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>包装机01_申请读码</v>
       </c>
       <c r="W7" s="1" t="s">
@@ -4579,13 +4613,13 @@
         <v>58</v>
       </c>
       <c r="AB7" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
     <row r="8" spans="1:28">
       <c r="A8" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B8),"",_xlfn.CONCAT(B8,".")),IF(ISBLANK(C8),"",_xlfn.CONCAT(C8,".")),IF(ISBLANK(D8),"",_xlfn.CONCAT(D8,".")),IF(ISBLANK(E8),"",_xlfn.CONCAT(E8,".")),F8)</f>
+        <f t="shared" si="0"/>
         <v>BZJ01.Code</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -4604,7 +4638,7 @@
         <v>46</v>
       </c>
       <c r="J8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.6</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -4635,7 +4669,7 @@
         <v>21</v>
       </c>
       <c r="V8" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>包装机01_袋码数据</v>
       </c>
       <c r="W8" s="4" t="s">
@@ -4646,13 +4680,13 @@
       </c>
       <c r="Z8" s="3"/>
       <c r="AB8" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
     <row r="9" spans="1:28">
       <c r="A9" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B9),"",_xlfn.CONCAT(B9,".")),IF(ISBLANK(C9),"",_xlfn.CONCAT(C9,".")),IF(ISBLANK(D9),"",_xlfn.CONCAT(D9,".")),IF(ISBLANK(E9),"",_xlfn.CONCAT(E9,".")),F9)</f>
+        <f t="shared" si="0"/>
         <v>BZJ01.Weight</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -4671,7 +4705,7 @@
         <v>251</v>
       </c>
       <c r="J9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.40</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -4693,7 +4727,7 @@
         <v>345</v>
       </c>
       <c r="R9" s="1" t="str">
-        <f t="shared" ref="R9" si="4">IF(I9="STRING",64,"")</f>
+        <f t="shared" ref="R9" si="5">IF(I9="STRING",64,"")</f>
         <v/>
       </c>
       <c r="S9" s="1" t="s">
@@ -4703,7 +4737,7 @@
         <v>21</v>
       </c>
       <c r="V9" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>包装机01_包装重量</v>
       </c>
       <c r="W9" s="1" t="s">
@@ -4714,13 +4748,13 @@
       </c>
       <c r="Z9" s="5"/>
       <c r="AB9" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
     <row r="10" spans="1:28">
       <c r="A10" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B10),"",_xlfn.CONCAT(B10,".")),IF(ISBLANK(C10),"",_xlfn.CONCAT(C10,".")),IF(ISBLANK(D10),"",_xlfn.CONCAT(D10,".")),IF(ISBLANK(E10),"",_xlfn.CONCAT(E10,".")),F10)</f>
+        <f t="shared" si="0"/>
         <v>BZJ01.TimeOffset</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -4739,7 +4773,7 @@
         <v>251</v>
       </c>
       <c r="J10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.44</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -4767,7 +4801,7 @@
         <v>21</v>
       </c>
       <c r="V10" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>包装机01_包装时间</v>
       </c>
       <c r="W10" s="1" t="s">
@@ -4778,13 +4812,13 @@
       </c>
       <c r="Z10" s="3"/>
       <c r="AB10" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
     <row r="11" spans="1:28">
       <c r="A11" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B11),"",_xlfn.CONCAT(B11,".")),IF(ISBLANK(C11),"",_xlfn.CONCAT(C11,".")),IF(ISBLANK(D11),"",_xlfn.CONCAT(D11,".")),IF(ISBLANK(E11),"",_xlfn.CONCAT(E11,".")),F11)</f>
+        <f t="shared" si="0"/>
         <v>CZJ01.Status</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -4803,7 +4837,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.48</v>
       </c>
       <c r="K11" s="1" t="s">
@@ -4825,7 +4859,7 @@
         <v>345</v>
       </c>
       <c r="R11" s="1" t="str">
-        <f t="shared" ref="R11:R12" si="5">IF(I11="STRING",64,"")</f>
+        <f t="shared" ref="R11:R12" si="6">IF(I11="STRING",64,"")</f>
         <v/>
       </c>
       <c r="S11" s="1" t="s">
@@ -4835,7 +4869,7 @@
         <v>21</v>
       </c>
       <c r="V11" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>称重机01_状态</v>
       </c>
       <c r="W11" s="1" t="s">
@@ -4846,13 +4880,13 @@
       </c>
       <c r="Z11" s="3"/>
       <c r="AB11" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
     <row r="12" spans="1:28">
       <c r="A12" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B12),"",_xlfn.CONCAT(B12,".")),IF(ISBLANK(C12),"",_xlfn.CONCAT(C12,".")),IF(ISBLANK(D12),"",_xlfn.CONCAT(D12,".")),IF(ISBLANK(E12),"",_xlfn.CONCAT(E12,".")),F12)</f>
+        <f t="shared" si="0"/>
         <v>CZJ01.Request</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -4871,7 +4905,7 @@
         <v>65</v>
       </c>
       <c r="J12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.50</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -4893,7 +4927,7 @@
         <v>345</v>
       </c>
       <c r="R12" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S12" s="1" t="s">
@@ -4903,7 +4937,7 @@
         <v>21</v>
       </c>
       <c r="V12" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>称重机01_申请读码</v>
       </c>
       <c r="W12" s="1" t="s">
@@ -4916,13 +4950,13 @@
         <v>58</v>
       </c>
       <c r="AB12" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
     <row r="13" spans="1:28">
       <c r="A13" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B13),"",_xlfn.CONCAT(B13,".")),IF(ISBLANK(C13),"",_xlfn.CONCAT(C13,".")),IF(ISBLANK(D13),"",_xlfn.CONCAT(D13,".")),IF(ISBLANK(E13),"",_xlfn.CONCAT(E13,".")),F13)</f>
+        <f t="shared" si="0"/>
         <v>CZJ01.Code</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -4941,7 +4975,7 @@
         <v>46</v>
       </c>
       <c r="J13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.52</v>
       </c>
       <c r="K13" s="1" t="s">
@@ -4972,7 +5006,7 @@
         <v>21</v>
       </c>
       <c r="V13" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>称重机01_袋码数据</v>
       </c>
       <c r="W13" s="4" t="s">
@@ -4983,13 +5017,13 @@
       </c>
       <c r="Z13" s="3"/>
       <c r="AB13" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
     <row r="14" spans="1:28">
       <c r="A14" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B14),"",_xlfn.CONCAT(B14,".")),IF(ISBLANK(C14),"",_xlfn.CONCAT(C14,".")),IF(ISBLANK(D14),"",_xlfn.CONCAT(D14,".")),IF(ISBLANK(E14),"",_xlfn.CONCAT(E14,".")),F14)</f>
+        <f t="shared" si="0"/>
         <v>CZJ01.Data</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -5008,7 +5042,7 @@
         <v>251</v>
       </c>
       <c r="J14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.86</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -5036,7 +5070,7 @@
         <v>21</v>
       </c>
       <c r="V14" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>称重机01_称重数据</v>
       </c>
       <c r="W14" s="1" t="s">
@@ -5047,13 +5081,13 @@
       </c>
       <c r="Z14" s="3"/>
       <c r="AB14" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
     <row r="15" spans="1:28">
       <c r="A15" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B15),"",_xlfn.CONCAT(B15,".")),IF(ISBLANK(C15),"",_xlfn.CONCAT(C15,".")),IF(ISBLANK(D15),"",_xlfn.CONCAT(D15,".")),IF(ISBLANK(E15),"",_xlfn.CONCAT(E15,".")),F15)</f>
+        <f t="shared" si="0"/>
         <v>PMJ01.Status</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -5072,7 +5106,7 @@
         <v>65</v>
       </c>
       <c r="J15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.90</v>
       </c>
       <c r="K15" s="1" t="s">
@@ -5100,7 +5134,7 @@
         <v>21</v>
       </c>
       <c r="V15" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>喷码机01_状态</v>
       </c>
       <c r="W15" s="1" t="s">
@@ -5111,13 +5145,13 @@
       </c>
       <c r="Z15" s="3"/>
       <c r="AB15" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
     <row r="16" spans="1:28">
       <c r="A16" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B16),"",_xlfn.CONCAT(B16,".")),IF(ISBLANK(C16),"",_xlfn.CONCAT(C16,".")),IF(ISBLANK(D16),"",_xlfn.CONCAT(D16,".")),IF(ISBLANK(E16),"",_xlfn.CONCAT(E16,".")),F16)</f>
+        <f t="shared" si="0"/>
         <v>PMJ01.Request</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -5136,7 +5170,7 @@
         <v>65</v>
       </c>
       <c r="J16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.92</v>
       </c>
       <c r="K16" s="1" t="s">
@@ -5164,7 +5198,7 @@
         <v>21</v>
       </c>
       <c r="V16" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>喷码机01_申请读码</v>
       </c>
       <c r="W16" s="1" t="s">
@@ -5177,13 +5211,13 @@
         <v>58</v>
       </c>
       <c r="AB16" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B17),"",_xlfn.CONCAT(B17,".")),IF(ISBLANK(C17),"",_xlfn.CONCAT(C17,".")),IF(ISBLANK(D17),"",_xlfn.CONCAT(D17,".")),IF(ISBLANK(E17),"",_xlfn.CONCAT(E17,".")),F17)</f>
+        <f t="shared" si="0"/>
         <v>PMJ01.Code</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -5202,7 +5236,7 @@
         <v>46</v>
       </c>
       <c r="J17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.94</v>
       </c>
       <c r="K17" s="1" t="s">
@@ -5233,7 +5267,7 @@
         <v>21</v>
       </c>
       <c r="V17" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>喷码机01_袋码数据</v>
       </c>
       <c r="W17" s="4" t="s">
@@ -5244,13 +5278,13 @@
       </c>
       <c r="Z17" s="3"/>
       <c r="AB17" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B18),"",_xlfn.CONCAT(B18,".")),IF(ISBLANK(C18),"",_xlfn.CONCAT(C18,".")),IF(ISBLANK(D18),"",_xlfn.CONCAT(D18,".")),IF(ISBLANK(E18),"",_xlfn.CONCAT(E18,".")),F18)</f>
+        <f t="shared" si="0"/>
         <v>MDJ01.Status</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -5270,7 +5304,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.128</v>
       </c>
       <c r="K18" s="1" t="s">
@@ -5298,7 +5332,7 @@
         <v>21</v>
       </c>
       <c r="V18" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>码垛机01_状态</v>
       </c>
       <c r="W18" s="1" t="s">
@@ -5308,13 +5342,13 @@
         <v>31</v>
       </c>
       <c r="AB18" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B19),"",_xlfn.CONCAT(B19,".")),IF(ISBLANK(C19),"",_xlfn.CONCAT(C19,".")),IF(ISBLANK(D19),"",_xlfn.CONCAT(D19,".")),IF(ISBLANK(E19),"",_xlfn.CONCAT(E19,".")),F19)</f>
+        <f t="shared" si="0"/>
         <v>MDJ01.Request</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -5334,7 +5368,7 @@
         <v>65</v>
       </c>
       <c r="J19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.130</v>
       </c>
       <c r="K19" s="1" t="s">
@@ -5362,7 +5396,7 @@
         <v>21</v>
       </c>
       <c r="V19" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>码垛机01_申请读码</v>
       </c>
       <c r="W19" s="1" t="s">
@@ -5375,13 +5409,13 @@
         <v>58</v>
       </c>
       <c r="AB19" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
     <row r="20" spans="1:28">
       <c r="A20" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B20),"",_xlfn.CONCAT(B20,".")),IF(ISBLANK(C20),"",_xlfn.CONCAT(C20,".")),IF(ISBLANK(D20),"",_xlfn.CONCAT(D20,".")),IF(ISBLANK(E20),"",_xlfn.CONCAT(E20,".")),F20)</f>
+        <f t="shared" si="0"/>
         <v>MDJ01.Code</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -5401,7 +5435,7 @@
         <v>46</v>
       </c>
       <c r="J20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.132</v>
       </c>
       <c r="K20" s="1" t="s">
@@ -5429,7 +5463,7 @@
         <v>21</v>
       </c>
       <c r="V20" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>码垛机01_码垛袋码</v>
       </c>
       <c r="W20" s="4" t="s">
@@ -5439,13 +5473,13 @@
         <v>31</v>
       </c>
       <c r="AB20" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
     <row r="21" spans="1:28">
       <c r="A21" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B21),"",_xlfn.CONCAT(B21,".")),IF(ISBLANK(C21),"",_xlfn.CONCAT(C21,".")),IF(ISBLANK(D21),"",_xlfn.CONCAT(D21,".")),IF(ISBLANK(E21),"",_xlfn.CONCAT(E21,".")),F21)</f>
+        <f t="shared" si="0"/>
         <v>MDJ01.Sn</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -5465,7 +5499,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.166</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -5493,7 +5527,7 @@
         <v>21</v>
       </c>
       <c r="V21" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>码垛机01_码垛包数</v>
       </c>
       <c r="W21" s="1" t="s">
@@ -5503,13 +5537,13 @@
         <v>31</v>
       </c>
       <c r="AB21" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
     <row r="22" spans="1:28">
       <c r="A22" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B22),"",_xlfn.CONCAT(B22,".")),IF(ISBLANK(C22),"",_xlfn.CONCAT(C22,".")),IF(ISBLANK(D22),"",_xlfn.CONCAT(D22,".")),IF(ISBLANK(E22),"",_xlfn.CONCAT(E22,".")),F22)</f>
+        <f t="shared" si="0"/>
         <v>CDJ01.Request</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -5529,7 +5563,7 @@
         <v>65</v>
       </c>
       <c r="J22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.168</v>
       </c>
       <c r="K22" s="1" t="s">
@@ -5557,7 +5591,7 @@
         <v>21</v>
       </c>
       <c r="V22" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>出垛01_申请读码</v>
       </c>
       <c r="W22" s="4" t="s">
@@ -5570,13 +5604,13 @@
         <v>58</v>
       </c>
       <c r="AB22" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
     <row r="23" spans="1:28">
       <c r="A23" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B23),"",_xlfn.CONCAT(B23,".")),IF(ISBLANK(C23),"",_xlfn.CONCAT(C23,".")),IF(ISBLANK(D23),"",_xlfn.CONCAT(D23,".")),IF(ISBLANK(E23),"",_xlfn.CONCAT(E23,".")),F23)</f>
+        <f t="shared" si="0"/>
         <v>CDJ01.Code</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -5596,7 +5630,7 @@
         <v>46</v>
       </c>
       <c r="J23" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.170</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -5624,7 +5658,7 @@
         <v>21</v>
       </c>
       <c r="V23" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>出垛01_袋码数据</v>
       </c>
       <c r="W23" s="4" t="s">
@@ -5634,13 +5668,13 @@
         <v>31</v>
       </c>
       <c r="AB23" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
     <row r="24" spans="1:28">
       <c r="A24" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B24),"",_xlfn.CONCAT(B24,".")),IF(ISBLANK(C24),"",_xlfn.CONCAT(C24,".")),IF(ISBLANK(D24),"",_xlfn.CONCAT(D24,".")),IF(ISBLANK(E24),"",_xlfn.CONCAT(E24,".")),F24)</f>
+        <f t="shared" si="0"/>
         <v>CDJ01.PalletCode</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -5660,7 +5694,7 @@
         <v>46</v>
       </c>
       <c r="J24" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.204</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -5688,7 +5722,7 @@
         <v>21</v>
       </c>
       <c r="V24" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>出垛01_垛盘码数据</v>
       </c>
       <c r="W24" s="1" t="s">
@@ -5698,13 +5732,13 @@
         <v>31</v>
       </c>
       <c r="AB24" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
     <row r="25" spans="1:28">
       <c r="A25" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B25),"",_xlfn.CONCAT(B25,".")),IF(ISBLANK(C25),"",_xlfn.CONCAT(C25,".")),IF(ISBLANK(D25),"",_xlfn.CONCAT(D25,".")),IF(ISBLANK(E25),"",_xlfn.CONCAT(E25,".")),F25)</f>
+        <f t="shared" si="0"/>
         <v>FMJ01.Request</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -5724,7 +5758,7 @@
         <v>65</v>
       </c>
       <c r="J25" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.238</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -5752,7 +5786,7 @@
         <v>21</v>
       </c>
       <c r="V25" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>覆膜缠绕机01_申请读码</v>
       </c>
       <c r="W25" s="4" t="s">
@@ -5765,13 +5799,13 @@
         <v>58</v>
       </c>
       <c r="AB25" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
     <row r="26" spans="1:28">
       <c r="A26" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B26),"",_xlfn.CONCAT(B26,".")),IF(ISBLANK(C26),"",_xlfn.CONCAT(C26,".")),IF(ISBLANK(D26),"",_xlfn.CONCAT(D26,".")),IF(ISBLANK(E26),"",_xlfn.CONCAT(E26,".")),F26)</f>
+        <f t="shared" si="0"/>
         <v>FMJ01.Code</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -5791,7 +5825,7 @@
         <v>46</v>
       </c>
       <c r="J26" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.240</v>
       </c>
       <c r="K26" s="1" t="s">
@@ -5819,7 +5853,7 @@
         <v>21</v>
       </c>
       <c r="V26" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>覆膜缠绕机01_袋码数据</v>
       </c>
       <c r="W26" s="4" t="s">
@@ -5829,13 +5863,13 @@
         <v>31</v>
       </c>
       <c r="AB26" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
     <row r="27" spans="1:28">
       <c r="A27" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B27),"",_xlfn.CONCAT(B27,".")),IF(ISBLANK(C27),"",_xlfn.CONCAT(C27,".")),IF(ISBLANK(D27),"",_xlfn.CONCAT(D27,".")),IF(ISBLANK(E27),"",_xlfn.CONCAT(E27,".")),F27)</f>
+        <f t="shared" si="0"/>
         <v>TBJ01.Request</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -5855,7 +5889,7 @@
         <v>65</v>
       </c>
       <c r="J27" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.274</v>
       </c>
       <c r="K27" s="1" t="s">
@@ -5883,7 +5917,7 @@
         <v>21</v>
       </c>
       <c r="V27" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>贴标机01_申请读码</v>
       </c>
       <c r="W27" s="4" t="s">
@@ -5896,13 +5930,13 @@
         <v>58</v>
       </c>
       <c r="AB27" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
     <row r="28" spans="1:28">
       <c r="A28" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B28),"",_xlfn.CONCAT(B28,".")),IF(ISBLANK(C28),"",_xlfn.CONCAT(C28,".")),IF(ISBLANK(D28),"",_xlfn.CONCAT(D28,".")),IF(ISBLANK(E28),"",_xlfn.CONCAT(E28,".")),F28)</f>
+        <f t="shared" si="0"/>
         <v>TBJ01.Code</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -5922,7 +5956,7 @@
         <v>46</v>
       </c>
       <c r="J28" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.276</v>
       </c>
       <c r="K28" s="1" t="s">
@@ -5950,7 +5984,7 @@
         <v>21</v>
       </c>
       <c r="V28" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>贴标机01_袋码数据</v>
       </c>
       <c r="W28" s="4" t="s">
@@ -5960,13 +5994,13 @@
         <v>31</v>
       </c>
       <c r="AB28" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
     <row r="29" spans="1:28">
       <c r="A29" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B29),"",_xlfn.CONCAT(B29,".")),IF(ISBLANK(C29),"",_xlfn.CONCAT(C29,".")),IF(ISBLANK(D29),"",_xlfn.CONCAT(D29,".")),IF(ISBLANK(E29),"",_xlfn.CONCAT(E29,".")),F29)</f>
+        <f t="shared" si="0"/>
         <v>TBJ01.PalletCode</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -5986,7 +6020,7 @@
         <v>46</v>
       </c>
       <c r="J29" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1002.310</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -6014,7 +6048,7 @@
         <v>21</v>
       </c>
       <c r="V29" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>贴标机01_垛盘码数据</v>
       </c>
       <c r="W29" s="1" t="s">
@@ -6024,13 +6058,13 @@
         <v>31</v>
       </c>
       <c r="AB29" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
     <row r="30" spans="1:28">
       <c r="A30" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B30),"",_xlfn.CONCAT(B30,".")),IF(ISBLANK(C30),"",_xlfn.CONCAT(C30,".")),IF(ISBLANK(D30),"",_xlfn.CONCAT(D30,".")),IF(ISBLANK(E30),"",_xlfn.CONCAT(E30,".")),F30)</f>
+        <f t="shared" si="0"/>
         <v>PLC01.Output.Heartbeat</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -6052,7 +6086,7 @@
         <v>143</v>
       </c>
       <c r="J30" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1001.0.0</v>
       </c>
       <c r="K30" s="1" t="s">
@@ -6083,7 +6117,7 @@
         <v>21</v>
       </c>
       <c r="V30" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>产线01_1秒心跳</v>
       </c>
       <c r="W30" s="1" t="s">
@@ -6093,13 +6127,13 @@
         <v>34</v>
       </c>
       <c r="AB30" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
     <row r="31" spans="1:28">
       <c r="A31" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B31),"",_xlfn.CONCAT(B31,".")),IF(ISBLANK(C31),"",_xlfn.CONCAT(C31,".")),IF(ISBLANK(D31),"",_xlfn.CONCAT(D31,".")),IF(ISBLANK(E31),"",_xlfn.CONCAT(E31,".")),F31)</f>
+        <f t="shared" si="0"/>
         <v>BZJ01.ProcessResult</v>
       </c>
       <c r="C31" s="8"/>
@@ -6119,7 +6153,7 @@
         <v>65</v>
       </c>
       <c r="J31" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1001.2</v>
       </c>
       <c r="K31" s="1" t="s">
@@ -6141,7 +6175,7 @@
         <v>346</v>
       </c>
       <c r="R31" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S31" s="1" t="s">
@@ -6151,7 +6185,7 @@
         <v>21</v>
       </c>
       <c r="V31" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>包装机01_读码完成</v>
       </c>
       <c r="W31" s="1" t="s">
@@ -6161,13 +6195,13 @@
         <v>34</v>
       </c>
       <c r="AB31" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
     <row r="32" spans="1:28">
       <c r="A32" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B32),"",_xlfn.CONCAT(B32,".")),IF(ISBLANK(C32),"",_xlfn.CONCAT(C32,".")),IF(ISBLANK(D32),"",_xlfn.CONCAT(D32,".")),IF(ISBLANK(E32),"",_xlfn.CONCAT(E32,".")),F32)</f>
+        <f t="shared" si="0"/>
         <v>CZJ01.ProcessResult</v>
       </c>
       <c r="C32" s="8"/>
@@ -6187,7 +6221,7 @@
         <v>65</v>
       </c>
       <c r="J32" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>DB1001.4</v>
       </c>
       <c r="K32" s="1" t="s">
@@ -6209,7 +6243,7 @@
         <v>346</v>
       </c>
       <c r="R32" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S32" s="1" t="s">
@@ -6219,7 +6253,7 @@
         <v>21</v>
       </c>
       <c r="V32" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>称重机01_读码完成</v>
       </c>
       <c r="W32" s="1" t="s">
@@ -6229,13 +6263,13 @@
         <v>34</v>
       </c>
       <c r="AB32" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
     <row r="33" spans="1:28">
       <c r="A33" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B33),"",_xlfn.CONCAT(B33,".")),IF(ISBLANK(C33),"",_xlfn.CONCAT(C33,".")),IF(ISBLANK(D33),"",_xlfn.CONCAT(D33,".")),IF(ISBLANK(E33),"",_xlfn.CONCAT(E33,".")),F33)</f>
+        <f t="shared" si="0"/>
         <v>PMJ01.ProcessResult</v>
       </c>
       <c r="C33" s="8"/>
@@ -6255,8 +6289,8 @@
         <v>65</v>
       </c>
       <c r="J33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB1001.2</v>
+        <f t="shared" si="1"/>
+        <v>DB1001.6</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>350</v>
@@ -6268,7 +6302,7 @@
         <v>1001</v>
       </c>
       <c r="N33" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P33" s="1">
         <v>2</v>
@@ -6277,7 +6311,7 @@
         <v>346</v>
       </c>
       <c r="R33" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S33" s="1" t="s">
@@ -6287,7 +6321,7 @@
         <v>21</v>
       </c>
       <c r="V33" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>喷码机01_读码完成</v>
       </c>
       <c r="W33" s="1" t="s">
@@ -6297,13 +6331,13 @@
         <v>34</v>
       </c>
       <c r="AB33" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
     <row r="34" spans="1:28">
       <c r="A34" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B34),"",_xlfn.CONCAT(B34,".")),IF(ISBLANK(C34),"",_xlfn.CONCAT(C34,".")),IF(ISBLANK(D34),"",_xlfn.CONCAT(D34,".")),IF(ISBLANK(E34),"",_xlfn.CONCAT(E34,".")),F34)</f>
+        <f t="shared" si="0"/>
         <v>MDJ01.ProcessResult</v>
       </c>
       <c r="C34" s="8"/>
@@ -6324,8 +6358,8 @@
         <v>65</v>
       </c>
       <c r="J34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB1001.4</v>
+        <f t="shared" si="1"/>
+        <v>DB1001.8</v>
       </c>
       <c r="K34" s="1" t="s">
         <v>350</v>
@@ -6337,7 +6371,7 @@
         <v>1001</v>
       </c>
       <c r="N34" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P34" s="1">
         <v>2</v>
@@ -6346,7 +6380,7 @@
         <v>346</v>
       </c>
       <c r="R34" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S34" s="1" t="s">
@@ -6356,7 +6390,7 @@
         <v>21</v>
       </c>
       <c r="V34" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>码垛机01_读码完成</v>
       </c>
       <c r="W34" s="1" t="s">
@@ -6366,13 +6400,13 @@
         <v>34</v>
       </c>
       <c r="AB34" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
     <row r="35" spans="1:28">
       <c r="A35" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B35),"",_xlfn.CONCAT(B35,".")),IF(ISBLANK(C35),"",_xlfn.CONCAT(C35,".")),IF(ISBLANK(D35),"",_xlfn.CONCAT(D35,".")),IF(ISBLANK(E35),"",_xlfn.CONCAT(E35,".")),F35)</f>
+        <f t="shared" si="0"/>
         <v>MDJ01.Position</v>
       </c>
       <c r="C35" s="8"/>
@@ -6393,8 +6427,8 @@
         <v>65</v>
       </c>
       <c r="J35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB1001.6</v>
+        <f t="shared" si="1"/>
+        <v>DB1001.10</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>350</v>
@@ -6406,7 +6440,7 @@
         <v>1001</v>
       </c>
       <c r="N35" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P35" s="1">
         <v>2</v>
@@ -6415,7 +6449,7 @@
         <v>346</v>
       </c>
       <c r="R35" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S35" s="1" t="s">
@@ -6425,7 +6459,7 @@
         <v>21</v>
       </c>
       <c r="V35" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>码垛机01_垛位号</v>
       </c>
       <c r="W35" s="1" t="s">
@@ -6435,13 +6469,13 @@
         <v>34</v>
       </c>
       <c r="AB35" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
     <row r="36" spans="1:28">
       <c r="A36" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B36),"",_xlfn.CONCAT(B36,".")),IF(ISBLANK(C36),"",_xlfn.CONCAT(C36,".")),IF(ISBLANK(D36),"",_xlfn.CONCAT(D36,".")),IF(ISBLANK(E36),"",_xlfn.CONCAT(E36,".")),F36)</f>
+        <f t="shared" si="0"/>
         <v>CDJ01.ProcessResult</v>
       </c>
       <c r="D36" s="7" t="s">
@@ -6461,8 +6495,8 @@
         <v>65</v>
       </c>
       <c r="J36" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB1001.8</v>
+        <f t="shared" si="1"/>
+        <v>DB1001.12</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>350</v>
@@ -6474,7 +6508,7 @@
         <v>1001</v>
       </c>
       <c r="N36" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P36" s="1">
         <v>2</v>
@@ -6483,7 +6517,7 @@
         <v>346</v>
       </c>
       <c r="R36" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S36" s="1" t="s">
@@ -6493,7 +6527,7 @@
         <v>21</v>
       </c>
       <c r="V36" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>出垛01_读码完成</v>
       </c>
       <c r="W36" s="1" t="s">
@@ -6503,13 +6537,13 @@
         <v>34</v>
       </c>
       <c r="AB36" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
     <row r="37" spans="1:28">
       <c r="A37" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B37),"",_xlfn.CONCAT(B37,".")),IF(ISBLANK(C37),"",_xlfn.CONCAT(C37,".")),IF(ISBLANK(D37),"",_xlfn.CONCAT(D37,".")),IF(ISBLANK(E37),"",_xlfn.CONCAT(E37,".")),F37)</f>
+        <f t="shared" si="0"/>
         <v>FMJ01.ProcessResult</v>
       </c>
       <c r="C37" s="8"/>
@@ -6530,8 +6564,8 @@
         <v>65</v>
       </c>
       <c r="J37" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB1001.6</v>
+        <f t="shared" si="1"/>
+        <v>DB1001.14</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>350</v>
@@ -6543,7 +6577,7 @@
         <v>1001</v>
       </c>
       <c r="N37" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P37" s="1">
         <v>2</v>
@@ -6552,7 +6586,7 @@
         <v>346</v>
       </c>
       <c r="R37" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S37" s="1" t="s">
@@ -6562,7 +6596,7 @@
         <v>21</v>
       </c>
       <c r="V37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>覆膜缠绕机01_读码完成</v>
       </c>
       <c r="W37" s="1" t="s">
@@ -6572,13 +6606,13 @@
         <v>34</v>
       </c>
       <c r="AB37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
     <row r="38" spans="1:28">
       <c r="A38" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(B38),"",_xlfn.CONCAT(B38,".")),IF(ISBLANK(C38),"",_xlfn.CONCAT(C38,".")),IF(ISBLANK(D38),"",_xlfn.CONCAT(D38,".")),IF(ISBLANK(E38),"",_xlfn.CONCAT(E38,".")),F38)</f>
+        <f t="shared" si="0"/>
         <v>TBJ01.ProcessResult</v>
       </c>
       <c r="D38" s="7" t="s">
@@ -6597,8 +6631,8 @@
         <v>65</v>
       </c>
       <c r="J38" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>DB1001.8</v>
+        <f t="shared" si="1"/>
+        <v>DB1001.16</v>
       </c>
       <c r="K38" s="1" t="s">
         <v>350</v>
@@ -6610,7 +6644,7 @@
         <v>1001</v>
       </c>
       <c r="N38" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P38" s="1">
         <v>2</v>
@@ -6619,7 +6653,7 @@
         <v>346</v>
       </c>
       <c r="R38" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="S38" s="1" t="s">
@@ -6629,7 +6663,7 @@
         <v>21</v>
       </c>
       <c r="V38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>贴标机01_读码完成</v>
       </c>
       <c r="W38" s="1" t="s">
@@ -6639,7 +6673,7 @@
         <v>34</v>
       </c>
       <c r="AB38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
@@ -6652,28 +6686,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G15" sqref="G15"/>
+      <selection pane="topRight" activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.83203125" style="1"/>
-    <col min="9" max="9" width="11.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="9" max="9" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="12" max="12" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -6713,7 +6747,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A35" si="0">L2</f>
+        <f t="shared" ref="A2:A36" si="0">L2</f>
         <v>PLC01</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -6791,7 +6825,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="1" t="str">
-        <f t="shared" ref="I4:I35" si="1">_xlfn.CONCAT(IF(ISBLANK(J4),"",_xlfn.CONCAT(J4,"_")),L4)</f>
+        <f t="shared" ref="I4:I36" si="1">_xlfn.CONCAT(IF(ISBLANK(J4),"",_xlfn.CONCAT(J4,"_")),L4)</f>
         <v>MDJ1_BZJ02</v>
       </c>
       <c r="J4" s="4" t="s">
@@ -7239,530 +7273,590 @@
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>PLC02</v>
+      <c r="A19" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>232</v>
+        <v>354</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>355</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>_xlfn.CONCAT(IF(ISBLANK(J19),"",_xlfn.CONCAT(J19,"_")),L19)</f>
-        <v>MDJ2_PLC02</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>MDJ1_JPJ01</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>304</v>
+        <v>356</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>241</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ09</v>
+        <v>PLC02</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>100</v>
+        <v>238</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MDJ2_BZJ09</v>
+        <f>_xlfn.CONCAT(IF(ISBLANK(J20),"",_xlfn.CONCAT(J20,"_")),L20)</f>
+        <v>MDJ2_PLC02</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ10</v>
+        <v>BZJ09</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_BZJ10</v>
+        <v>MDJ2_BZJ09</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ11</v>
+        <v>BZJ10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_BZJ11</v>
+        <v>MDJ2_BZJ10</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ12</v>
+        <v>BZJ11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_BZJ12</v>
+        <v>MDJ2_BZJ11</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ13</v>
+        <v>BZJ12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_BZJ13</v>
+        <v>MDJ2_BZJ12</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ14</v>
+        <v>BZJ13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_BZJ14</v>
+        <v>MDJ2_BZJ13</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ15</v>
+        <v>BZJ14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E26" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_BZJ15</v>
+        <v>MDJ2_BZJ14</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BZJ16</v>
+        <v>BZJ15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E27" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_BZJ16</v>
+        <v>MDJ2_BZJ15</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CZJ02</v>
+        <v>BZJ16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>123</v>
+        <v>107</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E28" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_CZJ02</v>
+        <v>MDJ2_BZJ16</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>PMJ02</v>
+        <v>CZJ02</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>277</v>
+        <v>122</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ1_PMJ02</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>60</v>
+        <v>MDJ2_CZJ02</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>275</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ04</v>
+        <v>PMJ02</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>59</v>
+        <v>277</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>148</v>
       </c>
       <c r="E30" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_MDJ04</v>
-      </c>
-      <c r="J30" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>111</v>
+        <v>MDJ1_PMJ02</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ05</v>
+        <v>MDJ04</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E31" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_MDJ05</v>
+        <v>MDJ2_MDJ04</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>MDJ06</v>
+        <v>MDJ05</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E32" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_MDJ06</v>
+        <v>MDJ2_MDJ05</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>CDJ02</v>
+        <v>MDJ06</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E33" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f t="shared" ref="I33" si="4">_xlfn.CONCAT(IF(ISBLANK(J33),"",_xlfn.CONCAT(J33,"_")),L33)</f>
-        <v>MDJ2_CDJ02</v>
+        <f t="shared" si="1"/>
+        <v>MDJ2_MDJ06</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>145</v>
+      <c r="K33" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>FMJ02</v>
+        <v>CDJ02</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>135</v>
+        <v>146</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="E34" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>MDJ2_FMJ02</v>
+        <f t="shared" ref="I34" si="4">_xlfn.CONCAT(IF(ISBLANK(J34),"",_xlfn.CONCAT(J34,"_")),L34)</f>
+        <v>MDJ2_CDJ02</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>TBJ02</v>
+        <v>FMJ02</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="I35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>MDJ2_TBJ02</v>
+        <v>MDJ2_FMJ02</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>TBJ02</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="1">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>MDJ2_TBJ02</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="E37" s="1">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" ref="I37" si="5">_xlfn.CONCAT(IF(ISBLANK(J37),"",_xlfn.CONCAT(J37,"_")),L37)</f>
+        <v>MDJ2_JPJ02</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -7774,27 +7868,27 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CA4B-91B2-4B42-9A2C-43FCA542F059}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H2" sqref="H2:H35"/>
+      <selection pane="topRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.1640625" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.1640625" style="1"/>
-    <col min="11" max="11" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="7.1640625" style="1"/>
+    <col min="9" max="10" width="7.125" style="1"/>
+    <col min="11" max="11" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="7.125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7825,7 +7919,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="str">
-        <f t="shared" ref="A2:A35" si="0">_xlfn.CONCAT(J2,"_",K2)</f>
+        <f t="shared" ref="A2:A37" si="0">_xlfn.CONCAT(J2,"_",K2)</f>
         <v>WS_PLC01</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -7869,7 +7963,7 @@
         <v>60</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f t="shared" ref="D3:D35" si="1">_xlfn.CONCAT(J3,"_",L3)</f>
+        <f t="shared" ref="D3:D37" si="1">_xlfn.CONCAT(J3,"_",L3)</f>
         <v>WS_Packaging</v>
       </c>
       <c r="E3" s="1">
@@ -8403,79 +8497,79 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>WS_PLC02</v>
+        <f t="shared" ref="A19" si="2">_xlfn.CONCAT(J19,"_",K19)</f>
+        <v>WS_JPJ01</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>361</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>WS_System</v>
+        <f t="shared" ref="D19" si="3">_xlfn.CONCAT(J19,"_",L19)</f>
+        <v>WS_PalletStack</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>232</v>
+        <v>353</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ09</v>
+        <v>WS_PLC02</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>WS_Packaging</v>
+        <v>WS_System</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>92</v>
+        <v>284</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>92</v>
+        <v>241</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>75</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ10</v>
+        <v>WS_BZJ09</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>74</v>
@@ -8485,19 +8579,19 @@
         <v>WS_Packaging</v>
       </c>
       <c r="E21" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>75</v>
@@ -8506,10 +8600,10 @@
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ11</v>
+        <v>WS_BZJ10</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>74</v>
@@ -8519,19 +8613,19 @@
         <v>WS_Packaging</v>
       </c>
       <c r="E22" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>75</v>
@@ -8540,10 +8634,10 @@
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ12</v>
+        <v>WS_BZJ11</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>74</v>
@@ -8553,19 +8647,19 @@
         <v>WS_Packaging</v>
       </c>
       <c r="E23" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>75</v>
@@ -8574,10 +8668,10 @@
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ13</v>
+        <v>WS_BZJ12</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>74</v>
@@ -8587,19 +8681,19 @@
         <v>WS_Packaging</v>
       </c>
       <c r="E24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L24" s="1" t="s">
         <v>75</v>
@@ -8608,10 +8702,10 @@
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ14</v>
+        <v>WS_BZJ13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>74</v>
@@ -8621,19 +8715,19 @@
         <v>WS_Packaging</v>
       </c>
       <c r="E25" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L25" s="1" t="s">
         <v>75</v>
@@ -8642,10 +8736,10 @@
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ15</v>
+        <v>WS_BZJ14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>74</v>
@@ -8655,19 +8749,19 @@
         <v>WS_Packaging</v>
       </c>
       <c r="E26" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>75</v>
@@ -8676,10 +8770,10 @@
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_BZJ16</v>
+        <v>WS_BZJ15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>74</v>
@@ -8689,19 +8783,19 @@
         <v>WS_Packaging</v>
       </c>
       <c r="E27" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F27" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>75</v>
@@ -8710,112 +8804,112 @@
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_CZJ02</v>
+        <v>WS_BZJ16</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>WS_Checkweigher</v>
+        <v>WS_Packaging</v>
       </c>
       <c r="E28" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>123</v>
+        <v>99</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_PMJ02</v>
+        <v>WS_CZJ02</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>WS_Inkjet</v>
+        <v>WS_Checkweigher</v>
       </c>
       <c r="E29" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>274</v>
+        <v>121</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>148</v>
+        <v>121</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_MDJ04</v>
+        <v>WS_PMJ02</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>WS_Palletizer</v>
+        <v>WS_Inkjet</v>
       </c>
       <c r="E30" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>111</v>
+        <v>274</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K30" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>59</v>
+      <c r="K30" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_MDJ05</v>
+        <v>WS_MDJ04</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>74</v>
@@ -8825,19 +8919,19 @@
         <v>WS_Palletizer</v>
       </c>
       <c r="E31" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>59</v>
@@ -8846,10 +8940,10 @@
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_MDJ06</v>
+        <v>WS_MDJ05</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>74</v>
@@ -8859,19 +8953,19 @@
         <v>WS_Palletizer</v>
       </c>
       <c r="E32" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>59</v>
@@ -8880,103 +8974,171 @@
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_CDJ02</v>
+        <v>WS_MDJ06</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>WS_PalletOut</v>
+        <v>WS_Palletizer</v>
       </c>
       <c r="E33" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>285</v>
+        <v>113</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>72</v>
+      <c r="K33" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_FMJ02</v>
+        <v>WS_CDJ02</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>WS_StretchWrapper</v>
+        <v>WS_PalletOut</v>
       </c>
       <c r="E34" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="L34" s="6" t="s">
-        <v>182</v>
+        <v>145</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>WS_TBJ02</v>
+        <v>WS_FMJ02</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>WS_Labeling</v>
+        <v>WS_StretchWrapper</v>
       </c>
       <c r="E35" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>WS_TBJ02</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WS_Labeling</v>
+      </c>
+      <c r="E36" s="1">
+        <v>16</v>
+      </c>
+      <c r="F36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="6" t="s">
+      <c r="J36" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L36" s="6" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>WS_JPJ02</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>WS_PalletStack</v>
+      </c>
+      <c r="E37" s="1">
+        <v>17</v>
+      </c>
+      <c r="F37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8314C937-7014-4FCD-B098-C0A3E4E0C4BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C61797-258E-4A77-BF98-D13CF43A818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="363">
   <si>
     <t>TagName</t>
   </si>
@@ -1230,6 +1230,10 @@
   </si>
   <si>
     <t>进盘工位01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LineStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4091,9 +4095,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AB38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P15" sqref="P15"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="14.25"/>
@@ -6688,9 +6692,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C37" sqref="C37"/>
+      <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6756,6 +6760,9 @@
       <c r="C2" s="1" t="s">
         <v>232</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -7870,9 +7877,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C595CA4B-91B2-4B42-9A2C-43FCA542F059}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B20" sqref="B20"/>
+      <selection pane="topRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.125" defaultRowHeight="14.25"/>

--- a/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
+++ b/src/Plant01.Upper.Infrastructure/Configs/All.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MyCode\demo\UpperDemo\src\Plant01.Upper.Infrastructure\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C61797-258E-4A77-BF98-D13CF43A818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF43DF93-B575-4DBE-90E8-F7E9F3E30CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CommunicationTags" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="364">
   <si>
     <t>TagName</t>
   </si>
@@ -1235,6 +1235,9 @@
   <si>
     <t>LineStatus</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ValueTransformExpression</t>
   </si>
 </sst>
 </file>
@@ -4093,11 +4096,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AB38"/>
+  <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A2" sqref="A2:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="14.25"/>
@@ -4124,16 +4127,18 @@
     <col min="20" max="20" width="10.625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="25.5" style="1"/>
     <col min="22" max="22" width="21.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.375" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="25.5" style="1"/>
+    <col min="23" max="23" width="8.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:30">
       <c r="A1" s="1" t="s">
         <v>343</v>
       </c>
@@ -4198,25 +4203,31 @@
         <v>344</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:28">
+    <row r="2" spans="1:30">
       <c r="A2" s="1" t="str">
         <f t="shared" ref="A2:A38" si="0">_xlfn.CONCAT(IF(ISBLANK(B2),"",_xlfn.CONCAT(B2,".")),IF(ISBLANK(C2),"",_xlfn.CONCAT(C2,".")),IF(ISBLANK(D2),"",_xlfn.CONCAT(D2,".")),IF(ISBLANK(E2),"",_xlfn.CONCAT(E2,".")),F2)</f>
         <v>PLC01.Input.Heartbeat</v>
@@ -4275,17 +4286,20 @@
         <v>产线01_1秒心跳</v>
       </c>
       <c r="W2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB2" s="1" t="str">
+      <c r="AD2" s="1" t="str">
         <f>D2</f>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="3" spans="1:28">
+    <row r="3" spans="1:30">
       <c r="A3" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PLC01.ManualMode</v>
@@ -4341,17 +4355,20 @@
         <v>产线01_手动模式</v>
       </c>
       <c r="W3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB3" s="1" t="str">
-        <f t="shared" ref="AB3:AB38" si="3">D3</f>
+      <c r="AD3" s="1" t="str">
+        <f t="shared" ref="AD3:AD38" si="3">D3</f>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="4" spans="1:28">
+    <row r="4" spans="1:30">
       <c r="A4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PLC01.AutoMode</v>
@@ -4407,17 +4424,20 @@
         <v>产线01_自动模式</v>
       </c>
       <c r="W4" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="1" t="str">
+      <c r="AD4" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="5" spans="1:28">
+    <row r="5" spans="1:30">
       <c r="A5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PLC01.RunningStatus</v>
@@ -4473,17 +4493,20 @@
         <v>产线01_运行状态</v>
       </c>
       <c r="W5" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="1" t="str">
+      <c r="AD5" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="6" spans="1:28">
+    <row r="6" spans="1:30">
       <c r="A6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BZJ01.Status</v>
@@ -4539,19 +4562,23 @@
         <f t="shared" si="2"/>
         <v>包装机01_状态</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="W6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z6" s="3"/>
-      <c r="AB6" s="1" t="str">
+      <c r="AB6" s="3"/>
+      <c r="AD6" s="1" t="str">
         <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="7" spans="1:28">
+    <row r="7" spans="1:30">
       <c r="A7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BZJ01.Request</v>
@@ -4607,21 +4634,25 @@
         <f t="shared" si="2"/>
         <v>包装机01_申请读码</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="W7" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="AB7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB7" s="1" t="str">
+      <c r="AD7" s="1" t="str">
         <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="8" spans="1:28">
+    <row r="8" spans="1:30">
       <c r="A8" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BZJ01.Code</v>
@@ -4677,18 +4708,22 @@
         <v>包装机01_袋码数据</v>
       </c>
       <c r="W8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AB8" s="1" t="str">
+      <c r="AB8" s="3"/>
+      <c r="AD8" s="1" t="str">
         <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="9" spans="1:28">
+    <row r="9" spans="1:30">
       <c r="A9" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BZJ01.Weight</v>
@@ -4745,18 +4780,21 @@
         <v>包装机01_包装重量</v>
       </c>
       <c r="W9" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y9" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="Y9" s="1" t="s">
+      <c r="AA9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z9" s="5"/>
-      <c r="AB9" s="1" t="str">
+      <c r="AB9" s="5"/>
+      <c r="AD9" s="1" t="str">
         <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="10" spans="1:28">
+    <row r="10" spans="1:30">
       <c r="A10" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BZJ01.TimeOffset</v>
@@ -4809,18 +4847,21 @@
         <v>包装机01_包装时间</v>
       </c>
       <c r="W10" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y10" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="Y10" s="1" t="s">
+      <c r="AA10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AB10" s="1" t="str">
+      <c r="AB10" s="3"/>
+      <c r="AD10" s="1" t="str">
         <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="11" spans="1:28">
+    <row r="11" spans="1:30">
       <c r="A11" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CZJ01.Status</v>
@@ -4876,19 +4917,23 @@
         <f t="shared" si="2"/>
         <v>称重机01_状态</v>
       </c>
-      <c r="W11" s="1" t="s">
+      <c r="W11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y11" s="1" t="s">
+      <c r="AA11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AB11" s="1" t="str">
+      <c r="AB11" s="3"/>
+      <c r="AD11" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="12" spans="1:28">
+    <row r="12" spans="1:30">
       <c r="A12" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CZJ01.Request</v>
@@ -4944,21 +4989,25 @@
         <f t="shared" si="2"/>
         <v>称重机01_申请读码</v>
       </c>
-      <c r="W12" s="1" t="s">
+      <c r="W12" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y12" s="1" t="s">
+      <c r="AA12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB12" s="1" t="str">
+      <c r="AD12" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="13" spans="1:28">
+    <row r="13" spans="1:30">
       <c r="A13" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CZJ01.Code</v>
@@ -5014,18 +5063,22 @@
         <v>称重机01_袋码数据</v>
       </c>
       <c r="W13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y13" s="1" t="s">
+      <c r="AA13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z13" s="3"/>
-      <c r="AB13" s="1" t="str">
+      <c r="AB13" s="3"/>
+      <c r="AD13" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="14" spans="1:28">
+    <row r="14" spans="1:30">
       <c r="A14" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CZJ01.Data</v>
@@ -5078,18 +5131,21 @@
         <v>称重机01_称重数据</v>
       </c>
       <c r="W14" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y14" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="Y14" s="1" t="s">
+      <c r="AA14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z14" s="3"/>
-      <c r="AB14" s="1" t="str">
+      <c r="AB14" s="3"/>
+      <c r="AD14" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="15" spans="1:28">
+    <row r="15" spans="1:30">
       <c r="A15" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PMJ01.Status</v>
@@ -5141,19 +5197,23 @@
         <f t="shared" si="2"/>
         <v>喷码机01_状态</v>
       </c>
-      <c r="W15" s="1" t="s">
+      <c r="W15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y15" s="1" t="s">
+      <c r="AA15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z15" s="3"/>
-      <c r="AB15" s="1" t="str">
+      <c r="AB15" s="3"/>
+      <c r="AD15" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="16" spans="1:28">
+    <row r="16" spans="1:30">
       <c r="A16" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PMJ01.Request</v>
@@ -5205,21 +5265,25 @@
         <f t="shared" si="2"/>
         <v>喷码机01_申请读码</v>
       </c>
-      <c r="W16" s="1" t="s">
+      <c r="W16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y16" s="1" t="s">
+      <c r="AA16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="AB16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB16" s="1" t="str">
+      <c r="AD16" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:30">
       <c r="A17" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PMJ01.Code</v>
@@ -5275,18 +5339,22 @@
         <v>喷码机01_袋码数据</v>
       </c>
       <c r="W17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y17" s="1" t="s">
+      <c r="AA17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z17" s="3"/>
-      <c r="AB17" s="1" t="str">
+      <c r="AB17" s="3"/>
+      <c r="AD17" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:30">
       <c r="A18" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ01.Status</v>
@@ -5339,18 +5407,22 @@
         <f t="shared" si="2"/>
         <v>码垛机01_状态</v>
       </c>
-      <c r="W18" s="1" t="s">
+      <c r="W18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="Y18" s="1" t="s">
+      <c r="AA18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="1" t="str">
+      <c r="AD18" s="1" t="str">
         <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:30">
       <c r="A19" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ01.Request</v>
@@ -5403,21 +5475,25 @@
         <f t="shared" si="2"/>
         <v>码垛机01_申请读码</v>
       </c>
-      <c r="W19" s="1" t="s">
+      <c r="W19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="Y19" s="1" t="s">
+      <c r="AA19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="AB19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB19" s="1" t="str">
+      <c r="AD19" s="1" t="str">
         <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:30">
       <c r="A20" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ01.Code</v>
@@ -5471,17 +5547,21 @@
         <v>码垛机01_码垛袋码</v>
       </c>
       <c r="W20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y20" s="1" t="s">
+      <c r="AA20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB20" s="1" t="str">
+      <c r="AD20" s="1" t="str">
         <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="21" spans="1:28">
+    <row r="21" spans="1:30">
       <c r="A21" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ01.Sn</v>
@@ -5534,18 +5614,22 @@
         <f t="shared" si="2"/>
         <v>码垛机01_码垛包数</v>
       </c>
-      <c r="W21" s="1" t="s">
+      <c r="W21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="AA21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB21" s="1" t="str">
+      <c r="AD21" s="1" t="str">
         <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="22" spans="1:28">
+    <row r="22" spans="1:30">
       <c r="A22" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CDJ01.Request</v>
@@ -5599,20 +5683,24 @@
         <v>出垛01_申请读码</v>
       </c>
       <c r="W22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Y22" s="1" t="s">
+      <c r="AA22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="AB22" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB22" s="1" t="str">
+      <c r="AD22" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="23" spans="1:28">
+    <row r="23" spans="1:30">
       <c r="A23" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CDJ01.Code</v>
@@ -5666,17 +5754,21 @@
         <v>出垛01_袋码数据</v>
       </c>
       <c r="W23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="AA23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="1" t="str">
+      <c r="AD23" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:30">
       <c r="A24" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CDJ01.PalletCode</v>
@@ -5729,18 +5821,22 @@
         <f t="shared" si="2"/>
         <v>出垛01_垛盘码数据</v>
       </c>
-      <c r="W24" s="1" t="s">
+      <c r="W24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="AA24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB24" s="1" t="str">
+      <c r="AD24" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:30">
       <c r="A25" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FMJ01.Request</v>
@@ -5794,20 +5890,24 @@
         <v>覆膜缠绕机01_申请读码</v>
       </c>
       <c r="W25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Y25" s="1" t="s">
+      <c r="AA25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="AB25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB25" s="1" t="str">
+      <c r="AD25" s="1" t="str">
         <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:30">
       <c r="A26" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FMJ01.Code</v>
@@ -5861,17 +5961,21 @@
         <v>覆膜缠绕机01_袋码数据</v>
       </c>
       <c r="W26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="1" t="s">
+      <c r="AA26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB26" s="1" t="str">
+      <c r="AD26" s="1" t="str">
         <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:30">
       <c r="A27" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TBJ01.Request</v>
@@ -5925,20 +6029,24 @@
         <v>贴标机01_申请读码</v>
       </c>
       <c r="W27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="Y27" s="1" t="s">
+      <c r="AA27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="AB27" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AB27" s="1" t="str">
+      <c r="AD27" s="1" t="str">
         <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:30">
       <c r="A28" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TBJ01.Code</v>
@@ -5992,17 +6100,21 @@
         <v>贴标机01_袋码数据</v>
       </c>
       <c r="W28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Y28" s="1" t="s">
+      <c r="AA28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB28" s="1" t="str">
+      <c r="AD28" s="1" t="str">
         <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:30">
       <c r="A29" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TBJ01.PalletCode</v>
@@ -6055,18 +6167,22 @@
         <f t="shared" si="2"/>
         <v>贴标机01_垛盘码数据</v>
       </c>
-      <c r="W29" s="1" t="s">
+      <c r="W29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Y29" s="1" t="s">
+      <c r="AA29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AB29" s="1" t="str">
+      <c r="AD29" s="1" t="str">
         <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:30">
       <c r="A30" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PLC01.Output.Heartbeat</v>
@@ -6125,17 +6241,20 @@
         <v>产线01_1秒心跳</v>
       </c>
       <c r="W30" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y30" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="Y30" s="1" t="s">
+      <c r="AA30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB30" s="1" t="str">
+      <c r="AD30" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PLC01</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:30">
       <c r="A31" s="1" t="str">
         <f t="shared" si="0"/>
         <v>BZJ01.ProcessResult</v>
@@ -6192,18 +6311,22 @@
         <f t="shared" si="2"/>
         <v>包装机01_读码完成</v>
       </c>
-      <c r="W31" s="1" t="s">
+      <c r="W31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y31" s="1" t="s">
+      <c r="AA31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB31" s="1" t="str">
+      <c r="AD31" s="1" t="str">
         <f t="shared" si="3"/>
         <v>BZJ01</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:30">
       <c r="A32" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CZJ01.ProcessResult</v>
@@ -6260,18 +6383,22 @@
         <f t="shared" si="2"/>
         <v>称重机01_读码完成</v>
       </c>
-      <c r="W32" s="1" t="s">
+      <c r="W32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y32" s="1" t="s">
+      <c r="AA32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB32" s="1" t="str">
+      <c r="AD32" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CZJ01</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:30">
       <c r="A33" s="1" t="str">
         <f t="shared" si="0"/>
         <v>PMJ01.ProcessResult</v>
@@ -6328,18 +6455,22 @@
         <f t="shared" si="2"/>
         <v>喷码机01_读码完成</v>
       </c>
-      <c r="W33" s="1" t="s">
+      <c r="W33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y33" s="1" t="s">
+      <c r="AA33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB33" s="1" t="str">
+      <c r="AD33" s="1" t="str">
         <f t="shared" si="3"/>
         <v>PMJ01</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:30">
       <c r="A34" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ01.ProcessResult</v>
@@ -6397,18 +6528,22 @@
         <f t="shared" si="2"/>
         <v>码垛机01_读码完成</v>
       </c>
-      <c r="W34" s="1" t="s">
+      <c r="W34" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y34" s="1" t="s">
+      <c r="AA34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB34" s="1" t="str">
+      <c r="AD34" s="1" t="str">
         <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:30">
       <c r="A35" s="1" t="str">
         <f t="shared" si="0"/>
         <v>MDJ01.Position</v>
@@ -6466,18 +6601,22 @@
         <f t="shared" si="2"/>
         <v>码垛机01_垛位号</v>
       </c>
-      <c r="W35" s="1" t="s">
+      <c r="W35" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Y35" s="1" t="s">
+      <c r="AA35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB35" s="1" t="str">
+      <c r="AD35" s="1" t="str">
         <f t="shared" si="3"/>
         <v>MDJ01</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:30">
       <c r="A36" s="1" t="str">
         <f t="shared" si="0"/>
         <v>CDJ01.ProcessResult</v>
@@ -6534,18 +6673,22 @@
         <f t="shared" si="2"/>
         <v>出垛01_读码完成</v>
       </c>
-      <c r="W36" s="1" t="s">
+      <c r="W36" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y36" s="1" t="s">
+      <c r="AA36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB36" s="1" t="str">
+      <c r="AD36" s="1" t="str">
         <f t="shared" si="3"/>
         <v>CDJ01</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:30">
       <c r="A37" s="1" t="str">
         <f t="shared" si="0"/>
         <v>FMJ01.ProcessResult</v>
@@ -6603,18 +6746,22 @@
         <f t="shared" si="2"/>
         <v>覆膜缠绕机01_读码完成</v>
       </c>
-      <c r="W37" s="1" t="s">
+      <c r="W37" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y37" s="1" t="s">
+      <c r="AA37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB37" s="1" t="str">
+      <c r="AD37" s="1" t="str">
         <f t="shared" si="3"/>
         <v>FMJ01</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:30">
       <c r="A38" s="1" t="str">
         <f t="shared" si="0"/>
         <v>TBJ01.ProcessResult</v>
@@ -6670,13 +6817,17 @@
         <f t="shared" si="2"/>
         <v>贴标机01_读码完成</v>
       </c>
-      <c r="W38" s="1" t="s">
+      <c r="W38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Y38" s="1" t="s">
+      <c r="AA38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AB38" s="1" t="str">
+      <c r="AD38" s="1" t="str">
         <f t="shared" si="3"/>
         <v>TBJ01</v>
       </c>
@@ -6692,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
     </sheetView>
